--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5_backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD8B4F1-0B28-4539-9AB7-5F58AED21DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433F24EB-E626-42D7-99C7-5B46090BE9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
+    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
   <sheets>
     <sheet name="bd" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="98">
   <si>
     <t>email</t>
   </si>
@@ -203,42 +203,18 @@
     <t xml:space="preserve">postman routes com middleware </t>
   </si>
   <si>
-    <t>http://127.0.0.1:8000/api/empresas</t>
-  </si>
-  <si>
     <t>http://127.0.0.1:8000/api/register</t>
   </si>
   <si>
     <t>AuthController - register</t>
   </si>
   <si>
-    <t>EmpresaController - getEmpresas</t>
-  </si>
-  <si>
-    <t>EmpresasController - getEmpresasById</t>
-  </si>
-  <si>
     <t>http://127.0.0.1:8000/api/login</t>
   </si>
   <si>
     <t>AuthController - login</t>
   </si>
   <si>
-    <t>http://127.0.0.1:8000/api/addempresas</t>
-  </si>
-  <si>
-    <t>EmpresaController - addEmpresas</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8000/api/deleteempresas/{id}</t>
-  </si>
-  <si>
-    <t>EmpresaController - updateEmpresas</t>
-  </si>
-  <si>
-    <t>EmpresaController - deleteEmpresas</t>
-  </si>
-  <si>
     <t>http://127.0.0.1:8000/api/logout</t>
   </si>
   <si>
@@ -248,68 +224,140 @@
     <t>msg = logged out</t>
   </si>
   <si>
-    <t>User</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
-    <t xml:space="preserve">email </t>
-  </si>
-  <si>
     <t>hugoresende27 / rel_ponto — Bitbucket</t>
   </si>
   <si>
-    <t>http://127.0.0.1:8000/api/departamentos/{id}</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8000/api/empresas/{id}</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8000/api/departamentos</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8000/api/adddepartamentos</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8000/api/deletedepartamentos/{id}</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8000/api/updatedepartamentos/{id}</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8000/api/updateempresas/{id}</t>
-  </si>
-  <si>
-    <t>DepartamentoController - getDepartamentosById</t>
-  </si>
-  <si>
-    <t>DepartamentoController - getDepartamentos</t>
-  </si>
-  <si>
-    <t>DepartamentoController - addDepartamentos</t>
-  </si>
-  <si>
-    <t>DepartamentoController - deleteDepartamentos</t>
-  </si>
-  <si>
-    <t>DepartamentoController - updateDepartamentos</t>
-  </si>
-  <si>
-    <t>(Tenants) Companies</t>
-  </si>
-  <si>
-    <t>Funcionarios Users</t>
-  </si>
-  <si>
     <t xml:space="preserve">utilizar o package tenancy </t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/companies</t>
+  </si>
+  <si>
+    <t>CompanyController - index</t>
+  </si>
+  <si>
+    <t>CompanyController - store</t>
+  </si>
+  <si>
+    <t>required fields : name, email</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/companies/{id}</t>
+  </si>
+  <si>
+    <t>CompanyController - show</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>CompanyController - update</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>CompanyController - delete</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/departments/{id}</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/departments</t>
+  </si>
+  <si>
+    <t>DepartmentController - index</t>
+  </si>
+  <si>
+    <t>DepartmentController - store</t>
+  </si>
+  <si>
+    <t>DepartmentController - show</t>
+  </si>
+  <si>
+    <t>DepartmentController - update</t>
+  </si>
+  <si>
+    <t>DepartmentController - delete</t>
+  </si>
+  <si>
+    <t>required fields : name, company_id</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funcionarios </t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>required fields : name, email, password, password_confirmed</t>
+  </si>
+  <si>
+    <t>EmployeeController - index</t>
+  </si>
+  <si>
+    <t>EmployeeController - store</t>
+  </si>
+  <si>
+    <t>EmployeeController - show</t>
+  </si>
+  <si>
+    <t>EmployeeController - update</t>
+  </si>
+  <si>
+    <t>EmployeeController - delete</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/employees</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/employees/{id}</t>
+  </si>
+  <si>
+    <t>required fields : name, email, password, password_confirmed, nif, bi_cc, company_id, department_id</t>
+  </si>
+  <si>
+    <t>Companies</t>
+  </si>
+  <si>
+    <t>Tenants</t>
+  </si>
+  <si>
+    <t>companies_tenants</t>
+  </si>
+  <si>
+    <t>tenant_id</t>
+  </si>
+  <si>
+    <t>company_id</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>zip_code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,13 +368,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -354,7 +395,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,8 +414,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -382,20 +429,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -823,40 +934,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D199D9-B8D8-4350-8A96-21EEBB5AF420}">
-  <dimension ref="B3:Q21"/>
+  <dimension ref="B2:Q23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.109375" customWidth="1"/>
     <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.21875" customWidth="1"/>
     <col min="14" max="14" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="L2" s="5"/>
+    </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="E3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="Q3" t="s">
@@ -867,70 +989,79 @@
       <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="I4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="J4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="L4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="E5" s="1" t="s">
+    <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="I5" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="Q5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="E6" s="1" t="s">
+    <row r="6" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="E7" s="1" t="s">
+    <row r="7" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="J7" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q7" t="s">
@@ -938,104 +1069,177 @@
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>1</v>
       </c>
+      <c r="H8" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>8</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="Q9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>2</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="Q10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="E12" s="1" t="s">
+      <c r="E16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="E13" s="1" t="s">
+      <c r="E17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="E14" s="1" t="s">
+      <c r="E18" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="E15" s="1" t="s">
+      <c r="H19" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="E16" s="1" t="s">
+      <c r="H20" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E17" s="1" t="s">
+      <c r="H21" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="H19" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="H20" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="H21" s="1" t="s">
-        <v>29</v>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1047,10 +1251,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2213FDCB-CC6B-4563-9ABC-C0A7BD343549}">
-  <dimension ref="A2:K18"/>
+  <dimension ref="A2:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1059,198 +1263,292 @@
     <col min="4" max="4" width="42.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
         <v>49</v>
-      </c>
-      <c r="D2" t="s">
-        <v>50</v>
       </c>
       <c r="E2">
         <v>201</v>
       </c>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>53</v>
+      <c r="F2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E3">
         <v>200</v>
       </c>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
         <v>61</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6">
+      <c r="E7">
+        <v>201</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8">
         <v>200</v>
       </c>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>57</v>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E9">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>73</v>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E10">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
         <v>59</v>
       </c>
-      <c r="E11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>67</v>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
       </c>
       <c r="D13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13">
+        <v>201</v>
+      </c>
+      <c r="F13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
         <v>74</v>
-      </c>
-      <c r="E13">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" t="s">
-        <v>75</v>
       </c>
       <c r="E14">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>70</v>
       </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
       <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
         <v>76</v>
-      </c>
-      <c r="E15">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" t="s">
-        <v>77</v>
       </c>
       <c r="E16">
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19">
+        <v>201</v>
+      </c>
+      <c r="F19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" xr:uid="{DFE55596-CBE0-4248-B6E1-8C67E0C1211B}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{BBB211D6-EC2E-483F-AD68-2B5908BDB559}"/>
-    <hyperlink ref="A6" r:id="rId3" xr:uid="{59F8E18A-2EE1-4A1C-AC43-72D01AD26E74}"/>
-    <hyperlink ref="A3" r:id="rId4" xr:uid="{2AD720C6-79D9-490E-B59A-3EF5834599AE}"/>
-    <hyperlink ref="A8" r:id="rId5" xr:uid="{661FB5A7-597F-4AB2-824B-DECD70F96192}"/>
-    <hyperlink ref="A9" r:id="rId6" xr:uid="{0E80104A-763A-4A8C-BC81-0B9F5A8B4649}"/>
-    <hyperlink ref="A10" r:id="rId7" xr:uid="{EE048458-A52E-4012-9CE9-D4336D6CA14B}"/>
-    <hyperlink ref="A11" r:id="rId8" xr:uid="{E7FB3C39-0A46-4AFC-9FB3-0CDE453319AB}"/>
-    <hyperlink ref="A4" r:id="rId9" xr:uid="{9EFA1F3B-012E-4B52-8B70-B67ABED809A5}"/>
-    <hyperlink ref="A14" r:id="rId10" xr:uid="{A5587EB4-9F6E-451D-BEF3-AE2490C87879}"/>
-    <hyperlink ref="A13" r:id="rId11" xr:uid="{044B6282-D965-45A7-BA8A-980BB89BE250}"/>
-    <hyperlink ref="A15" r:id="rId12" xr:uid="{90AA6DF6-9D58-4D70-86EC-912600A3FEBF}"/>
-    <hyperlink ref="A16" r:id="rId13" xr:uid="{29D48280-923F-455E-BB51-AE9D438ACEF6}"/>
-    <hyperlink ref="A17" r:id="rId14" xr:uid="{5A832E68-5150-45B2-A94D-2B030A738CFB}"/>
-    <hyperlink ref="A18" r:id="rId15" xr:uid="{014242E9-D3D5-4CF3-BFAB-53DB2A6AA63F}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{BBB211D6-EC2E-483F-AD68-2B5908BDB559}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{2AD720C6-79D9-490E-B59A-3EF5834599AE}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{9EFA1F3B-012E-4B52-8B70-B67ABED809A5}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{A4ACD191-23EA-48D9-852B-4F64AE268575}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{7E675BB6-98E5-4A98-8C78-CD05BA10E017}"/>
+    <hyperlink ref="A8" r:id="rId6" xr:uid="{8CCD976F-622E-423E-8AA6-6304AC809C49}"/>
+    <hyperlink ref="A9" r:id="rId7" xr:uid="{06493852-F02F-4F8E-8163-F806E3685934}"/>
+    <hyperlink ref="A12" r:id="rId8" xr:uid="{8CC52737-961D-4062-AD04-0143DE3885CE}"/>
+    <hyperlink ref="A13" r:id="rId9" xr:uid="{9EDEF581-31CF-422C-AFD4-4350AD9549CB}"/>
+    <hyperlink ref="A14" r:id="rId10" xr:uid="{1AC0E46F-77F3-48ED-BF69-D4E597582298}"/>
+    <hyperlink ref="A15" r:id="rId11" xr:uid="{C7125051-D49B-48F8-9B20-CA2317A0D088}"/>
+    <hyperlink ref="A16" r:id="rId12" xr:uid="{7874FEB1-CB17-4CF0-91DC-3AFFBF58DDC6}"/>
+    <hyperlink ref="A18" r:id="rId13" xr:uid="{F60B5E4D-A587-4733-9296-813AD1EB6A3D}"/>
+    <hyperlink ref="A19" r:id="rId14" xr:uid="{89C8187B-E254-44A9-AA96-EDDE007BA2C8}"/>
+    <hyperlink ref="A20" r:id="rId15" xr:uid="{7D7C3C35-3435-4BAC-A4BD-B53EB924A022}"/>
+    <hyperlink ref="A21" r:id="rId16" xr:uid="{98B6A075-78C7-4196-9101-1AE0970B8FD7}"/>
+    <hyperlink ref="A22" r:id="rId17" xr:uid="{ED08F172-21EE-4BEC-B90E-DC109EEECF6D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -1279,7 +1577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122B7B63-70E1-4776-B60F-F0C2CAFC3214}">
   <dimension ref="A2:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1302,7 +1600,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1321,7 +1619,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1339,8 +1637,8 @@
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
-        <v>66</v>
+      <c r="B20" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433F24EB-E626-42D7-99C7-5B46090BE9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2F159E-E24E-42CA-AACB-48C0591DFDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="106">
   <si>
     <t>email</t>
   </si>
@@ -113,12 +113,6 @@
     <t>1Horario tem varios funcionarios</t>
   </si>
   <si>
-    <t>hora_entrada (date)</t>
-  </si>
-  <si>
-    <t>hora_saida (date)</t>
-  </si>
-  <si>
     <t>Empresa_funcionarios</t>
   </si>
   <si>
@@ -191,15 +185,9 @@
     <t xml:space="preserve">como fazer o return dos metodos dos controllers? JSON? </t>
   </si>
   <si>
-    <t xml:space="preserve"> O tenant(empresa) faz o registo </t>
-  </si>
-  <si>
     <t>Se apagar tenant o que acontece aos users e aos departamentos desse tenant? Set null ou Cascade onDelete??</t>
   </si>
   <si>
-    <t>Como vai o user registar -se como Tenant(Empresa)?O  registo para ser o registo de um Tenant(empresa)?</t>
-  </si>
-  <si>
     <t xml:space="preserve">postman routes com middleware </t>
   </si>
   <si>
@@ -230,9 +218,6 @@
     <t>hugoresende27 / rel_ponto — Bitbucket</t>
   </si>
   <si>
-    <t xml:space="preserve">utilizar o package tenancy </t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
@@ -302,9 +287,6 @@
     <t>start_date</t>
   </si>
   <si>
-    <t>required fields : name, email, password, password_confirmed</t>
-  </si>
-  <si>
     <t>EmployeeController - index</t>
   </si>
   <si>
@@ -351,6 +333,48 @@
   </si>
   <si>
     <t>zip_code</t>
+  </si>
+  <si>
+    <t>required fields : name, email, password, password_confirmed, role</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/locations</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/locations/{id}</t>
+  </si>
+  <si>
+    <t>required fields : country, city, street, zip_code_company_id</t>
+  </si>
+  <si>
+    <t>tabela schedules shitf_start shift_end</t>
+  </si>
+  <si>
+    <t>department_id</t>
+  </si>
+  <si>
+    <t>id_funcionario</t>
+  </si>
+  <si>
+    <t>shift_start (time)</t>
+  </si>
+  <si>
+    <t>shift_end (time)</t>
+  </si>
+  <si>
+    <t>start_time(date)</t>
+  </si>
+  <si>
+    <t>end_time (date)</t>
+  </si>
+  <si>
+    <t>clockpoint</t>
+  </si>
+  <si>
+    <t>shift_type(string)</t>
+  </si>
+  <si>
+    <t>metodos controllador schedulles</t>
   </si>
 </sst>
 </file>
@@ -489,7 +513,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -507,6 +531,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -563,6 +588,50 @@
         <a:xfrm>
           <a:off x="0" y="106680"/>
           <a:ext cx="12670018" cy="2448267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>211366</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>103240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89B40F6C-29E5-414A-AA5F-C305E9299615}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2392680"/>
+          <a:ext cx="13012966" cy="2648320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -937,7 +1006,7 @@
   <dimension ref="B2:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -958,25 +1027,26 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="L2" s="5"/>
+      <c r="N2" s="5"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>3</v>
@@ -987,7 +1057,7 @@
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>5</v>
@@ -996,13 +1066,13 @@
         <v>5</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>5</v>
@@ -1016,13 +1086,13 @@
         <v>6</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N5" s="13" t="s">
         <v>9</v>
@@ -1039,13 +1109,13 @@
         <v>8</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1056,30 +1126,33 @@
         <v>2</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q7" t="s">
         <v>19</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>1</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>96</v>
+        <v>90</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
@@ -1090,7 +1163,10 @@
         <v>8</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="Q9" t="s">
         <v>16</v>
@@ -1104,7 +1180,7 @@
         <v>2</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Q10" t="s">
         <v>17</v>
@@ -1125,6 +1201,9 @@
       <c r="E12" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="N12" s="17" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="13" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
@@ -1143,13 +1222,16 @@
         <v>12</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>4</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
@@ -1157,19 +1239,22 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1177,69 +1262,75 @@
         <v>9</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>13</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H19" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1251,10 +1342,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2213FDCB-CC6B-4563-9ABC-C0A7BD343549}">
-  <dimension ref="A2:F22"/>
+  <dimension ref="A2:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1265,30 +1356,30 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E2">
         <v>201</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E3">
         <v>200</v>
@@ -1296,56 +1387,56 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E7">
         <v>201</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E8">
         <v>200</v>
@@ -1353,13 +1444,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E9">
         <v>200</v>
@@ -1367,13 +1458,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
         <v>64</v>
-      </c>
-      <c r="C10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" t="s">
-        <v>69</v>
       </c>
       <c r="E10">
         <v>200</v>
@@ -1384,42 +1475,42 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E13">
         <v>201</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E14">
         <v>200</v>
@@ -1427,13 +1518,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
         <v>70</v>
-      </c>
-      <c r="C15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" t="s">
-        <v>75</v>
       </c>
       <c r="E15">
         <v>200</v>
@@ -1441,13 +1532,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E16">
         <v>200</v>
@@ -1458,42 +1549,42 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E19">
         <v>201</v>
       </c>
       <c r="F19" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E20">
         <v>200</v>
@@ -1501,13 +1592,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E21">
         <v>200</v>
@@ -1515,15 +1606,86 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25">
+        <v>201</v>
+      </c>
+      <c r="F25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28">
         <v>200</v>
       </c>
     </row>
@@ -1546,28 +1708,27 @@
     <hyperlink ref="A20" r:id="rId15" xr:uid="{7D7C3C35-3435-4BAC-A4BD-B53EB924A022}"/>
     <hyperlink ref="A21" r:id="rId16" xr:uid="{98B6A075-78C7-4196-9101-1AE0970B8FD7}"/>
     <hyperlink ref="A22" r:id="rId17" xr:uid="{ED08F172-21EE-4BEC-B90E-DC109EEECF6D}"/>
+    <hyperlink ref="A24" r:id="rId18" xr:uid="{00C242AD-1DD2-453E-9545-4B875BCD4296}"/>
+    <hyperlink ref="A25" r:id="rId19" xr:uid="{8EFDB8EB-DECF-454C-A6B2-521937F8DA39}"/>
+    <hyperlink ref="A26" r:id="rId20" xr:uid="{68C6EF4B-EAF5-4F8D-835E-85B4CC1127E1}"/>
+    <hyperlink ref="A27" r:id="rId21" xr:uid="{A441BE67-5C82-4C5C-B76F-DC608DEABFCF}"/>
+    <hyperlink ref="A28" r:id="rId22" xr:uid="{D6EED714-BC54-417C-8D12-98D914984736}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId23"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5F5619-C91F-44CF-AE98-3AB9D7129EE3}">
-  <dimension ref="B17"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1575,32 +1736,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122B7B63-70E1-4776-B60F-F0C2CAFC3214}">
-  <dimension ref="A2:A8"/>
+  <dimension ref="A2:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>57</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1620,25 +1776,25 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2F159E-E24E-42CA-AACB-48C0591DFDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C839AD6E-8B28-4A9B-88ED-4D8B1C205771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
+    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
   <sheets>
     <sheet name="bd" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="114">
   <si>
     <t>email</t>
   </si>
@@ -375,6 +375,30 @@
   </si>
   <si>
     <t>metodos controllador schedulles</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/schedules</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/schedules/{id}</t>
+  </si>
+  <si>
+    <t>ScheduleController - index</t>
+  </si>
+  <si>
+    <t>ScheduleController - store</t>
+  </si>
+  <si>
+    <t>ScheduleController - show</t>
+  </si>
+  <si>
+    <t>ScheduleController - update</t>
+  </si>
+  <si>
+    <t>ScheduleController - delete</t>
+  </si>
+  <si>
+    <t>required fields : shift_start, shift_end, shift_type, company_id, department_id</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D199D9-B8D8-4350-8A96-21EEBB5AF420}">
   <dimension ref="B2:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -1342,10 +1366,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2213FDCB-CC6B-4563-9ABC-C0A7BD343549}">
-  <dimension ref="A2:F28"/>
+  <dimension ref="A2:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1686,6 +1710,77 @@
         <v>80</v>
       </c>
       <c r="E28">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31">
+        <v>201</v>
+      </c>
+      <c r="F31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34">
         <v>200</v>
       </c>
     </row>
@@ -1713,9 +1808,14 @@
     <hyperlink ref="A26" r:id="rId20" xr:uid="{68C6EF4B-EAF5-4F8D-835E-85B4CC1127E1}"/>
     <hyperlink ref="A27" r:id="rId21" xr:uid="{A441BE67-5C82-4C5C-B76F-DC608DEABFCF}"/>
     <hyperlink ref="A28" r:id="rId22" xr:uid="{D6EED714-BC54-417C-8D12-98D914984736}"/>
+    <hyperlink ref="A30" r:id="rId23" xr:uid="{D9FA0B99-F896-43F5-A7F0-14D9DA4C5553}"/>
+    <hyperlink ref="A31" r:id="rId24" xr:uid="{C2A94B60-2DFD-40DD-A17E-569D78B75D1D}"/>
+    <hyperlink ref="A32" r:id="rId25" xr:uid="{58CCA162-0B67-45FB-9053-C29E048B80D3}"/>
+    <hyperlink ref="A33" r:id="rId26" xr:uid="{F92919F5-AAA3-4266-BECC-B1F16FF4A12A}"/>
+    <hyperlink ref="A34" r:id="rId27" xr:uid="{4DC98056-2432-4398-AD46-F1368A159E75}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId28"/>
 </worksheet>
 </file>
 

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C839AD6E-8B28-4A9B-88ED-4D8B1C205771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C9D812-4B6E-4235-A7A7-8514CB7B4A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
+    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
   <sheets>
     <sheet name="bd" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="124">
   <si>
     <t>email</t>
   </si>
@@ -308,9 +308,6 @@
     <t>http://127.0.0.1:8000/api/employees/{id}</t>
   </si>
   <si>
-    <t>required fields : name, email, password, password_confirmed, nif, bi_cc, company_id, department_id</t>
-  </si>
-  <si>
     <t>Companies</t>
   </si>
   <si>
@@ -335,9 +332,6 @@
     <t>zip_code</t>
   </si>
   <si>
-    <t>required fields : name, email, password, password_confirmed, role</t>
-  </si>
-  <si>
     <t>http://127.0.0.1:8000/api/locations</t>
   </si>
   <si>
@@ -399,6 +393,42 @@
   </si>
   <si>
     <t>required fields : shift_start, shift_end, shift_type, company_id, department_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non required fields: role,nif,emer_contact,bi_cc, company_id, department_id, schedule_id </t>
+  </si>
+  <si>
+    <t>table: users</t>
+  </si>
+  <si>
+    <t>tenant_id: yes</t>
+  </si>
+  <si>
+    <t>table: companies</t>
+  </si>
+  <si>
+    <t>(attach to company_tenant)</t>
+  </si>
+  <si>
+    <t>table: departments</t>
+  </si>
+  <si>
+    <t>table: employees</t>
+  </si>
+  <si>
+    <t>required fields : name, email(unique), password, password_confirmed, role</t>
+  </si>
+  <si>
+    <t>required fields : name, email(unique), password, password_confirmed, nif, bi_cc, emer_contact, company_id,</t>
+  </si>
+  <si>
+    <t>non required fields : role, schedule_id,  department_id, start_date</t>
+  </si>
+  <si>
+    <t>table: locations</t>
+  </si>
+  <si>
+    <t>table: schedules</t>
   </si>
 </sst>
 </file>
@@ -443,7 +473,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -465,6 +495,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,7 +579,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -556,6 +598,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -1029,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D199D9-B8D8-4350-8A96-21EEBB5AF420}">
   <dimension ref="B2:Q23"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1061,10 +1105,10 @@
         <v>73</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>85</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>29</v>
@@ -1139,7 +1183,7 @@
         <v>35</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1150,13 +1194,13 @@
         <v>2</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>32</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q7" t="s">
         <v>19</v>
@@ -1170,13 +1214,13 @@
         <v>1</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
@@ -1187,10 +1231,10 @@
         <v>8</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q9" t="s">
         <v>16</v>
@@ -1204,7 +1248,7 @@
         <v>2</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q10" t="s">
         <v>17</v>
@@ -1226,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1246,7 +1290,7 @@
         <v>12</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>4</v>
@@ -1255,7 +1299,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
@@ -1263,7 +1307,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>22</v>
@@ -1278,7 +1322,7 @@
         <v>20</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1289,7 +1333,7 @@
         <v>39</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>13</v>
@@ -1298,7 +1342,7 @@
         <v>21</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1309,10 +1353,10 @@
         <v>40</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1320,7 +1364,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
@@ -1366,10 +1410,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2213FDCB-CC6B-4563-9ABC-C0A7BD343549}">
-  <dimension ref="A2:F34"/>
+  <dimension ref="A2:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:I13"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1378,411 +1422,518 @@
     <col min="4" max="4" width="42.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>53</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="19" t="s">
         <v>45</v>
       </c>
       <c r="E2">
         <v>201</v>
       </c>
-      <c r="F2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>53</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="19" t="s">
         <v>47</v>
       </c>
       <c r="E3">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C4" t="s">
         <v>53</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="19" t="s">
         <v>49</v>
       </c>
       <c r="E4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C6" t="s">
         <v>54</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="19" t="s">
         <v>56</v>
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C7" t="s">
         <v>53</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="19" t="s">
         <v>57</v>
       </c>
       <c r="E7">
         <v>201</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="J7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C8" t="s">
         <v>54</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="19" t="s">
         <v>60</v>
       </c>
       <c r="E8">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C9" t="s">
         <v>61</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="19" t="s">
         <v>62</v>
       </c>
       <c r="E9">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C10" t="s">
         <v>63</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="19" t="s">
         <v>64</v>
       </c>
       <c r="E10">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C12" t="s">
         <v>54</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="19" t="s">
         <v>67</v>
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C13" t="s">
         <v>53</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="19" t="s">
         <v>68</v>
       </c>
       <c r="E13">
         <v>201</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C14" t="s">
         <v>54</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E14">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C15" t="s">
         <v>61</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="19" t="s">
         <v>70</v>
       </c>
       <c r="E15">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C16" t="s">
         <v>63</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="19" t="s">
         <v>71</v>
       </c>
       <c r="E16">
         <v>200</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C18" t="s">
         <v>54</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="19" t="s">
         <v>76</v>
       </c>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C19" t="s">
         <v>53</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="19" t="s">
         <v>77</v>
       </c>
       <c r="E19">
         <v>201</v>
       </c>
-      <c r="F19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C20" t="s">
         <v>54</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="19" t="s">
         <v>78</v>
       </c>
       <c r="E20">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C21" t="s">
         <v>61</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="19" t="s">
         <v>79</v>
       </c>
       <c r="E21">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C22" t="s">
         <v>63</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="19" t="s">
         <v>80</v>
       </c>
       <c r="E22">
         <v>200</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J22" s="18"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
         <v>54</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="19" t="s">
         <v>76</v>
       </c>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
         <v>53</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="19" t="s">
         <v>77</v>
       </c>
       <c r="E25">
         <v>201</v>
       </c>
-      <c r="F25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s">
         <v>54</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="19" t="s">
         <v>78</v>
       </c>
       <c r="E26">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
         <v>61</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="19" t="s">
         <v>79</v>
       </c>
       <c r="E27">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
         <v>63</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="19" t="s">
         <v>80</v>
       </c>
       <c r="E28">
         <v>200</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J28" s="18"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
         <v>54</v>
       </c>
-      <c r="D30" t="s">
-        <v>108</v>
+      <c r="D30" s="19" t="s">
+        <v>106</v>
       </c>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C31" t="s">
         <v>53</v>
       </c>
-      <c r="D31" t="s">
-        <v>109</v>
+      <c r="D31" s="19" t="s">
+        <v>107</v>
       </c>
       <c r="E31">
         <v>201</v>
       </c>
-      <c r="F31" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C32" t="s">
         <v>54</v>
       </c>
-      <c r="D32" t="s">
-        <v>110</v>
+      <c r="D32" s="19" t="s">
+        <v>108</v>
       </c>
       <c r="E32">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C33" t="s">
         <v>61</v>
       </c>
-      <c r="D33" t="s">
-        <v>111</v>
+      <c r="D33" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="E33">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C34" t="s">
         <v>63</v>
       </c>
-      <c r="D34" t="s">
-        <v>112</v>
+      <c r="D34" s="19" t="s">
+        <v>110</v>
       </c>
       <c r="E34">
         <v>200</v>
       </c>
+      <c r="G34" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J34" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1856,7 +2007,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C9D812-4B6E-4235-A7A7-8514CB7B4A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA860D7F-10A5-4A19-863E-81C9080CFA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
+    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
   <sheets>
     <sheet name="bd" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="123">
   <si>
     <t>email</t>
   </si>
@@ -68,9 +68,6 @@
     <t>updated_at</t>
   </si>
   <si>
-    <t>Horarios</t>
-  </si>
-  <si>
     <t>Funcionarios_horarios</t>
   </si>
   <si>
@@ -128,21 +125,6 @@
     <t>anexos (MEDIUMBLOB  ??) (Tabela pivot com id user e caminho da imagem)</t>
   </si>
   <si>
-    <t>Tabelas departamentos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tabelas Localizações </t>
-  </si>
-  <si>
-    <t>Funcionarios_imagens</t>
-  </si>
-  <si>
-    <t>id_user(int)</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
     <t>id_user (int)</t>
   </si>
   <si>
@@ -368,9 +350,6 @@
     <t>shift_type(string)</t>
   </si>
   <si>
-    <t>metodos controllador schedulles</t>
-  </si>
-  <si>
     <t>http://127.0.0.1:8000/api/schedules</t>
   </si>
   <si>
@@ -395,12 +374,6 @@
     <t>required fields : shift_start, shift_end, shift_type, company_id, department_id</t>
   </si>
   <si>
-    <t xml:space="preserve">non required fields: role,nif,emer_contact,bi_cc, company_id, department_id, schedule_id </t>
-  </si>
-  <si>
-    <t>table: users</t>
-  </si>
-  <si>
     <t>tenant_id: yes</t>
   </si>
   <si>
@@ -413,22 +386,46 @@
     <t>table: departments</t>
   </si>
   <si>
-    <t>table: employees</t>
-  </si>
-  <si>
-    <t>required fields : name, email(unique), password, password_confirmed, role</t>
-  </si>
-  <si>
     <t>required fields : name, email(unique), password, password_confirmed, nif, bi_cc, emer_contact, company_id,</t>
   </si>
   <si>
-    <t>non required fields : role, schedule_id,  department_id, start_date</t>
-  </si>
-  <si>
     <t>table: locations</t>
   </si>
   <si>
     <t>table: schedules</t>
+  </si>
+  <si>
+    <t>Schedulles</t>
+  </si>
+  <si>
+    <t>image_id</t>
+  </si>
+  <si>
+    <t>required fields : name, email(unique), password, password_confirmed,</t>
+  </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>employee_id</t>
+  </si>
+  <si>
+    <t>image_path</t>
+  </si>
+  <si>
+    <t>non required fields: role,nif,emer_contact,bi_cc, company_id, department_id, schedule_id , image_path</t>
+  </si>
+  <si>
+    <t>table: users, images</t>
+  </si>
+  <si>
+    <t>table: employees, images</t>
+  </si>
+  <si>
+    <t>non required fields : role, schedule_id,  department_id, start_date, image_path</t>
   </si>
 </sst>
 </file>
@@ -1071,334 +1068,331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D199D9-B8D8-4350-8A96-21EEBB5AF420}">
-  <dimension ref="B2:Q23"/>
+  <dimension ref="B2:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="63.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.109375" customWidth="1"/>
     <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.21875" customWidth="1"/>
     <col min="14" max="14" width="14.33203125" customWidth="1"/>
+    <col min="16" max="16" width="1.44140625" customWidth="1"/>
+    <col min="17" max="17" width="62.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="5"/>
       <c r="E2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="N2" s="5"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>29</v>
+      <c r="K3" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="Q3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="J4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="E5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="10" t="s">
+      <c r="H5" s="13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>6</v>
-      </c>
       <c r="I5" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E6" s="8" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E7" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>2</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="Q7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>1</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N8" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="N8" s="8" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>5</v>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Q9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>2</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="Q10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>0</v>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" s="17" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>28</v>
-      </c>
       <c r="J15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>21</v>
-      </c>
       <c r="L16" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
-        <v>75</v>
+        <v>113</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1412,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2213FDCB-CC6B-4563-9ABC-C0A7BD343549}">
   <dimension ref="A2:O34"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1424,19 +1418,19 @@
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E2">
         <v>201</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1449,19 +1443,19 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E3">
         <v>200</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1474,69 +1468,69 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="J4" s="18"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E7">
         <v>201</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="J7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>54</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>60</v>
       </c>
       <c r="E8">
         <v>200</v>
@@ -1544,13 +1538,13 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E9">
         <v>200</v>
@@ -1558,23 +1552,23 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E10">
         <v>200</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="J10" s="18"/>
     </row>
@@ -1583,31 +1577,31 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E13">
         <v>201</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1615,13 +1609,13 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E14">
         <v>200</v>
@@ -1629,13 +1623,13 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E15">
         <v>200</v>
@@ -1643,23 +1637,23 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>65</v>
-      </c>
-      <c r="C16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>71</v>
       </c>
       <c r="E16">
         <v>200</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="18" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="J16" s="18"/>
     </row>
@@ -1668,31 +1662,31 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E19">
         <v>201</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1706,19 +1700,19 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E20">
         <v>200</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1732,13 +1726,13 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E21">
         <v>200</v>
@@ -1746,53 +1740,53 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E22">
         <v>200</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H22" s="18"/>
-      <c r="I22" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="J22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E25">
         <v>201</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1802,13 +1796,13 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E26">
         <v>200</v>
@@ -1816,13 +1810,13 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E27">
         <v>200</v>
@@ -1830,53 +1824,53 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E28">
         <v>200</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H28" s="18"/>
       <c r="I28" s="18" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="J28" s="18"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E31">
         <v>201</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1887,13 +1881,13 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E32">
         <v>200</v>
@@ -1901,13 +1895,13 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E33">
         <v>200</v>
@@ -1915,23 +1909,23 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E34">
         <v>200</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="H34" s="18"/>
       <c r="I34" s="18" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="J34" s="18"/>
     </row>
@@ -1997,17 +1991,17 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2027,25 +2021,25 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
         <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA860D7F-10A5-4A19-863E-81C9080CFA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FCC298-FC55-49D8-9FD3-451AA67E1532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
   <sheets>
     <sheet name="bd" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <author>tc={6A8E0777-D895-4045-AC71-A21A5DAF5A46}</author>
   </authors>
   <commentList>
-    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{6A8E0777-D895-4045-AC71-A21A5DAF5A46}">
+    <comment ref="O3" authorId="0" shapeId="0" xr:uid="{6A8E0777-D895-4045-AC71-A21A5DAF5A46}">
       <text>
         <t>[Comentário por tópicos]
 A sua versão do Excel permite-lhe ler este comentário por tópicos. No entanto, as edições feitas ao comentário serão removidas se o ficheiro for aberto numa versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="169">
   <si>
     <t>email</t>
   </si>
@@ -386,9 +386,6 @@
     <t>table: departments</t>
   </si>
   <si>
-    <t>required fields : name, email(unique), password, password_confirmed, nif, bi_cc, emer_contact, company_id,</t>
-  </si>
-  <si>
     <t>table: locations</t>
   </si>
   <si>
@@ -425,7 +422,148 @@
     <t>table: employees, images</t>
   </si>
   <si>
-    <t>non required fields : role, schedule_id,  department_id, start_date, image_path</t>
+    <t>non required fields : role, schedule_id,  department_id, start_date, image_path, iban, details</t>
+  </si>
+  <si>
+    <t>&lt;???????? NEEDED??</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/companies/{id}/showemployees</t>
+  </si>
+  <si>
+    <t>CompanyController - showEmployees</t>
+  </si>
+  <si>
+    <t>show all employees from company{id}</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/companies/{id}/showdepartments</t>
+  </si>
+  <si>
+    <t>CompanyController - showDepartments</t>
+  </si>
+  <si>
+    <t>show all departments from company{id}</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/departments/{id}/showemployees</t>
+  </si>
+  <si>
+    <t>DepartmentController - showEmployees</t>
+  </si>
+  <si>
+    <t>show all employees from department{id}</t>
+  </si>
+  <si>
+    <t>required fields : name, email, nif, niss, bi_cc, emer_contact, company_id,</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/admin/</t>
+  </si>
+  <si>
+    <t>AdminController - store</t>
+  </si>
+  <si>
+    <t>required fields: name, email, password</t>
+  </si>
+  <si>
+    <t>non required fields: nif, iban,details,niss,emer_contact, bi_cc, role, image_path</t>
+  </si>
+  <si>
+    <t>table: users,images</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/admin/{id}</t>
+  </si>
+  <si>
+    <t>AdminController - update</t>
+  </si>
+  <si>
+    <t>add user</t>
+  </si>
+  <si>
+    <t>login user</t>
+  </si>
+  <si>
+    <t>logout user</t>
+  </si>
+  <si>
+    <t>add company</t>
+  </si>
+  <si>
+    <t>all company</t>
+  </si>
+  <si>
+    <t>get by id</t>
+  </si>
+  <si>
+    <t>edit by id</t>
+  </si>
+  <si>
+    <t>del by id</t>
+  </si>
+  <si>
+    <t>all deps</t>
+  </si>
+  <si>
+    <t>add deps</t>
+  </si>
+  <si>
+    <t>get dep by id</t>
+  </si>
+  <si>
+    <t>edit dep by id</t>
+  </si>
+  <si>
+    <t>del dep by id</t>
+  </si>
+  <si>
+    <t>all emp</t>
+  </si>
+  <si>
+    <t>add emp</t>
+  </si>
+  <si>
+    <t>get emp by id</t>
+  </si>
+  <si>
+    <t>edit emp by id</t>
+  </si>
+  <si>
+    <t>del emp by id</t>
+  </si>
+  <si>
+    <t>all locals</t>
+  </si>
+  <si>
+    <t>add locals</t>
+  </si>
+  <si>
+    <t>get loc by id</t>
+  </si>
+  <si>
+    <t>edit loc by id</t>
+  </si>
+  <si>
+    <t>del loc by id</t>
+  </si>
+  <si>
+    <t>all sched</t>
+  </si>
+  <si>
+    <t>add sched</t>
+  </si>
+  <si>
+    <t>get sched by id</t>
+  </si>
+  <si>
+    <t>edit sched by id</t>
+  </si>
+  <si>
+    <t>del sched by id</t>
+  </si>
+  <si>
+    <t>edit user</t>
   </si>
 </sst>
 </file>
@@ -470,7 +608,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -507,8 +645,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -571,12 +715,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -597,6 +803,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -1060,7 +1277,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="N3" dT="2022-03-14T16:22:43.43" personId="{70FF1F42-AF52-4167-91A9-F45B0415295F}" id="{6A8E0777-D895-4045-AC71-A21A5DAF5A46}">
+  <threadedComment ref="O3" dT="2022-03-14T16:22:43.43" personId="{70FF1F42-AF52-4167-91A9-F45B0415295F}" id="{6A8E0777-D895-4045-AC71-A21A5DAF5A46}">
     <text>Pensar nos intervalos Intervalos</text>
   </threadedComment>
 </ThreadedComments>
@@ -1068,10 +1285,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D199D9-B8D8-4350-8A96-21EEBB5AF420}">
-  <dimension ref="B2:Q19"/>
+  <dimension ref="D2:Q19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1082,317 +1299,325 @@
     <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.21875" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.33203125" customWidth="1"/>
+    <col min="15" max="15" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="1.44140625" customWidth="1"/>
     <col min="17" max="17" width="62.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="5"/>
+    <row r="2" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="G2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-      <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="M2" s="5"/>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="4:17" x14ac:dyDescent="0.3">
       <c r="E3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="G3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="J3" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>115</v>
-      </c>
       <c r="L3" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M3" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>112</v>
+      <c r="O3" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="Q3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
+    <row r="4" spans="4:17" x14ac:dyDescent="0.3">
       <c r="E4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="K4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="10" t="s">
-        <v>116</v>
-      </c>
       <c r="L4" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="M4" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="O4" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="5" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="G5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="K5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="11" t="s">
-        <v>117</v>
-      </c>
       <c r="L5" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="M5" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="O5" s="13" t="s">
         <v>8</v>
       </c>
       <c r="Q5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="6" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="G6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="K6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="L6" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="M6" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="O6" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
+    <row r="7" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="G7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="K7" s="25" t="s">
         <v>80</v>
       </c>
       <c r="L7" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="O7" s="9" t="s">
         <v>92</v>
       </c>
       <c r="Q7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="8" spans="4:17" x14ac:dyDescent="0.3">
       <c r="E8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="G8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="M8" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="O8" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="9" spans="4:17" x14ac:dyDescent="0.3">
       <c r="E9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="O9" s="8" t="s">
         <v>96</v>
       </c>
       <c r="Q9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="10" spans="4:17" x14ac:dyDescent="0.3">
       <c r="E10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="G10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="8" t="s">
         <v>80</v>
       </c>
       <c r="Q10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
+    <row r="11" spans="4:17" x14ac:dyDescent="0.3">
       <c r="E11" s="13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="G11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="4:17" x14ac:dyDescent="0.3">
       <c r="E12" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="G12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="G13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="4:17" x14ac:dyDescent="0.3">
       <c r="E14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="G14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="17" t="s">
+      <c r="M14" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>21</v>
-      </c>
+    <row r="15" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>82</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="G15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="J15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="K15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="1" t="s">
-        <v>33</v>
-      </c>
+    <row r="16" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E16" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="G16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="J16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="K16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="1" t="s">
-        <v>34</v>
-      </c>
+    <row r="17" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="G17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>69</v>
-      </c>
+    <row r="18" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E18" s="8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="G18" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E19" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1404,15 +1629,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2213FDCB-CC6B-4563-9ABC-C0A7BD343549}">
-  <dimension ref="A2:O34"/>
+  <dimension ref="A2:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1420,6 +1646,9 @@
       <c r="A2" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="B2" t="s">
+        <v>140</v>
+      </c>
       <c r="C2" t="s">
         <v>47</v>
       </c>
@@ -1430,7 +1659,7 @@
         <v>201</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1445,6 +1674,9 @@
       <c r="A3" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
       <c r="C3" t="s">
         <v>47</v>
       </c>
@@ -1455,7 +1687,7 @@
         <v>200</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1470,6 +1702,9 @@
       <c r="A4" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="B4" t="s">
+        <v>142</v>
+      </c>
       <c r="C4" t="s">
         <v>47</v>
       </c>
@@ -1480,18 +1715,21 @@
         <v>44</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H4" s="18"/>
-      <c r="I4" s="18" t="s">
+      <c r="J4" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
       <c r="C6" t="s">
         <v>48</v>
       </c>
@@ -1503,6 +1741,9 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>143</v>
       </c>
       <c r="C7" t="s">
         <v>47</v>
@@ -1526,6 +1767,9 @@
       <c r="A8" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="B8" t="s">
+        <v>145</v>
+      </c>
       <c r="C8" t="s">
         <v>48</v>
       </c>
@@ -1540,6 +1784,9 @@
       <c r="A9" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="B9" t="s">
+        <v>146</v>
+      </c>
       <c r="C9" t="s">
         <v>55</v>
       </c>
@@ -1554,6 +1801,9 @@
       <c r="A10" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="B10" t="s">
+        <v>147</v>
+      </c>
       <c r="C10" t="s">
         <v>57</v>
       </c>
@@ -1573,236 +1823,238 @@
       <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
+      <c r="A11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11">
+        <v>200</v>
+      </c>
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13">
-        <v>201</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="E12">
+        <v>200</v>
+      </c>
+      <c r="F12" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>148</v>
       </c>
       <c r="C14" t="s">
         <v>48</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14">
-        <v>200</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>149</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E15">
-        <v>200</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>59</v>
       </c>
+      <c r="B16" t="s">
+        <v>150</v>
+      </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E16">
         <v>200</v>
       </c>
-      <c r="G16" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
+      <c r="A17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17">
+        <v>200</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>75</v>
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>152</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="E18">
+        <v>200</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="C19" t="s">
         <v>47</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="E19">
-        <v>201</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20">
-        <v>200</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22">
-        <v>200</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18" t="s">
-        <v>105</v>
-      </c>
+      <c r="D23" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
+      </c>
+      <c r="B24" t="s">
+        <v>154</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="6"/>
+        <v>71</v>
+      </c>
+      <c r="E24">
+        <v>201</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
+      </c>
+      <c r="B25" t="s">
+        <v>155</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E25">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>156</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E26">
         <v>200</v>
@@ -1810,124 +2062,289 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
+        <v>157</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E27">
         <v>200</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28">
-        <v>200</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18" t="s">
+      <c r="G27" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="K27" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="J28" s="18"/>
+      <c r="L27" s="18"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>97</v>
+        <v>85</v>
+      </c>
+      <c r="B30" t="s">
+        <v>159</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30" s="6"/>
+        <v>71</v>
+      </c>
+      <c r="E30">
+        <v>201</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>97</v>
+        <v>86</v>
+      </c>
+      <c r="B31" t="s">
+        <v>160</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E31">
-        <v>201</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+        <v>200</v>
+      </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>98</v>
+        <v>86</v>
+      </c>
+      <c r="B32" t="s">
+        <v>161</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E32">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>98</v>
+        <v>86</v>
+      </c>
+      <c r="B33" t="s">
+        <v>162</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="E33">
         <v>200</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="G33" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="J33" s="18"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36">
+        <v>201</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C34" t="s">
+      <c r="B37" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D39" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="E34">
+      <c r="E39">
         <v>200</v>
       </c>
-      <c r="G34" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18" t="s">
+      <c r="G39" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="J34" s="18"/>
+      <c r="J39" s="18"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" s="30">
+        <v>201</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B44" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G46" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="J46" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1938,29 +2355,34 @@
     <hyperlink ref="A7" r:id="rId5" xr:uid="{7E675BB6-98E5-4A98-8C78-CD05BA10E017}"/>
     <hyperlink ref="A8" r:id="rId6" xr:uid="{8CCD976F-622E-423E-8AA6-6304AC809C49}"/>
     <hyperlink ref="A9" r:id="rId7" xr:uid="{06493852-F02F-4F8E-8163-F806E3685934}"/>
-    <hyperlink ref="A12" r:id="rId8" xr:uid="{8CC52737-961D-4062-AD04-0143DE3885CE}"/>
-    <hyperlink ref="A13" r:id="rId9" xr:uid="{9EDEF581-31CF-422C-AFD4-4350AD9549CB}"/>
-    <hyperlink ref="A14" r:id="rId10" xr:uid="{1AC0E46F-77F3-48ED-BF69-D4E597582298}"/>
-    <hyperlink ref="A15" r:id="rId11" xr:uid="{C7125051-D49B-48F8-9B20-CA2317A0D088}"/>
-    <hyperlink ref="A16" r:id="rId12" xr:uid="{7874FEB1-CB17-4CF0-91DC-3AFFBF58DDC6}"/>
-    <hyperlink ref="A18" r:id="rId13" xr:uid="{F60B5E4D-A587-4733-9296-813AD1EB6A3D}"/>
-    <hyperlink ref="A19" r:id="rId14" xr:uid="{89C8187B-E254-44A9-AA96-EDDE007BA2C8}"/>
-    <hyperlink ref="A20" r:id="rId15" xr:uid="{7D7C3C35-3435-4BAC-A4BD-B53EB924A022}"/>
-    <hyperlink ref="A21" r:id="rId16" xr:uid="{98B6A075-78C7-4196-9101-1AE0970B8FD7}"/>
-    <hyperlink ref="A22" r:id="rId17" xr:uid="{ED08F172-21EE-4BEC-B90E-DC109EEECF6D}"/>
-    <hyperlink ref="A24" r:id="rId18" xr:uid="{00C242AD-1DD2-453E-9545-4B875BCD4296}"/>
-    <hyperlink ref="A25" r:id="rId19" xr:uid="{8EFDB8EB-DECF-454C-A6B2-521937F8DA39}"/>
-    <hyperlink ref="A26" r:id="rId20" xr:uid="{68C6EF4B-EAF5-4F8D-835E-85B4CC1127E1}"/>
-    <hyperlink ref="A27" r:id="rId21" xr:uid="{A441BE67-5C82-4C5C-B76F-DC608DEABFCF}"/>
-    <hyperlink ref="A28" r:id="rId22" xr:uid="{D6EED714-BC54-417C-8D12-98D914984736}"/>
-    <hyperlink ref="A30" r:id="rId23" xr:uid="{D9FA0B99-F896-43F5-A7F0-14D9DA4C5553}"/>
-    <hyperlink ref="A31" r:id="rId24" xr:uid="{C2A94B60-2DFD-40DD-A17E-569D78B75D1D}"/>
-    <hyperlink ref="A32" r:id="rId25" xr:uid="{58CCA162-0B67-45FB-9053-C29E048B80D3}"/>
-    <hyperlink ref="A33" r:id="rId26" xr:uid="{F92919F5-AAA3-4266-BECC-B1F16FF4A12A}"/>
-    <hyperlink ref="A34" r:id="rId27" xr:uid="{4DC98056-2432-4398-AD46-F1368A159E75}"/>
+    <hyperlink ref="A14" r:id="rId8" xr:uid="{8CC52737-961D-4062-AD04-0143DE3885CE}"/>
+    <hyperlink ref="A15" r:id="rId9" xr:uid="{9EDEF581-31CF-422C-AFD4-4350AD9549CB}"/>
+    <hyperlink ref="A16" r:id="rId10" xr:uid="{1AC0E46F-77F3-48ED-BF69-D4E597582298}"/>
+    <hyperlink ref="A17" r:id="rId11" xr:uid="{C7125051-D49B-48F8-9B20-CA2317A0D088}"/>
+    <hyperlink ref="A18" r:id="rId12" xr:uid="{7874FEB1-CB17-4CF0-91DC-3AFFBF58DDC6}"/>
+    <hyperlink ref="A23" r:id="rId13" xr:uid="{F60B5E4D-A587-4733-9296-813AD1EB6A3D}"/>
+    <hyperlink ref="A24" r:id="rId14" xr:uid="{89C8187B-E254-44A9-AA96-EDDE007BA2C8}"/>
+    <hyperlink ref="A25" r:id="rId15" xr:uid="{7D7C3C35-3435-4BAC-A4BD-B53EB924A022}"/>
+    <hyperlink ref="A26" r:id="rId16" xr:uid="{98B6A075-78C7-4196-9101-1AE0970B8FD7}"/>
+    <hyperlink ref="A27" r:id="rId17" xr:uid="{ED08F172-21EE-4BEC-B90E-DC109EEECF6D}"/>
+    <hyperlink ref="A29" r:id="rId18" xr:uid="{00C242AD-1DD2-453E-9545-4B875BCD4296}"/>
+    <hyperlink ref="A30" r:id="rId19" xr:uid="{8EFDB8EB-DECF-454C-A6B2-521937F8DA39}"/>
+    <hyperlink ref="A31" r:id="rId20" xr:uid="{68C6EF4B-EAF5-4F8D-835E-85B4CC1127E1}"/>
+    <hyperlink ref="A32" r:id="rId21" xr:uid="{A441BE67-5C82-4C5C-B76F-DC608DEABFCF}"/>
+    <hyperlink ref="A33" r:id="rId22" xr:uid="{D6EED714-BC54-417C-8D12-98D914984736}"/>
+    <hyperlink ref="A35" r:id="rId23" xr:uid="{D9FA0B99-F896-43F5-A7F0-14D9DA4C5553}"/>
+    <hyperlink ref="A36" r:id="rId24" xr:uid="{C2A94B60-2DFD-40DD-A17E-569D78B75D1D}"/>
+    <hyperlink ref="A37" r:id="rId25" xr:uid="{58CCA162-0B67-45FB-9053-C29E048B80D3}"/>
+    <hyperlink ref="A38" r:id="rId26" xr:uid="{F92919F5-AAA3-4266-BECC-B1F16FF4A12A}"/>
+    <hyperlink ref="A39" r:id="rId27" xr:uid="{4DC98056-2432-4398-AD46-F1368A159E75}"/>
+    <hyperlink ref="A11" r:id="rId28" xr:uid="{C2364B8F-AD7A-49B4-BA3A-A47FADB17E70}"/>
+    <hyperlink ref="A12" r:id="rId29" xr:uid="{5032A9FB-C0D5-42E6-9EB0-1CD821762859}"/>
+    <hyperlink ref="A19" r:id="rId30" xr:uid="{68733F0C-CEF2-4587-919A-C679365E9BC5}"/>
+    <hyperlink ref="A43" r:id="rId31" xr:uid="{7889F8F9-73A2-4310-A5FC-933B815630A6}"/>
+    <hyperlink ref="A44" r:id="rId32" xr:uid="{F16F1F7A-D0AB-4316-A173-A2FEE613D339}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId33"/>
 </worksheet>
 </file>
 

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FCC298-FC55-49D8-9FD3-451AA67E1532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B7A9FF-42F1-4755-8221-47EDADC08C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
   <sheets>
     <sheet name="bd" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="170">
   <si>
     <t>email</t>
   </si>
@@ -564,6 +564,9 @@
   </si>
   <si>
     <t>edit user</t>
+  </si>
+  <si>
+    <t>total_shift(time)auto</t>
   </si>
 </sst>
 </file>
@@ -1285,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D199D9-B8D8-4350-8A96-21EEBB5AF420}">
-  <dimension ref="D2:Q19"/>
+  <dimension ref="D2:Q20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1303,7 +1306,7 @@
     <col min="12" max="12" width="17.21875" customWidth="1"/>
     <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.33203125" customWidth="1"/>
-    <col min="15" max="15" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="1.44140625" customWidth="1"/>
     <col min="17" max="17" width="62.77734375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1495,6 +1498,9 @@
       <c r="M10" s="8" t="s">
         <v>80</v>
       </c>
+      <c r="O10" s="8" t="s">
+        <v>169</v>
+      </c>
       <c r="Q10" t="s">
         <v>16</v>
       </c>
@@ -1619,6 +1625,9 @@
       <c r="G19" s="1" t="s">
         <v>112</v>
       </c>
+    </row>
+    <row r="20" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="G20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1631,7 +1640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2213FDCB-CC6B-4563-9ABC-C0A7BD343549}">
   <dimension ref="A2:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B7A9FF-42F1-4755-8221-47EDADC08C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36DD3CD-82BF-4C35-8B75-607ABA267778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
@@ -1291,7 +1291,7 @@
   <dimension ref="D2:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36DD3CD-82BF-4C35-8B75-607ABA267778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EF0833-D20F-4CCB-BCF6-F0B1042B3153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="163">
   <si>
     <t>email</t>
   </si>
@@ -68,9 +68,6 @@
     <t>updated_at</t>
   </si>
   <si>
-    <t>Funcionarios_horarios</t>
-  </si>
-  <si>
     <t>id (int)</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>BI_cc (string)</t>
   </si>
   <si>
-    <t>id_horario (int)</t>
-  </si>
-  <si>
     <t>1 funcionario tem 1 empresa</t>
   </si>
   <si>
@@ -110,27 +104,12 @@
     <t>1Horario tem varios funcionarios</t>
   </si>
   <si>
-    <t>Empresa_funcionarios</t>
-  </si>
-  <si>
     <t>1Empresa tem varios funcionários</t>
   </si>
   <si>
-    <t>id_empresa (int)</t>
-  </si>
-  <si>
-    <t>id_funcionario (int)</t>
-  </si>
-  <si>
     <t>anexos (MEDIUMBLOB  ??) (Tabela pivot com id user e caminho da imagem)</t>
   </si>
   <si>
-    <t>id_user (int)</t>
-  </si>
-  <si>
-    <t>departamentos</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -140,9 +119,6 @@
     <t>id_empresa</t>
   </si>
   <si>
-    <t>localizacoes</t>
-  </si>
-  <si>
     <t>pais</t>
   </si>
   <si>
@@ -263,9 +239,6 @@
     <t>Users</t>
   </si>
   <si>
-    <t xml:space="preserve">Funcionarios </t>
-  </si>
-  <si>
     <t>start_date</t>
   </si>
   <si>
@@ -296,9 +269,6 @@
     <t>Tenants</t>
   </si>
   <si>
-    <t>companies_tenants</t>
-  </si>
-  <si>
     <t>tenant_id</t>
   </si>
   <si>
@@ -344,9 +314,6 @@
     <t>end_time (date)</t>
   </si>
   <si>
-    <t>clockpoint</t>
-  </si>
-  <si>
     <t>shift_type(string)</t>
   </si>
   <si>
@@ -425,9 +392,6 @@
     <t>non required fields : role, schedule_id,  department_id, start_date, image_path, iban, details</t>
   </si>
   <si>
-    <t>&lt;???????? NEEDED??</t>
-  </si>
-  <si>
     <t>http://127.0.0.1:8000/api/companies/{id}/showemployees</t>
   </si>
   <si>
@@ -567,6 +531,21 @@
   </si>
   <si>
     <t>total_shift(time)auto</t>
+  </si>
+  <si>
+    <t>clockpointentry</t>
+  </si>
+  <si>
+    <t>companies_tenant</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>locations</t>
+  </si>
+  <si>
+    <t>Employees</t>
   </si>
 </sst>
 </file>
@@ -1291,7 +1270,7 @@
   <dimension ref="D2:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1317,92 +1296,82 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="O2" s="5"/>
     </row>
     <row r="3" spans="4:17" x14ac:dyDescent="0.3">
       <c r="E3" s="7" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="J3" s="15" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="M3" s="26" t="s">
-        <v>27</v>
+        <v>161</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="Q3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="4:17" x14ac:dyDescent="0.3">
       <c r="E4" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E5" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="M5" s="28" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1413,45 +1382,39 @@
         <v>0</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E7" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I7" s="14" t="s">
         <v>2</v>
       </c>
       <c r="K7" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="M7" s="29" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="Q7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="4:17" x14ac:dyDescent="0.3">
@@ -1462,30 +1425,30 @@
         <v>1</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="4:17" x14ac:dyDescent="0.3">
       <c r="E9" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="Q9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="4:17" x14ac:dyDescent="0.3">
@@ -1496,137 +1459,132 @@
         <v>2</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="Q10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="4:17" x14ac:dyDescent="0.3">
       <c r="E11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="E12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="K12" s="5"/>
     </row>
     <row r="13" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E13" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I13" s="5"/>
-      <c r="J13" t="s">
-        <v>122</v>
+      <c r="K13" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="4:17" x14ac:dyDescent="0.3">
       <c r="E14" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="17" t="s">
-        <v>95</v>
+        <v>159</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="4:17" x14ac:dyDescent="0.3">
       <c r="E16" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E17" s="11" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="5:13" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E18" s="8" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="5:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E19" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="5:13" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.3">
       <c r="G20" s="1"/>
     </row>
   </sheetData>
@@ -1640,7 +1598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2213FDCB-CC6B-4563-9ABC-C0A7BD343549}">
   <dimension ref="A2:O46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
@@ -1653,22 +1611,22 @@
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>201</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1681,22 +1639,22 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>200</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1709,81 +1667,81 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H4" s="18"/>
       <c r="J4" s="18" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="K4" s="18"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>201</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="J7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E8">
         <v>200</v>
@@ -1791,16 +1749,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E9">
         <v>200</v>
@@ -1808,96 +1766,96 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E10">
         <v>200</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E11">
         <v>200</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="E12">
         <v>200</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E15">
         <v>201</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1905,16 +1863,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E16">
         <v>200</v>
@@ -1922,16 +1880,16 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E17">
         <v>200</v>
@@ -1939,79 +1897,79 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>57</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>65</v>
       </c>
       <c r="E18">
         <v>200</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="18" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E19">
         <v>200</v>
       </c>
       <c r="F19" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E24">
         <v>201</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -2025,22 +1983,22 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E25">
         <v>200</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -2054,16 +2012,16 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E26">
         <v>200</v>
@@ -2071,63 +2029,63 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E27">
         <v>200</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
       <c r="K27" s="18" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="L27" s="18"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E30">
         <v>201</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -2137,16 +2095,16 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B31" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E31">
         <v>200</v>
@@ -2154,16 +2112,16 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E32">
         <v>200</v>
@@ -2171,62 +2129,62 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E33">
         <v>200</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="H33" s="18"/>
       <c r="I33" s="18" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="J33" s="18"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E36">
         <v>201</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -2237,16 +2195,16 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B37" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E37">
         <v>200</v>
@@ -2254,16 +2212,16 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B38" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E38">
         <v>200</v>
@@ -2271,47 +2229,47 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B39" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E39">
         <v>200</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="H39" s="18"/>
       <c r="I39" s="18" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="J39" s="18"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B43" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E43" s="30">
         <v>201</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -2323,19 +2281,19 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B44" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -2347,11 +2305,11 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G46" s="18" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="H46" s="18"/>
       <c r="I46" s="18" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="J46" s="18"/>
     </row>
@@ -2422,17 +2380,17 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2452,25 +2410,25 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EF0833-D20F-4CCB-BCF6-F0B1042B3153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDC5F43-734E-481B-A83C-AD52661F4F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
   <sheets>
     <sheet name="bd" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="164">
   <si>
     <t>email</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Localizações_id</t>
   </si>
   <si>
-    <t xml:space="preserve">como fazer o return dos metodos dos controllers? JSON? </t>
-  </si>
-  <si>
     <t>Se apagar tenant o que acontece aos users e aos departamentos desse tenant? Set null ou Cascade onDelete??</t>
   </si>
   <si>
@@ -389,9 +386,6 @@
     <t>table: employees, images</t>
   </si>
   <si>
-    <t>non required fields : role, schedule_id,  department_id, start_date, image_path, iban, details</t>
-  </si>
-  <si>
     <t>http://127.0.0.1:8000/api/companies/{id}/showemployees</t>
   </si>
   <si>
@@ -419,9 +413,6 @@
     <t>show all employees from department{id}</t>
   </si>
   <si>
-    <t>required fields : name, email, nif, niss, bi_cc, emer_contact, company_id,</t>
-  </si>
-  <si>
     <t>http://127.0.0.1:8000/api/admin/</t>
   </si>
   <si>
@@ -546,6 +537,18 @@
   </si>
   <si>
     <t>Employees</t>
+  </si>
+  <si>
+    <t>*encrypt</t>
+  </si>
+  <si>
+    <t>required fields : name*, email*, nif*, niss*, bi_cc*, emer_contact*, company_id,</t>
+  </si>
+  <si>
+    <t>non required fields : role*, schedule_id,  department_id, start_date, image_path, iban*, details*</t>
+  </si>
+  <si>
+    <t>tabela users, se encriptar o campo email no modelo users não consigo fazer login com nenhum user</t>
   </si>
 </sst>
 </file>
@@ -896,6 +899,138 @@
         <a:xfrm>
           <a:off x="0" y="2392680"/>
           <a:ext cx="13012966" cy="2648320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>372888</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47887</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99DA3D4D-7C1D-4D7C-AFAE-BE86DF0ADA56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5120640"/>
+          <a:ext cx="10126488" cy="1876687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>392366</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>5894</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A796C73-ED12-43F7-B7ED-E90E986BDFF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7132320"/>
+          <a:ext cx="13193966" cy="1286054"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>578655</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>95572</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E1A0932-F2F1-44EC-A0CA-7E194CC7DF24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15240" y="8397240"/>
+          <a:ext cx="10317015" cy="2305372"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1269,8 +1404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D199D9-B8D8-4350-8A96-21EEBB5AF420}">
   <dimension ref="D2:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1301,25 +1436,25 @@
     </row>
     <row r="3" spans="4:17" x14ac:dyDescent="0.3">
       <c r="E3" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="J3" s="15" t="s">
-        <v>69</v>
-      </c>
       <c r="K3" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M3" s="26" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q3" t="s">
         <v>12</v>
@@ -1359,7 +1494,7 @@
         <v>4</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K5" s="24" t="s">
         <v>18</v>
@@ -1391,7 +1526,7 @@
         <v>21</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1405,13 +1540,13 @@
         <v>2</v>
       </c>
       <c r="K7" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M7" s="29" t="s">
         <v>19</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q7" t="s">
         <v>15</v>
@@ -1425,13 +1560,13 @@
         <v>1</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="4:17" x14ac:dyDescent="0.3">
@@ -1442,10 +1577,10 @@
         <v>6</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q9" t="s">
         <v>13</v>
@@ -1459,10 +1594,10 @@
         <v>2</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q10" t="s">
         <v>14</v>
@@ -1493,8 +1628,9 @@
         <v>9</v>
       </c>
       <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
       <c r="K13" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="4:17" x14ac:dyDescent="0.3">
@@ -1505,18 +1641,18 @@
         <v>10</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>16</v>
@@ -1528,10 +1664,10 @@
         <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="4:17" x14ac:dyDescent="0.3">
@@ -1542,13 +1678,13 @@
         <v>25</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1559,29 +1695,29 @@
         <v>26</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E18" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E19" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="5:11" x14ac:dyDescent="0.3">
@@ -1596,10 +1732,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2213FDCB-CC6B-4563-9ABC-C0A7BD343549}">
-  <dimension ref="A2:O46"/>
+  <dimension ref="A2:P46"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1611,22 +1747,22 @@
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>31</v>
       </c>
       <c r="E2">
         <v>201</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1639,22 +1775,22 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>33</v>
       </c>
       <c r="E3">
         <v>200</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1667,81 +1803,81 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="19" t="s">
+      <c r="E4" t="s">
         <v>35</v>
       </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
       <c r="G4" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H4" s="18"/>
       <c r="J4" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K4" s="18"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>42</v>
       </c>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7">
         <v>201</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>46</v>
       </c>
       <c r="E8">
         <v>200</v>
@@ -1749,16 +1885,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>47</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>48</v>
       </c>
       <c r="E9">
         <v>200</v>
@@ -1766,96 +1902,96 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>49</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>50</v>
       </c>
       <c r="E10">
         <v>200</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E11">
         <v>200</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E12">
         <v>200</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15">
         <v>201</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1863,113 +1999,113 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16">
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18">
         <v>200</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J18" s="18"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E19">
         <v>200</v>
       </c>
       <c r="F19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="19" t="s">
         <v>61</v>
-      </c>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>62</v>
       </c>
       <c r="E24">
         <v>201</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1980,25 +2116,28 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E25">
         <v>200</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -2010,82 +2149,82 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E26">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E27">
         <v>200</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
       <c r="K27" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L27" s="18"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D29" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="19" t="s">
         <v>61</v>
-      </c>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>62</v>
       </c>
       <c r="E30">
         <v>201</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -2093,35 +2232,35 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E31">
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E32">
         <v>200</v>
@@ -2129,62 +2268,62 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B33" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E33">
         <v>200</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H33" s="18"/>
       <c r="I33" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J33" s="18"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B35" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E36">
         <v>201</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -2195,16 +2334,16 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E37">
         <v>200</v>
@@ -2212,16 +2351,16 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E38">
         <v>200</v>
@@ -2229,47 +2368,47 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39">
         <v>200</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H39" s="18"/>
       <c r="I39" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J39" s="18"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E43" s="30">
         <v>201</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -2281,19 +2420,19 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B44" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -2305,11 +2444,11 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G46" s="18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H46" s="18"/>
       <c r="I46" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J46" s="18"/>
     </row>
@@ -2357,8 +2496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5F5619-C91F-44CF-AE98-3AB9D7129EE3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2370,27 +2509,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122B7B63-70E1-4776-B60F-F0C2CAFC3214}">
-  <dimension ref="A2:A9"/>
+  <dimension ref="A6:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-    </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2418,7 +2557,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2428,7 +2567,7 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDC5F43-734E-481B-A83C-AD52661F4F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2BCF09-29B5-4535-A24C-8700119884A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
+    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
   <sheets>
     <sheet name="bd" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="177">
   <si>
     <t>email</t>
   </si>
@@ -188,9 +188,6 @@
     <t>CompanyController - store</t>
   </si>
   <si>
-    <t>required fields : name, email</t>
-  </si>
-  <si>
     <t>http://127.0.0.1:8000/api/companies/{id}</t>
   </si>
   <si>
@@ -206,9 +203,6 @@
     <t>DELETE</t>
   </si>
   <si>
-    <t>CompanyController - delete</t>
-  </si>
-  <si>
     <t>http://127.0.0.1:8000/api/departments/{id}</t>
   </si>
   <si>
@@ -227,9 +221,6 @@
     <t>DepartmentController - update</t>
   </si>
   <si>
-    <t>DepartmentController - delete</t>
-  </si>
-  <si>
     <t>required fields : name, company_id</t>
   </si>
   <si>
@@ -251,9 +242,6 @@
     <t>EmployeeController - update</t>
   </si>
   <si>
-    <t>EmployeeController - delete</t>
-  </si>
-  <si>
     <t>http://127.0.0.1:8000/api/employees</t>
   </si>
   <si>
@@ -332,9 +320,6 @@
     <t>ScheduleController - update</t>
   </si>
   <si>
-    <t>ScheduleController - delete</t>
-  </si>
-  <si>
     <t>required fields : shift_start, shift_end, shift_type, company_id, department_id</t>
   </si>
   <si>
@@ -362,9 +347,6 @@
     <t>image_id</t>
   </si>
   <si>
-    <t>required fields : name, email(unique), password, password_confirmed,</t>
-  </si>
-  <si>
     <t>Images</t>
   </si>
   <si>
@@ -377,9 +359,6 @@
     <t>image_path</t>
   </si>
   <si>
-    <t>non required fields: role,nif,emer_contact,bi_cc, company_id, department_id, schedule_id , image_path</t>
-  </si>
-  <si>
     <t>table: users, images</t>
   </si>
   <si>
@@ -549,6 +528,66 @@
   </si>
   <si>
     <t>tabela users, se encriptar o campo email no modelo users não consigo fazer login com nenhum user</t>
+  </si>
+  <si>
+    <t>nif</t>
+  </si>
+  <si>
+    <t>required fields : name*, email(unique), password*, password_confirmed*,</t>
+  </si>
+  <si>
+    <t>non required fields: role*,nif*,emer_contact*,bi_cc*, company_id, department_id, schedule_id , image_path*</t>
+  </si>
+  <si>
+    <t>required fields : name*, email*, nif*</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/clockpoinentry/</t>
+  </si>
+  <si>
+    <t>ClockpointController - index</t>
+  </si>
+  <si>
+    <t>all clockpoints</t>
+  </si>
+  <si>
+    <t>table: clockpointentry</t>
+  </si>
+  <si>
+    <t>required fields: employee_id, clock_in,clock_out</t>
+  </si>
+  <si>
+    <t>add clockpoints</t>
+  </si>
+  <si>
+    <t>ClockpointController - store</t>
+  </si>
+  <si>
+    <t>ClockpointController - show</t>
+  </si>
+  <si>
+    <t>ClockpointController - destroy</t>
+  </si>
+  <si>
+    <t>ScheduleController - destroy</t>
+  </si>
+  <si>
+    <t>EmployeeController - destroy</t>
+  </si>
+  <si>
+    <t>DepartmentController - destroy</t>
+  </si>
+  <si>
+    <t>CompanyController - destroy</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/clockpoinentry/{id}</t>
+  </si>
+  <si>
+    <t>del entry</t>
+  </si>
+  <si>
+    <t>get one entry</t>
   </si>
 </sst>
 </file>
@@ -1039,6 +1078,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>391941</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>152677</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagem 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{870513F7-3014-4307-8DBE-E8C399133489}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10789920"/>
+          <a:ext cx="10145541" cy="1981477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1405,7 +1488,7 @@
   <dimension ref="D2:Q20"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1436,25 +1519,25 @@
     </row>
     <row r="3" spans="4:17" x14ac:dyDescent="0.3">
       <c r="E3" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="M3" s="26" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Q3" t="s">
         <v>12</v>
@@ -1526,7 +1609,7 @@
         <v>21</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1540,13 +1623,13 @@
         <v>2</v>
       </c>
       <c r="K7" s="25" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M7" s="29" t="s">
         <v>19</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q7" t="s">
         <v>15</v>
@@ -1560,13 +1643,13 @@
         <v>1</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="4:17" x14ac:dyDescent="0.3">
@@ -1577,10 +1660,10 @@
         <v>6</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Q9" t="s">
         <v>13</v>
@@ -1594,10 +1677,10 @@
         <v>2</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="Q10" t="s">
         <v>14</v>
@@ -1630,7 +1713,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="4:17" x14ac:dyDescent="0.3">
@@ -1641,18 +1724,18 @@
         <v>10</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>16</v>
@@ -1664,10 +1747,10 @@
         <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="4:17" x14ac:dyDescent="0.3">
@@ -1678,13 +1761,13 @@
         <v>25</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1695,29 +1778,32 @@
         <v>26</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E18" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E19" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="5:11" x14ac:dyDescent="0.3">
@@ -1732,10 +1818,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2213FDCB-CC6B-4563-9ABC-C0A7BD343549}">
-  <dimension ref="A2:P46"/>
+  <dimension ref="A2:P52"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1745,12 +1831,12 @@
     <col min="4" max="4" width="42.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
@@ -1762,7 +1848,7 @@
         <v>201</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1772,13 +1858,16 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
         <v>38</v>
@@ -1790,7 +1879,7 @@
         <v>200</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1801,12 +1890,12 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
@@ -1818,20 +1907,20 @@
         <v>35</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="H4" s="18"/>
       <c r="J4" s="18" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K4" s="18"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C6" t="s">
         <v>39</v>
@@ -1841,12 +1930,12 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
         <v>38</v>
@@ -1858,157 +1947,158 @@
         <v>201</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
       <c r="J7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>46</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>47</v>
       </c>
       <c r="E9">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="E10">
         <v>200</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E11">
         <v>200</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E12">
         <v>200</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C15" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E15">
         <v>201</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E16">
         <v>200</v>
@@ -2016,16 +2106,16 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E17">
         <v>200</v>
@@ -2033,79 +2123,79 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>56</v>
+        <v>172</v>
       </c>
       <c r="E18">
         <v>200</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="18" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E19">
         <v>200</v>
       </c>
       <c r="F19" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C23" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C24" t="s">
         <v>38</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>201</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -2117,27 +2207,27 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C25" t="s">
         <v>39</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>200</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -2151,16 +2241,16 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>200</v>
@@ -2168,63 +2258,63 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="E27">
         <v>200</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
       <c r="K27" s="18" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L27" s="18"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C29" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C30" t="s">
         <v>38</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E30">
         <v>201</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -2234,16 +2324,16 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C31" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E31">
         <v>200</v>
@@ -2251,16 +2341,16 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E32">
         <v>200</v>
@@ -2268,62 +2358,62 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B33" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="E33">
         <v>200</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H33" s="18"/>
       <c r="I33" s="18" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J33" s="18"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C35" t="s">
         <v>39</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C36" t="s">
         <v>38</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E36">
         <v>201</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -2334,16 +2424,16 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C37" t="s">
         <v>39</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E37">
         <v>200</v>
@@ -2351,16 +2441,16 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="B38" t="s">
-        <v>151</v>
-      </c>
-      <c r="C38" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>90</v>
       </c>
       <c r="E38">
         <v>200</v>
@@ -2368,47 +2458,47 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>91</v>
+        <v>170</v>
       </c>
       <c r="E39">
         <v>200</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H39" s="18"/>
       <c r="I39" s="18" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J39" s="18"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" t="s">
         <v>118</v>
-      </c>
-      <c r="B43" t="s">
-        <v>125</v>
       </c>
       <c r="C43" t="s">
         <v>38</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E43" s="30">
         <v>201</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -2420,19 +2510,19 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B44" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -2444,13 +2534,107 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G46" s="18" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H46" s="18"/>
       <c r="I46" s="18" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J46" s="18"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B49" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E49">
+        <v>200</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B50" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="E50">
+        <v>201</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B51" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="E51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B52" t="s">
+        <v>175</v>
+      </c>
+      <c r="C52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E52">
+        <v>200</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="J52" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2486,9 +2670,13 @@
     <hyperlink ref="A19" r:id="rId30" xr:uid="{68733F0C-CEF2-4587-919A-C679365E9BC5}"/>
     <hyperlink ref="A43" r:id="rId31" xr:uid="{7889F8F9-73A2-4310-A5FC-933B815630A6}"/>
     <hyperlink ref="A44" r:id="rId32" xr:uid="{F16F1F7A-D0AB-4316-A173-A2FEE613D339}"/>
+    <hyperlink ref="A49" r:id="rId33" xr:uid="{D0B8A248-CCD5-4996-B5CD-C82C9F29C937}"/>
+    <hyperlink ref="A50" r:id="rId34" xr:uid="{C3F88F77-C25C-4F80-93C6-7657F8A09F1E}"/>
+    <hyperlink ref="A51" r:id="rId35" xr:uid="{50904CB5-D01D-4850-9547-983C9A60550E}"/>
+    <hyperlink ref="A52" r:id="rId36" xr:uid="{322195B7-EFAE-45CC-A913-BA1FB98ABC10}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId33"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId37"/>
 </worksheet>
 </file>
 
@@ -2496,8 +2684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5F5619-C91F-44CF-AE98-3AB9D7129EE3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2511,7 +2699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122B7B63-70E1-4776-B60F-F0C2CAFC3214}">
   <dimension ref="A6:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -2524,12 +2712,12 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2BCF09-29B5-4535-A24C-8700119884A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E9C1ED-998C-4B5B-919D-E1D7E3D87D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
   <sheets>
     <sheet name="bd" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="topicos" sheetId="2" r:id="rId3"/>
     <sheet name="DUVIDAS" sheetId="4" r:id="rId4"/>
     <sheet name="usados" sheetId="3" r:id="rId5"/>
+    <sheet name="packages incluidos" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="189">
   <si>
     <t>email</t>
   </si>
@@ -404,9 +405,6 @@
     <t>non required fields: nif, iban,details,niss,emer_contact, bi_cc, role, image_path</t>
   </si>
   <si>
-    <t>table: users,images</t>
-  </si>
-  <si>
     <t>http://127.0.0.1:8000/api/admin/{id}</t>
   </si>
   <si>
@@ -588,6 +586,45 @@
   </si>
   <si>
     <t>get one entry</t>
+  </si>
+  <si>
+    <t>Supercharged Excel exports and imports in Laravel | Laravel Excel (laravel-excel.com)</t>
+  </si>
+  <si>
+    <t>export employees to xlsx</t>
+  </si>
+  <si>
+    <t>xlsx</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/employeesexporteexcel/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/employeesexportcsv/</t>
+  </si>
+  <si>
+    <t>csv</t>
+  </si>
+  <si>
+    <t>EmployeeController - export_xlsx</t>
+  </si>
+  <si>
+    <t>EmployeeController - export_csv</t>
+  </si>
+  <si>
+    <t>export employees to csv</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/employeesimport/</t>
+  </si>
+  <si>
+    <t>import employees table employees</t>
+  </si>
+  <si>
+    <t>EmployeeController - import</t>
+  </si>
+  <si>
+    <t>csv/xlsx</t>
   </si>
 </sst>
 </file>
@@ -1522,7 +1559,7 @@
         <v>55</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>63</v>
@@ -1531,10 +1568,10 @@
         <v>64</v>
       </c>
       <c r="K3" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="M3" s="26" t="s">
         <v>150</v>
-      </c>
-      <c r="M3" s="26" t="s">
-        <v>151</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>94</v>
@@ -1680,7 +1717,7 @@
         <v>65</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q10" t="s">
         <v>14</v>
@@ -1724,10 +1761,10 @@
         <v>10</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>97</v>
@@ -1795,7 +1832,7 @@
         <v>56</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="5:11" x14ac:dyDescent="0.3">
@@ -1818,16 +1855,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2213FDCB-CC6B-4563-9ABC-C0A7BD343549}">
-  <dimension ref="A2:P52"/>
+  <dimension ref="A2:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="51.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1836,7 +1873,7 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
@@ -1848,7 +1885,7 @@
         <v>201</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1859,7 +1896,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="P2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1867,7 +1904,7 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
         <v>38</v>
@@ -1879,7 +1916,7 @@
         <v>200</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1895,7 +1932,7 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
@@ -1920,7 +1957,7 @@
         <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
         <v>39</v>
@@ -1935,7 +1972,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
         <v>38</v>
@@ -1947,7 +1984,7 @@
         <v>201</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1961,7 +1998,7 @@
         <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
         <v>39</v>
@@ -1978,7 +2015,7 @@
         <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
         <v>45</v>
@@ -1995,13 +2032,13 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" t="s">
         <v>47</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E10">
         <v>200</v>
@@ -2054,7 +2091,7 @@
         <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -2069,7 +2106,7 @@
         <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
         <v>38</v>
@@ -2092,7 +2129,7 @@
         <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
@@ -2109,7 +2146,7 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" t="s">
         <v>45</v>
@@ -2126,13 +2163,13 @@
         <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" t="s">
         <v>47</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E18">
         <v>200</v>
@@ -2168,7 +2205,7 @@
         <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C23" t="s">
         <v>39</v>
@@ -2183,7 +2220,7 @@
         <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C24" t="s">
         <v>38</v>
@@ -2195,7 +2232,7 @@
         <v>201</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -2207,7 +2244,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -2215,7 +2252,7 @@
         <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C25" t="s">
         <v>39</v>
@@ -2227,7 +2264,7 @@
         <v>200</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -2244,7 +2281,7 @@
         <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C26" t="s">
         <v>45</v>
@@ -2261,13 +2298,13 @@
         <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C27" t="s">
         <v>47</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E27">
         <v>200</v>
@@ -2282,158 +2319,126 @@
       </c>
       <c r="L27" s="18"/>
     </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="E28" t="s">
+        <v>178</v>
+      </c>
+    </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="B29" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="C29" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="6"/>
+        <v>183</v>
+      </c>
+      <c r="E29" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="B30" t="s">
-        <v>137</v>
+        <v>186</v>
       </c>
       <c r="C30" t="s">
         <v>38</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30">
-        <v>201</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" t="s">
-        <v>138</v>
-      </c>
-      <c r="C31" t="s">
+        <v>187</v>
+      </c>
+      <c r="E30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" t="s">
-        <v>139</v>
-      </c>
-      <c r="C32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="E33">
-        <v>200</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="J33" s="18"/>
+      <c r="D34" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="E35" s="6"/>
+        <v>58</v>
+      </c>
+      <c r="E35">
+        <v>201</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="E36">
-        <v>201</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
+        <v>200</v>
+      </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="E37">
         <v>200</v>
@@ -2441,125 +2446,171 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="E38">
         <v>200</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+      <c r="G38" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="J38" s="18"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41">
+        <v>201</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B39" t="s">
-        <v>145</v>
-      </c>
-      <c r="C39" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="E39">
+      <c r="B42" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42">
         <v>200</v>
       </c>
-      <c r="G39" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="J39" s="18"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="B43" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="C43" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E43" s="30">
-        <v>201</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="E43">
+        <v>200</v>
+      </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D44" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E44">
+        <v>200</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="J44" s="18"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" t="s">
         <v>117</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G46" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="J46" s="18"/>
+      <c r="C48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E48" s="30">
+        <v>201</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="B49" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C49" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="E49">
-        <v>200</v>
+        <v>116</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -2569,72 +2620,99 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B50" t="s">
-        <v>166</v>
-      </c>
-      <c r="C50" t="s">
-        <v>38</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="E50">
-        <v>201</v>
-      </c>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B51" t="s">
-        <v>176</v>
-      </c>
-      <c r="C51" t="s">
-        <v>39</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="E51">
-        <v>200</v>
-      </c>
-    </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B52" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="C52" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E52">
         <v>200</v>
       </c>
-      <c r="G52" s="18" t="s">
+      <c r="F52" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18" t="s">
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B53" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="E53">
+        <v>201</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B54" t="s">
+        <v>175</v>
+      </c>
+      <c r="C54" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="E54">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B55" t="s">
+        <v>174</v>
+      </c>
+      <c r="C55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="E55">
+        <v>200</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="J52" s="18"/>
+      <c r="J55" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2655,28 +2733,31 @@
     <hyperlink ref="A25" r:id="rId15" xr:uid="{7D7C3C35-3435-4BAC-A4BD-B53EB924A022}"/>
     <hyperlink ref="A26" r:id="rId16" xr:uid="{98B6A075-78C7-4196-9101-1AE0970B8FD7}"/>
     <hyperlink ref="A27" r:id="rId17" xr:uid="{ED08F172-21EE-4BEC-B90E-DC109EEECF6D}"/>
-    <hyperlink ref="A29" r:id="rId18" xr:uid="{00C242AD-1DD2-453E-9545-4B875BCD4296}"/>
-    <hyperlink ref="A30" r:id="rId19" xr:uid="{8EFDB8EB-DECF-454C-A6B2-521937F8DA39}"/>
-    <hyperlink ref="A31" r:id="rId20" xr:uid="{68C6EF4B-EAF5-4F8D-835E-85B4CC1127E1}"/>
-    <hyperlink ref="A32" r:id="rId21" xr:uid="{A441BE67-5C82-4C5C-B76F-DC608DEABFCF}"/>
-    <hyperlink ref="A33" r:id="rId22" xr:uid="{D6EED714-BC54-417C-8D12-98D914984736}"/>
-    <hyperlink ref="A35" r:id="rId23" xr:uid="{D9FA0B99-F896-43F5-A7F0-14D9DA4C5553}"/>
-    <hyperlink ref="A36" r:id="rId24" xr:uid="{C2A94B60-2DFD-40DD-A17E-569D78B75D1D}"/>
-    <hyperlink ref="A37" r:id="rId25" xr:uid="{58CCA162-0B67-45FB-9053-C29E048B80D3}"/>
-    <hyperlink ref="A38" r:id="rId26" xr:uid="{F92919F5-AAA3-4266-BECC-B1F16FF4A12A}"/>
-    <hyperlink ref="A39" r:id="rId27" xr:uid="{4DC98056-2432-4398-AD46-F1368A159E75}"/>
+    <hyperlink ref="A34" r:id="rId18" xr:uid="{00C242AD-1DD2-453E-9545-4B875BCD4296}"/>
+    <hyperlink ref="A35" r:id="rId19" xr:uid="{8EFDB8EB-DECF-454C-A6B2-521937F8DA39}"/>
+    <hyperlink ref="A36" r:id="rId20" xr:uid="{68C6EF4B-EAF5-4F8D-835E-85B4CC1127E1}"/>
+    <hyperlink ref="A37" r:id="rId21" xr:uid="{A441BE67-5C82-4C5C-B76F-DC608DEABFCF}"/>
+    <hyperlink ref="A38" r:id="rId22" xr:uid="{D6EED714-BC54-417C-8D12-98D914984736}"/>
+    <hyperlink ref="A40" r:id="rId23" xr:uid="{D9FA0B99-F896-43F5-A7F0-14D9DA4C5553}"/>
+    <hyperlink ref="A41" r:id="rId24" xr:uid="{C2A94B60-2DFD-40DD-A17E-569D78B75D1D}"/>
+    <hyperlink ref="A42" r:id="rId25" xr:uid="{58CCA162-0B67-45FB-9053-C29E048B80D3}"/>
+    <hyperlink ref="A43" r:id="rId26" xr:uid="{F92919F5-AAA3-4266-BECC-B1F16FF4A12A}"/>
+    <hyperlink ref="A44" r:id="rId27" xr:uid="{4DC98056-2432-4398-AD46-F1368A159E75}"/>
     <hyperlink ref="A11" r:id="rId28" xr:uid="{C2364B8F-AD7A-49B4-BA3A-A47FADB17E70}"/>
     <hyperlink ref="A12" r:id="rId29" xr:uid="{5032A9FB-C0D5-42E6-9EB0-1CD821762859}"/>
     <hyperlink ref="A19" r:id="rId30" xr:uid="{68733F0C-CEF2-4587-919A-C679365E9BC5}"/>
-    <hyperlink ref="A43" r:id="rId31" xr:uid="{7889F8F9-73A2-4310-A5FC-933B815630A6}"/>
-    <hyperlink ref="A44" r:id="rId32" xr:uid="{F16F1F7A-D0AB-4316-A173-A2FEE613D339}"/>
-    <hyperlink ref="A49" r:id="rId33" xr:uid="{D0B8A248-CCD5-4996-B5CD-C82C9F29C937}"/>
-    <hyperlink ref="A50" r:id="rId34" xr:uid="{C3F88F77-C25C-4F80-93C6-7657F8A09F1E}"/>
-    <hyperlink ref="A51" r:id="rId35" xr:uid="{50904CB5-D01D-4850-9547-983C9A60550E}"/>
-    <hyperlink ref="A52" r:id="rId36" xr:uid="{322195B7-EFAE-45CC-A913-BA1FB98ABC10}"/>
+    <hyperlink ref="A48" r:id="rId31" xr:uid="{7889F8F9-73A2-4310-A5FC-933B815630A6}"/>
+    <hyperlink ref="A49" r:id="rId32" xr:uid="{F16F1F7A-D0AB-4316-A173-A2FEE613D339}"/>
+    <hyperlink ref="A52" r:id="rId33" xr:uid="{D0B8A248-CCD5-4996-B5CD-C82C9F29C937}"/>
+    <hyperlink ref="A53" r:id="rId34" xr:uid="{C3F88F77-C25C-4F80-93C6-7657F8A09F1E}"/>
+    <hyperlink ref="A54" r:id="rId35" xr:uid="{50904CB5-D01D-4850-9547-983C9A60550E}"/>
+    <hyperlink ref="A55" r:id="rId36" xr:uid="{322195B7-EFAE-45CC-A913-BA1FB98ABC10}"/>
+    <hyperlink ref="A28" r:id="rId37" xr:uid="{2ADA5B37-D54D-40E5-BC01-727BCE3EDA26}"/>
+    <hyperlink ref="A29" r:id="rId38" xr:uid="{FFB465FF-CCED-4B74-BB20-86346742F4A6}"/>
+    <hyperlink ref="A30" r:id="rId39" xr:uid="{7D4A2596-DA34-451E-8C74-5B2C6BA1BE21}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId40"/>
 </worksheet>
 </file>
 
@@ -2717,7 +2798,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2766,4 +2847,27 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70226293-409A-4A18-9AC8-E3B1B2DE55B6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://laravel-excel.com/" xr:uid="{0521288B-504D-408D-B299-D8EC4710CDF0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E9C1ED-998C-4B5B-919D-E1D7E3D87D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BD721A-1252-46AD-818E-6ABB7ADB7DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
+    <workbookView xWindow="3180" yWindow="2436" windowWidth="17280" windowHeight="9072" firstSheet="1" activeTab="6" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
   <sheets>
     <sheet name="bd" sheetId="1" r:id="rId1"/>
     <sheet name="manual API routes" sheetId="5" r:id="rId2"/>
     <sheet name="topicos" sheetId="2" r:id="rId3"/>
     <sheet name="DUVIDAS" sheetId="4" r:id="rId4"/>
-    <sheet name="usados" sheetId="3" r:id="rId5"/>
-    <sheet name="packages incluidos" sheetId="6" r:id="rId6"/>
+    <sheet name="TODO" sheetId="7" r:id="rId5"/>
+    <sheet name="usados" sheetId="3" r:id="rId6"/>
+    <sheet name="packages incluidos" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="197">
   <si>
     <t>email</t>
   </si>
@@ -141,9 +142,6 @@
     <t>Localizações_id</t>
   </si>
   <si>
-    <t>Se apagar tenant o que acontece aos users e aos departamentos desse tenant? Set null ou Cascade onDelete??</t>
-  </si>
-  <si>
     <t xml:space="preserve">postman routes com middleware </t>
   </si>
   <si>
@@ -279,9 +277,6 @@
     <t>required fields : country, city, street, zip_code_company_id</t>
   </si>
   <si>
-    <t>tabela schedules shitf_start shift_end</t>
-  </si>
-  <si>
     <t>department_id</t>
   </si>
   <si>
@@ -525,9 +520,6 @@
     <t>non required fields : role*, schedule_id,  department_id, start_date, image_path, iban*, details*</t>
   </si>
   <si>
-    <t>tabela users, se encriptar o campo email no modelo users não consigo fazer login com nenhum user</t>
-  </si>
-  <si>
     <t>nif</t>
   </si>
   <si>
@@ -625,6 +617,39 @@
   </si>
   <si>
     <t>csv/xlsx</t>
+  </si>
+  <si>
+    <t>import/export de :</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>clockpointentrys</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>departments</t>
+  </si>
+  <si>
+    <t>schedules</t>
+  </si>
+  <si>
+    <t>tenants</t>
+  </si>
+  <si>
+    <t>pesquisa por :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPORT EXPORT EXCEL </t>
+  </si>
+  <si>
+    <t>barryvdh/laravel-debugbar: Laravel Debugbar (Integrates PHP Debug Bar) (github.com)</t>
+  </si>
+  <si>
+    <t>DEBUGGER</t>
   </si>
 </sst>
 </file>
@@ -1556,25 +1581,25 @@
     </row>
     <row r="3" spans="4:17" x14ac:dyDescent="0.3">
       <c r="E3" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="15" t="s">
-        <v>64</v>
-      </c>
       <c r="K3" s="22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M3" s="26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q3" t="s">
         <v>12</v>
@@ -1614,7 +1639,7 @@
         <v>4</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5" s="24" t="s">
         <v>18</v>
@@ -1646,7 +1671,7 @@
         <v>21</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1660,13 +1685,13 @@
         <v>2</v>
       </c>
       <c r="K7" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M7" s="29" t="s">
         <v>19</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q7" t="s">
         <v>15</v>
@@ -1680,13 +1705,13 @@
         <v>1</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="4:17" x14ac:dyDescent="0.3">
@@ -1697,10 +1722,10 @@
         <v>6</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q9" t="s">
         <v>13</v>
@@ -1714,10 +1739,10 @@
         <v>2</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q10" t="s">
         <v>14</v>
@@ -1750,7 +1775,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="4:17" x14ac:dyDescent="0.3">
@@ -1761,18 +1786,18 @@
         <v>10</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>16</v>
@@ -1784,10 +1809,10 @@
         <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="4:17" x14ac:dyDescent="0.3">
@@ -1798,13 +1823,13 @@
         <v>25</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1815,32 +1840,32 @@
         <v>26</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E18" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E19" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="5:11" x14ac:dyDescent="0.3">
@@ -1857,7 +1882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2213FDCB-CC6B-4563-9ABC-C0A7BD343549}">
   <dimension ref="A2:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -1870,22 +1895,22 @@
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>30</v>
       </c>
       <c r="E2">
         <v>201</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1896,27 +1921,27 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="P2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>32</v>
       </c>
       <c r="E3">
         <v>200</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1929,82 +1954,82 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="19" t="s">
+      <c r="E4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
       <c r="G4" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H4" s="18"/>
       <c r="J4" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K4" s="18"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>40</v>
-      </c>
-      <c r="B6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>41</v>
       </c>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>201</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>43</v>
-      </c>
-      <c r="B8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>44</v>
       </c>
       <c r="E8">
         <v>200</v>
@@ -2012,16 +2037,16 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>45</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>46</v>
       </c>
       <c r="E9">
         <v>200</v>
@@ -2029,96 +2054,96 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E10">
         <v>200</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E11">
         <v>200</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E12">
         <v>200</v>
       </c>
       <c r="F12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>49</v>
-      </c>
-      <c r="B14" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>50</v>
       </c>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15">
         <v>201</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -2126,16 +2151,16 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16">
         <v>200</v>
@@ -2143,16 +2168,16 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17">
         <v>200</v>
@@ -2160,79 +2185,79 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E18">
         <v>200</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E19">
         <v>200</v>
       </c>
       <c r="F19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24">
         <v>201</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -2244,27 +2269,27 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25">
         <v>200</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -2278,16 +2303,16 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E26">
         <v>200</v>
@@ -2295,114 +2320,114 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E27">
         <v>200</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
       <c r="K27" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L27" s="18"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="B28" t="s">
-        <v>177</v>
-      </c>
-      <c r="C28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>182</v>
-      </c>
       <c r="E28" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="B29" t="s">
-        <v>184</v>
-      </c>
-      <c r="C29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>183</v>
-      </c>
       <c r="E29" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="E30" t="s">
         <v>185</v>
-      </c>
-      <c r="B30" t="s">
-        <v>186</v>
-      </c>
-      <c r="C30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="E30" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E35">
         <v>201</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -2412,16 +2437,16 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E36">
         <v>200</v>
@@ -2429,16 +2454,16 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E37">
         <v>200</v>
@@ -2446,62 +2471,62 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E38">
         <v>200</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H38" s="18"/>
       <c r="I38" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J38" s="18"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="19" t="s">
         <v>81</v>
-      </c>
-      <c r="B40" t="s">
-        <v>140</v>
-      </c>
-      <c r="C40" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>83</v>
       </c>
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E41">
         <v>201</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -2512,16 +2537,16 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B42" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E42">
         <v>200</v>
@@ -2529,16 +2554,16 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B43" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E43">
         <v>200</v>
@@ -2546,47 +2571,47 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B44" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E44">
         <v>200</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H44" s="18"/>
       <c r="I44" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J44" s="18"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E48" s="30">
         <v>201</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -2598,19 +2623,19 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B49" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -2622,22 +2647,22 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B52" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E52">
         <v>200</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -2649,16 +2674,16 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B53" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E53">
         <v>201</v>
@@ -2674,16 +2699,16 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B54" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E54">
         <v>200</v>
@@ -2691,26 +2716,26 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E55">
         <v>200</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H55" s="18"/>
       <c r="I55" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J55" s="18"/>
     </row>
@@ -2778,35 +2803,86 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122B7B63-70E1-4776-B60F-F0C2CAFC3214}">
-  <dimension ref="A6:A11"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3302958B-D339-4AFA-82B0-C4FD1E9858AA}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E69AFFA-B78B-436C-8588-18B78CAE897D}">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -2826,7 +2902,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2836,7 +2912,7 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2849,19 +2925,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70226293-409A-4A18-9AC8-E3B1B2DE55B6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="I1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="I2" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BD721A-1252-46AD-818E-6ABB7ADB7DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C32064-9388-49F9-9F2D-9D63EBB80925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2436" windowWidth="17280" windowHeight="9072" firstSheet="1" activeTab="6" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="3" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
   <sheets>
     <sheet name="bd" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="204">
   <si>
     <t>email</t>
   </si>
@@ -355,9 +355,6 @@
     <t>image_path</t>
   </si>
   <si>
-    <t>table: users, images</t>
-  </si>
-  <si>
     <t>table: employees, images</t>
   </si>
   <si>
@@ -650,6 +647,30 @@
   </si>
   <si>
     <t>DEBUGGER</t>
+  </si>
+  <si>
+    <t>tabela anexos</t>
+  </si>
+  <si>
+    <t>Os imports e exports devem conter as foreings keys ? Ou seja quando importo ou exporto Employees.xlsx ou csv os campos tenant_id, company_id etc tbm são importados e exportados?</t>
+  </si>
+  <si>
+    <t>location_id em emplyee</t>
+  </si>
+  <si>
+    <t>o employee ao ser criado vai criar uma entrada na tabela locations. Para fazer update do employee, posso mudar o location id ou criar uma nova location?</t>
+  </si>
+  <si>
+    <t>table: users, images, locations</t>
+  </si>
+  <si>
+    <t>required for location:country, city, street, door_number, zip_code</t>
+  </si>
+  <si>
+    <t>Criar um metodo para atualizar a location?</t>
+  </si>
+  <si>
+    <t>Companies também vao criar uma nova location, mesma situação</t>
   </si>
 </sst>
 </file>
@@ -1584,7 +1605,7 @@
         <v>54</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>62</v>
@@ -1593,10 +1614,10 @@
         <v>63</v>
       </c>
       <c r="K3" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="M3" s="26" t="s">
         <v>147</v>
-      </c>
-      <c r="M3" s="26" t="s">
-        <v>148</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>92</v>
@@ -1742,7 +1763,7 @@
         <v>64</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q10" t="s">
         <v>14</v>
@@ -1786,10 +1807,10 @@
         <v>10</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>95</v>
@@ -1857,7 +1878,7 @@
         <v>55</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="5:11" x14ac:dyDescent="0.3">
@@ -1880,10 +1901,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2213FDCB-CC6B-4563-9ABC-C0A7BD343549}">
-  <dimension ref="A2:P55"/>
+  <dimension ref="A2:Q55"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24:AA24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1898,7 +1919,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
@@ -1910,7 +1931,7 @@
         <v>201</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1921,7 +1942,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="P2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1929,7 +1950,7 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
         <v>37</v>
@@ -1941,7 +1962,7 @@
         <v>200</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1957,7 +1978,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
@@ -1969,9 +1990,10 @@
         <v>34</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>98</v>
+        <v>200</v>
       </c>
       <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
       <c r="J4" s="18" t="s">
         <v>86</v>
       </c>
@@ -1982,7 +2004,7 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
@@ -1997,7 +2019,7 @@
         <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
@@ -2009,7 +2031,7 @@
         <v>201</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -2017,13 +2039,16 @@
       <c r="J7" t="s">
         <v>88</v>
       </c>
+      <c r="M7" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
         <v>38</v>
@@ -2040,7 +2065,7 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
         <v>44</v>
@@ -2057,13 +2082,13 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
         <v>46</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E10">
         <v>200</v>
@@ -2079,36 +2104,36 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E11">
         <v>200</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E12">
         <v>200</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -2116,7 +2141,7 @@
         <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -2131,7 +2156,7 @@
         <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -2154,7 +2179,7 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
@@ -2166,12 +2191,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C17" t="s">
         <v>44</v>
@@ -2183,18 +2208,18 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C18" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E18">
         <v>200</v>
@@ -2208,29 +2233,29 @@
       </c>
       <c r="J18" s="18"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E19">
         <v>200</v>
       </c>
       <c r="F19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
@@ -2240,12 +2265,12 @@
       </c>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
@@ -2257,7 +2282,7 @@
         <v>201</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -2269,15 +2294,18 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C25" t="s">
         <v>38</v>
@@ -2289,7 +2317,7 @@
         <v>200</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -2301,12 +2329,12 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C26" t="s">
         <v>44</v>
@@ -2318,24 +2346,24 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C27" t="s">
         <v>46</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E27">
         <v>200</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
@@ -2344,55 +2372,55 @@
       </c>
       <c r="L27" s="18"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C28" t="s">
         <v>38</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E28" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C29" t="s">
         <v>38</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E29" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B30" t="s">
         <v>182</v>
-      </c>
-      <c r="B30" t="s">
-        <v>183</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
       </c>
       <c r="D30" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="E30" t="s">
         <v>184</v>
-      </c>
-      <c r="E30" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -2400,7 +2428,7 @@
         <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C34" t="s">
         <v>38</v>
@@ -2415,7 +2443,7 @@
         <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
@@ -2440,7 +2468,7 @@
         <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C36" t="s">
         <v>38</v>
@@ -2457,7 +2485,7 @@
         <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -2474,13 +2502,13 @@
         <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" t="s">
         <v>46</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E38">
         <v>200</v>
@@ -2499,7 +2527,7 @@
         <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C40" t="s">
         <v>38</v>
@@ -2514,7 +2542,7 @@
         <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C41" t="s">
         <v>37</v>
@@ -2540,7 +2568,7 @@
         <v>80</v>
       </c>
       <c r="B42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C42" t="s">
         <v>38</v>
@@ -2557,7 +2585,7 @@
         <v>80</v>
       </c>
       <c r="B43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C43" t="s">
         <v>44</v>
@@ -2574,13 +2602,13 @@
         <v>80</v>
       </c>
       <c r="B44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C44" t="s">
         <v>46</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E44">
         <v>200</v>
@@ -2596,22 +2624,22 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C48" t="s">
         <v>37</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E48" s="30">
         <v>201</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -2623,19 +2651,19 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C49" t="s">
         <v>44</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -2647,22 +2675,22 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C52" t="s">
         <v>37</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E52">
         <v>200</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -2674,16 +2702,16 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C53" t="s">
         <v>37</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E53">
         <v>201</v>
@@ -2699,16 +2727,16 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C54" t="s">
         <v>38</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E54">
         <v>200</v>
@@ -2716,22 +2744,22 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B55" t="s">
         <v>170</v>
-      </c>
-      <c r="B55" t="s">
-        <v>171</v>
       </c>
       <c r="C55" t="s">
         <v>46</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E55">
         <v>200</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H55" s="18"/>
       <c r="I55" s="18" t="s">
@@ -2803,77 +2831,100 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122B7B63-70E1-4776-B60F-F0C2CAFC3214}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:T4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>199</v>
+      </c>
+      <c r="P4" t="s">
+        <v>202</v>
+      </c>
+      <c r="T4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3302958B-D339-4AFA-82B0-C4FD1E9858AA}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" t="s">
         <v>186</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+      <c r="F4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>193</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2929,26 +2980,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70226293-409A-4A18-9AC8-E3B1B2DE55B6}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" t="s">
         <v>195</v>
-      </c>
-      <c r="I2" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C32064-9388-49F9-9F2D-9D63EBB80925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9AD020-F29F-4E59-A424-AE4BC6211C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="3" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
+    <workbookView xWindow="-144" yWindow="-12960" windowWidth="17280" windowHeight="9072" firstSheet="1" activeTab="5" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
   <sheets>
     <sheet name="bd" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="topicos" sheetId="2" r:id="rId3"/>
     <sheet name="DUVIDAS" sheetId="4" r:id="rId4"/>
     <sheet name="TODO" sheetId="7" r:id="rId5"/>
-    <sheet name="usados" sheetId="3" r:id="rId6"/>
+    <sheet name="notas" sheetId="3" r:id="rId6"/>
     <sheet name="packages incluidos" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="227">
   <si>
     <t>email</t>
   </si>
@@ -671,6 +671,75 @@
   </si>
   <si>
     <t>Companies também vao criar uma nova location, mesma situação</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/companiesexportexcel</t>
+  </si>
+  <si>
+    <t>export companies to xlsx</t>
+  </si>
+  <si>
+    <t>export companies to csv</t>
+  </si>
+  <si>
+    <t>import companies table employees</t>
+  </si>
+  <si>
+    <t>CompanyControllerr - export_xlsx</t>
+  </si>
+  <si>
+    <t>CompanyController - export_csv</t>
+  </si>
+  <si>
+    <t>CompanyController - import</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/companiesexportcsv/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/companiesimport/</t>
+  </si>
+  <si>
+    <t>para fazer imports, o 'name'=&gt;$row[x]</t>
+  </si>
+  <si>
+    <t>x vai ser 1, se na tabela o campo name for o 2</t>
+  </si>
+  <si>
+    <t>para fazer imports, o 'location_id'=&gt;$row[x]</t>
+  </si>
+  <si>
+    <t>x vai ser 8, se na tabela companies o campo location_id for o 9</t>
+  </si>
+  <si>
+    <t>O CAMPO IMPORTADO VAI TER O VALOR x-1 em relação ao numero do campo na tabela</t>
+  </si>
+  <si>
+    <t>email-&gt;3</t>
+  </si>
+  <si>
+    <t>tabela</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>id-&gt;1</t>
+  </si>
+  <si>
+    <t>name-&gt;2</t>
+  </si>
+  <si>
+    <t>email-&gt;row[2]</t>
+  </si>
+  <si>
+    <t>name-&gt;row[1]</t>
+  </si>
+  <si>
+    <t>nif-&gt;row[3]</t>
+  </si>
+  <si>
+    <t>nif-&gt;4</t>
   </si>
 </sst>
 </file>
@@ -1901,10 +1970,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2213FDCB-CC6B-4563-9ABC-C0A7BD343549}">
-  <dimension ref="A2:Q55"/>
+  <dimension ref="A2:Q61"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24:AA24"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2136,161 +2205,153 @@
         <v>104</v>
       </c>
     </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="E13" t="s">
+        <v>174</v>
+      </c>
+    </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>206</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="6"/>
+        <v>209</v>
+      </c>
+      <c r="E14" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>48</v>
+        <v>212</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="E15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E15">
+      <c r="E21">
         <v>201</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B22" t="s">
         <v>124</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C22" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D22" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E16">
+      <c r="E22">
         <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="E18">
-        <v>200</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18" s="18"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19">
-        <v>200</v>
-      </c>
-      <c r="F19" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="E23">
+        <v>200</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="E24">
-        <v>201</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+        <v>200</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J24" s="18"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" t="s">
@@ -2302,319 +2363,278 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="E25">
         <v>200</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+      <c r="F25" t="s">
+        <v>107</v>
+      </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="E27">
-        <v>200</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="K27" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="L27" s="18"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E28" t="s">
-        <v>174</v>
-      </c>
-    </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>176</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="C29" t="s">
         <v>38</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="E29" t="s">
-        <v>177</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>181</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="E30" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="E30">
+        <v>201</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31">
+        <v>200</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="E33">
+        <v>200</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="K33" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="L33" s="18"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>69</v>
+        <v>175</v>
       </c>
       <c r="B34" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="C34" t="s">
         <v>38</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+      <c r="E34" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B35" t="s">
+        <v>180</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="E35" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B36" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="E36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B35" t="s">
-        <v>133</v>
-      </c>
-      <c r="C35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35">
-        <v>201</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" t="s">
-        <v>134</v>
-      </c>
-      <c r="C36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" t="s">
-        <v>135</v>
-      </c>
-      <c r="C37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" t="s">
-        <v>136</v>
-      </c>
-      <c r="C38" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="E38">
-        <v>200</v>
-      </c>
-      <c r="G38" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="J38" s="18"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="B40" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C40" t="s">
         <v>38</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C41" t="s">
         <v>37</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="E41">
         <v>201</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B42" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C42" t="s">
         <v>38</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E42">
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B43" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C43" t="s">
         <v>44</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="E43">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B44" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C44" t="s">
         <v>46</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E44">
         <v>200</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H44" s="18"/>
       <c r="I44" s="18" t="s">
@@ -2622,150 +2642,250 @@
       </c>
       <c r="J44" s="18"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47">
+        <v>201</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="B48" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="C48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E48" s="30">
-        <v>201</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="E48">
+        <v>200</v>
+      </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="B49" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C49" t="s">
         <v>44</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B52" t="s">
-        <v>158</v>
-      </c>
-      <c r="C52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="E52">
+        <v>84</v>
+      </c>
+      <c r="E49">
         <v>200</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B53" t="s">
-        <v>161</v>
-      </c>
-      <c r="C53" t="s">
-        <v>37</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="E53">
-        <v>201</v>
-      </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E50">
+        <v>200</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J50" s="18"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="B54" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="C54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="E54">
-        <v>200</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E54" s="30">
+        <v>201</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" t="s">
+        <v>142</v>
+      </c>
+      <c r="C55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B58" t="s">
+        <v>158</v>
+      </c>
+      <c r="C58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="E58">
+        <v>200</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B59" t="s">
+        <v>161</v>
+      </c>
+      <c r="C59" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E59">
+        <v>201</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B60" t="s">
+        <v>171</v>
+      </c>
+      <c r="C60" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B61" t="s">
         <v>170</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C61" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D61" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="E55">
+      <c r="E61">
         <v>200</v>
       </c>
-      <c r="G55" s="18" t="s">
+      <c r="G61" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18" t="s">
+      <c r="H61" s="18"/>
+      <c r="I61" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="J55" s="18"/>
+      <c r="J61" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2776,41 +2896,44 @@
     <hyperlink ref="A7" r:id="rId5" xr:uid="{7E675BB6-98E5-4A98-8C78-CD05BA10E017}"/>
     <hyperlink ref="A8" r:id="rId6" xr:uid="{8CCD976F-622E-423E-8AA6-6304AC809C49}"/>
     <hyperlink ref="A9" r:id="rId7" xr:uid="{06493852-F02F-4F8E-8163-F806E3685934}"/>
-    <hyperlink ref="A14" r:id="rId8" xr:uid="{8CC52737-961D-4062-AD04-0143DE3885CE}"/>
-    <hyperlink ref="A15" r:id="rId9" xr:uid="{9EDEF581-31CF-422C-AFD4-4350AD9549CB}"/>
-    <hyperlink ref="A16" r:id="rId10" xr:uid="{1AC0E46F-77F3-48ED-BF69-D4E597582298}"/>
-    <hyperlink ref="A17" r:id="rId11" xr:uid="{C7125051-D49B-48F8-9B20-CA2317A0D088}"/>
-    <hyperlink ref="A18" r:id="rId12" xr:uid="{7874FEB1-CB17-4CF0-91DC-3AFFBF58DDC6}"/>
-    <hyperlink ref="A23" r:id="rId13" xr:uid="{F60B5E4D-A587-4733-9296-813AD1EB6A3D}"/>
-    <hyperlink ref="A24" r:id="rId14" xr:uid="{89C8187B-E254-44A9-AA96-EDDE007BA2C8}"/>
-    <hyperlink ref="A25" r:id="rId15" xr:uid="{7D7C3C35-3435-4BAC-A4BD-B53EB924A022}"/>
-    <hyperlink ref="A26" r:id="rId16" xr:uid="{98B6A075-78C7-4196-9101-1AE0970B8FD7}"/>
-    <hyperlink ref="A27" r:id="rId17" xr:uid="{ED08F172-21EE-4BEC-B90E-DC109EEECF6D}"/>
-    <hyperlink ref="A34" r:id="rId18" xr:uid="{00C242AD-1DD2-453E-9545-4B875BCD4296}"/>
-    <hyperlink ref="A35" r:id="rId19" xr:uid="{8EFDB8EB-DECF-454C-A6B2-521937F8DA39}"/>
-    <hyperlink ref="A36" r:id="rId20" xr:uid="{68C6EF4B-EAF5-4F8D-835E-85B4CC1127E1}"/>
-    <hyperlink ref="A37" r:id="rId21" xr:uid="{A441BE67-5C82-4C5C-B76F-DC608DEABFCF}"/>
-    <hyperlink ref="A38" r:id="rId22" xr:uid="{D6EED714-BC54-417C-8D12-98D914984736}"/>
-    <hyperlink ref="A40" r:id="rId23" xr:uid="{D9FA0B99-F896-43F5-A7F0-14D9DA4C5553}"/>
-    <hyperlink ref="A41" r:id="rId24" xr:uid="{C2A94B60-2DFD-40DD-A17E-569D78B75D1D}"/>
-    <hyperlink ref="A42" r:id="rId25" xr:uid="{58CCA162-0B67-45FB-9053-C29E048B80D3}"/>
-    <hyperlink ref="A43" r:id="rId26" xr:uid="{F92919F5-AAA3-4266-BECC-B1F16FF4A12A}"/>
-    <hyperlink ref="A44" r:id="rId27" xr:uid="{4DC98056-2432-4398-AD46-F1368A159E75}"/>
+    <hyperlink ref="A20" r:id="rId8" xr:uid="{8CC52737-961D-4062-AD04-0143DE3885CE}"/>
+    <hyperlink ref="A21" r:id="rId9" xr:uid="{9EDEF581-31CF-422C-AFD4-4350AD9549CB}"/>
+    <hyperlink ref="A22" r:id="rId10" xr:uid="{1AC0E46F-77F3-48ED-BF69-D4E597582298}"/>
+    <hyperlink ref="A23" r:id="rId11" xr:uid="{C7125051-D49B-48F8-9B20-CA2317A0D088}"/>
+    <hyperlink ref="A24" r:id="rId12" xr:uid="{7874FEB1-CB17-4CF0-91DC-3AFFBF58DDC6}"/>
+    <hyperlink ref="A29" r:id="rId13" xr:uid="{F60B5E4D-A587-4733-9296-813AD1EB6A3D}"/>
+    <hyperlink ref="A30" r:id="rId14" xr:uid="{89C8187B-E254-44A9-AA96-EDDE007BA2C8}"/>
+    <hyperlink ref="A31" r:id="rId15" xr:uid="{7D7C3C35-3435-4BAC-A4BD-B53EB924A022}"/>
+    <hyperlink ref="A32" r:id="rId16" xr:uid="{98B6A075-78C7-4196-9101-1AE0970B8FD7}"/>
+    <hyperlink ref="A33" r:id="rId17" xr:uid="{ED08F172-21EE-4BEC-B90E-DC109EEECF6D}"/>
+    <hyperlink ref="A40" r:id="rId18" xr:uid="{00C242AD-1DD2-453E-9545-4B875BCD4296}"/>
+    <hyperlink ref="A41" r:id="rId19" xr:uid="{8EFDB8EB-DECF-454C-A6B2-521937F8DA39}"/>
+    <hyperlink ref="A42" r:id="rId20" xr:uid="{68C6EF4B-EAF5-4F8D-835E-85B4CC1127E1}"/>
+    <hyperlink ref="A43" r:id="rId21" xr:uid="{A441BE67-5C82-4C5C-B76F-DC608DEABFCF}"/>
+    <hyperlink ref="A44" r:id="rId22" xr:uid="{D6EED714-BC54-417C-8D12-98D914984736}"/>
+    <hyperlink ref="A46" r:id="rId23" xr:uid="{D9FA0B99-F896-43F5-A7F0-14D9DA4C5553}"/>
+    <hyperlink ref="A47" r:id="rId24" xr:uid="{C2A94B60-2DFD-40DD-A17E-569D78B75D1D}"/>
+    <hyperlink ref="A48" r:id="rId25" xr:uid="{58CCA162-0B67-45FB-9053-C29E048B80D3}"/>
+    <hyperlink ref="A49" r:id="rId26" xr:uid="{F92919F5-AAA3-4266-BECC-B1F16FF4A12A}"/>
+    <hyperlink ref="A50" r:id="rId27" xr:uid="{4DC98056-2432-4398-AD46-F1368A159E75}"/>
     <hyperlink ref="A11" r:id="rId28" xr:uid="{C2364B8F-AD7A-49B4-BA3A-A47FADB17E70}"/>
     <hyperlink ref="A12" r:id="rId29" xr:uid="{5032A9FB-C0D5-42E6-9EB0-1CD821762859}"/>
-    <hyperlink ref="A19" r:id="rId30" xr:uid="{68733F0C-CEF2-4587-919A-C679365E9BC5}"/>
-    <hyperlink ref="A48" r:id="rId31" xr:uid="{7889F8F9-73A2-4310-A5FC-933B815630A6}"/>
-    <hyperlink ref="A49" r:id="rId32" xr:uid="{F16F1F7A-D0AB-4316-A173-A2FEE613D339}"/>
-    <hyperlink ref="A52" r:id="rId33" xr:uid="{D0B8A248-CCD5-4996-B5CD-C82C9F29C937}"/>
-    <hyperlink ref="A53" r:id="rId34" xr:uid="{C3F88F77-C25C-4F80-93C6-7657F8A09F1E}"/>
-    <hyperlink ref="A54" r:id="rId35" xr:uid="{50904CB5-D01D-4850-9547-983C9A60550E}"/>
-    <hyperlink ref="A55" r:id="rId36" xr:uid="{322195B7-EFAE-45CC-A913-BA1FB98ABC10}"/>
-    <hyperlink ref="A28" r:id="rId37" xr:uid="{2ADA5B37-D54D-40E5-BC01-727BCE3EDA26}"/>
-    <hyperlink ref="A29" r:id="rId38" xr:uid="{FFB465FF-CCED-4B74-BB20-86346742F4A6}"/>
-    <hyperlink ref="A30" r:id="rId39" xr:uid="{7D4A2596-DA34-451E-8C74-5B2C6BA1BE21}"/>
+    <hyperlink ref="A25" r:id="rId30" xr:uid="{68733F0C-CEF2-4587-919A-C679365E9BC5}"/>
+    <hyperlink ref="A54" r:id="rId31" xr:uid="{7889F8F9-73A2-4310-A5FC-933B815630A6}"/>
+    <hyperlink ref="A55" r:id="rId32" xr:uid="{F16F1F7A-D0AB-4316-A173-A2FEE613D339}"/>
+    <hyperlink ref="A58" r:id="rId33" xr:uid="{D0B8A248-CCD5-4996-B5CD-C82C9F29C937}"/>
+    <hyperlink ref="A59" r:id="rId34" xr:uid="{C3F88F77-C25C-4F80-93C6-7657F8A09F1E}"/>
+    <hyperlink ref="A60" r:id="rId35" xr:uid="{50904CB5-D01D-4850-9547-983C9A60550E}"/>
+    <hyperlink ref="A61" r:id="rId36" xr:uid="{322195B7-EFAE-45CC-A913-BA1FB98ABC10}"/>
+    <hyperlink ref="A34" r:id="rId37" xr:uid="{2ADA5B37-D54D-40E5-BC01-727BCE3EDA26}"/>
+    <hyperlink ref="A35" r:id="rId38" xr:uid="{FFB465FF-CCED-4B74-BB20-86346742F4A6}"/>
+    <hyperlink ref="A36" r:id="rId39" xr:uid="{7D4A2596-DA34-451E-8C74-5B2C6BA1BE21}"/>
+    <hyperlink ref="A13" r:id="rId40" xr:uid="{9E34EEEA-8247-4DEA-97CD-7E41FE2F0BF0}"/>
+    <hyperlink ref="A14" r:id="rId41" xr:uid="{71B4EE5D-952E-4F9D-B32E-48304A0BED29}"/>
+    <hyperlink ref="A15" r:id="rId42" xr:uid="{A4FCB4D6-FF48-4991-B2D8-BB5819DE523F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId40"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId43"/>
 </worksheet>
 </file>
 
@@ -2833,7 +2956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122B7B63-70E1-4776-B60F-F0C2CAFC3214}">
   <dimension ref="A2:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
@@ -2935,10 +3058,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E69AFFA-B78B-436C-8588-18B78CAE897D}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2961,9 +3084,69 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>36</v>
+      </c>
+      <c r="I20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>219</v>
+      </c>
+      <c r="K25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I27" t="s">
+        <v>222</v>
+      </c>
+      <c r="K27" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I28" t="s">
+        <v>218</v>
+      </c>
+      <c r="K28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I29" t="s">
+        <v>226</v>
+      </c>
+      <c r="K29" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9AD020-F29F-4E59-A424-AE4BC6211C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4BA6E5-1468-4846-91FF-EA98C02A413E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-144" yWindow="-12960" windowWidth="17280" windowHeight="9072" firstSheet="1" activeTab="5" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="1" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
   <sheets>
     <sheet name="bd" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="236">
   <si>
     <t>email</t>
   </si>
@@ -274,9 +274,6 @@
     <t>http://127.0.0.1:8000/api/locations/{id}</t>
   </si>
   <si>
-    <t>required fields : country, city, street, zip_code_company_id</t>
-  </si>
-  <si>
     <t>department_id</t>
   </si>
   <si>
@@ -391,12 +388,6 @@
     <t>AdminController - store</t>
   </si>
   <si>
-    <t>required fields: name, email, password</t>
-  </si>
-  <si>
-    <t>non required fields: nif, iban,details,niss,emer_contact, bi_cc, role, image_path</t>
-  </si>
-  <si>
     <t>http://127.0.0.1:8000/api/admin/{id}</t>
   </si>
   <si>
@@ -580,39 +571,12 @@
     <t>Supercharged Excel exports and imports in Laravel | Laravel Excel (laravel-excel.com)</t>
   </si>
   <si>
-    <t>export employees to xlsx</t>
-  </si>
-  <si>
     <t>xlsx</t>
   </si>
   <si>
-    <t>http://127.0.0.1:8000/api/employeesexporteexcel/</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8000/api/employeesexportcsv/</t>
-  </si>
-  <si>
     <t>csv</t>
   </si>
   <si>
-    <t>EmployeeController - export_xlsx</t>
-  </si>
-  <si>
-    <t>EmployeeController - export_csv</t>
-  </si>
-  <si>
-    <t>export employees to csv</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8000/api/employeesimport/</t>
-  </si>
-  <si>
-    <t>import employees table employees</t>
-  </si>
-  <si>
-    <t>EmployeeController - import</t>
-  </si>
-  <si>
     <t>csv/xlsx</t>
   </si>
   <si>
@@ -625,12 +589,6 @@
     <t>clockpointentrys</t>
   </si>
   <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>departments</t>
-  </si>
-  <si>
     <t>schedules</t>
   </si>
   <si>
@@ -667,9 +625,6 @@
     <t>required for location:country, city, street, door_number, zip_code</t>
   </si>
   <si>
-    <t>Criar um metodo para atualizar a location?</t>
-  </si>
-  <si>
     <t>Companies também vao criar uma nova location, mesma situação</t>
   </si>
   <si>
@@ -740,6 +695,78 @@
   </si>
   <si>
     <t>nif-&gt;4</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/locationsexporteexcel/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/locationsexportcsv/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/locationsimport/</t>
+  </si>
+  <si>
+    <t>export locations to xlsx</t>
+  </si>
+  <si>
+    <t>export locations to csv</t>
+  </si>
+  <si>
+    <t>import locations table locations</t>
+  </si>
+  <si>
+    <t>LocationController - index</t>
+  </si>
+  <si>
+    <t>LocationController - store</t>
+  </si>
+  <si>
+    <t>LocationController - show</t>
+  </si>
+  <si>
+    <t>LocationController - update</t>
+  </si>
+  <si>
+    <t>LocationController - destroy</t>
+  </si>
+  <si>
+    <t>LocationController - export_xlsx</t>
+  </si>
+  <si>
+    <t>LocationController - export_csv</t>
+  </si>
+  <si>
+    <t>LocationController - import</t>
+  </si>
+  <si>
+    <t>required fields : country*, city*, street*, door_number*, zip_code*, company_id</t>
+  </si>
+  <si>
+    <t>*encrypted</t>
+  </si>
+  <si>
+    <t>required fields: name*, email, password*</t>
+  </si>
+  <si>
+    <t>non required fields: nif*, iban*,details*, niss*,emer_contact*, bi_cc*, role*, image_path</t>
+  </si>
+  <si>
+    <t>table: users, images,</t>
+  </si>
+  <si>
+    <t>ao exportar os users, exportar também a password? Para isso a password deixa de ser um campo $hidden no modelo User</t>
+  </si>
+  <si>
+    <t>se não exportar a password para importar os users o campo password terá de ser nullable() ficando users na tabela users sem password, os importados</t>
+  </si>
+  <si>
+    <t>exportar para ficheiros xlsx com cabeçalhos ??</t>
+  </si>
+  <si>
+    <t>ao exportar e importar as foreigns keys, se as chaves do ficheiro não existirem na bd dá erro de constrain foreign key, seria melhor não exportar as foreign keys?</t>
+  </si>
+  <si>
+    <t>Criar um metodo separado para atualizar a location do employee?</t>
   </si>
 </sst>
 </file>
@@ -784,7 +811,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -824,6 +851,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,7 +991,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -990,6 +1023,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -1674,7 +1708,7 @@
         <v>54</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>62</v>
@@ -1683,13 +1717,13 @@
         <v>63</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M3" s="26" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q3" t="s">
         <v>12</v>
@@ -1761,7 +1795,7 @@
         <v>21</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1781,7 +1815,7 @@
         <v>19</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q7" t="s">
         <v>15</v>
@@ -1801,7 +1835,7 @@
         <v>67</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="4:17" x14ac:dyDescent="0.3">
@@ -1815,7 +1849,7 @@
         <v>68</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q9" t="s">
         <v>13</v>
@@ -1832,7 +1866,7 @@
         <v>64</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Q10" t="s">
         <v>14</v>
@@ -1865,7 +1899,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="4:17" x14ac:dyDescent="0.3">
@@ -1876,13 +1910,13 @@
         <v>10</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="4:17" x14ac:dyDescent="0.3">
@@ -1899,10 +1933,10 @@
         <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="4:17" x14ac:dyDescent="0.3">
@@ -1916,10 +1950,10 @@
         <v>65</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1933,7 +1967,7 @@
         <v>64</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>64</v>
@@ -1947,15 +1981,15 @@
         <v>55</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E19" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="5:11" x14ac:dyDescent="0.3">
@@ -1970,37 +2004,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2213FDCB-CC6B-4563-9ABC-C0A7BD343549}">
-  <dimension ref="A2:Q61"/>
+  <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2">
+        <v>108</v>
+      </c>
+      <c r="E2" s="30">
         <v>201</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>153</v>
+        <v>228</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -2009,29 +2060,22 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="P2" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>154</v>
+        <v>229</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -2040,897 +2084,1039 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
       <c r="G4" s="18" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K4" s="18"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="6"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>201</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M7" t="s">
-        <v>201</v>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="P7" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>200</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="E10">
-        <v>200</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11">
-        <v>200</v>
-      </c>
-      <c r="F11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12">
-        <v>200</v>
-      </c>
-      <c r="F12" t="s">
-        <v>104</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" s="18"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B13" t="s">
-        <v>205</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="E13" t="s">
-        <v>174</v>
-      </c>
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>206</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="E14" t="s">
-        <v>177</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>212</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>207</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="E15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="E15">
+        <v>201</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" t="s">
+        <v>87</v>
+      </c>
+      <c r="M15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18">
+        <v>200</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19">
+        <v>200</v>
+      </c>
+      <c r="F19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20">
+        <v>200</v>
+      </c>
+      <c r="F20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" t="s">
-        <v>37</v>
-      </c>
       <c r="D21" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21">
-        <v>201</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+      <c r="E21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>47</v>
+        <v>196</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="C22" t="s">
         <v>38</v>
       </c>
       <c r="D22" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="E22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="E23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29">
+        <v>201</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E22">
+      <c r="E30">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B23" t="s">
-        <v>125</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D31" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="E23">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="E24">
-        <v>200</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="J24" s="18"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="E25">
-        <v>200</v>
-      </c>
-      <c r="F25" t="s">
-        <v>107</v>
-      </c>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30">
-        <v>201</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" t="s">
-        <v>129</v>
-      </c>
-      <c r="C31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>58</v>
       </c>
       <c r="E31">
         <v>200</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="E32">
         <v>200</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G32" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="J32" s="18"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="E33">
         <v>200</v>
       </c>
-      <c r="G33" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="K33" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="L33" s="18"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B34" t="s">
-        <v>173</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="F33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E34" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B35" t="s">
-        <v>180</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D37" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38">
+        <v>201</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="E35" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B36" t="s">
-        <v>182</v>
-      </c>
-      <c r="C36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="E36" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D39" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39">
+        <v>200</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41">
+        <v>200</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="K41" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="L41" s="18"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B40" t="s">
-        <v>132</v>
-      </c>
-      <c r="C40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E41">
-        <v>201</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" t="s">
-        <v>134</v>
-      </c>
-      <c r="C42" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" t="s">
-        <v>135</v>
-      </c>
-      <c r="C43" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" t="s">
-        <v>136</v>
-      </c>
-      <c r="C44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="E44">
-        <v>200</v>
-      </c>
-      <c r="G44" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="J44" s="18"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B46" t="s">
-        <v>137</v>
-      </c>
-      <c r="C46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="E46" s="6"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B47" t="s">
-        <v>138</v>
-      </c>
-      <c r="C47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="E47">
-        <v>201</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="B48" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C48" t="s">
         <v>38</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="E48">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C49" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>84</v>
+        <v>219</v>
       </c>
       <c r="E49">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="N49" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C50" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>165</v>
+        <v>220</v>
       </c>
       <c r="E50">
         <v>200</v>
       </c>
-      <c r="G50" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="J50" s="18"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="E51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="E52">
+        <v>200</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="J52" s="18"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B53" t="s">
+        <v>215</v>
+      </c>
+      <c r="C53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="E53" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>108</v>
+        <v>213</v>
       </c>
       <c r="B54" t="s">
-        <v>114</v>
+        <v>216</v>
       </c>
       <c r="C54" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="E54" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B55" t="s">
+        <v>217</v>
+      </c>
+      <c r="C55" t="s">
         <v>37</v>
       </c>
-      <c r="D54" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E54" s="30">
+      <c r="D55" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="E55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" s="31"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="31"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E62">
         <v>201</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B55" t="s">
-        <v>142</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="F62" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
+      <c r="D64" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E64">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" t="s">
+        <v>46</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E65">
+        <v>200</v>
+      </c>
+      <c r="G65" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="J65" s="18"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A72" s="31"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="31"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="31"/>
+      <c r="L72" s="31"/>
+      <c r="M72" s="31"/>
+      <c r="N72" s="31"/>
+      <c r="O72" s="31"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B73" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" t="s">
+        <v>37</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="E73">
+        <v>200</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74" t="s">
+        <v>158</v>
+      </c>
+      <c r="C74" t="s">
+        <v>37</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="E74">
+        <v>201</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B75" t="s">
+        <v>168</v>
+      </c>
+      <c r="C75" t="s">
+        <v>38</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E75">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B76" t="s">
+        <v>167</v>
+      </c>
+      <c r="C76" t="s">
+        <v>46</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E76">
+        <v>200</v>
+      </c>
+      <c r="G76" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="B58" t="s">
-        <v>158</v>
-      </c>
-      <c r="C58" t="s">
-        <v>37</v>
-      </c>
-      <c r="D58" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="E58">
-        <v>200</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B59" t="s">
-        <v>161</v>
-      </c>
-      <c r="C59" t="s">
-        <v>37</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="E59">
-        <v>201</v>
-      </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B60" t="s">
-        <v>171</v>
-      </c>
-      <c r="C60" t="s">
-        <v>38</v>
-      </c>
-      <c r="D60" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="E60">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B61" t="s">
-        <v>170</v>
-      </c>
-      <c r="C61" t="s">
-        <v>46</v>
-      </c>
-      <c r="D61" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="E61">
-        <v>200</v>
-      </c>
-      <c r="G61" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="J61" s="18"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="J76" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{BBB211D6-EC2E-483F-AD68-2B5908BDB559}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{2AD720C6-79D9-490E-B59A-3EF5834599AE}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{9EFA1F3B-012E-4B52-8B70-B67ABED809A5}"/>
-    <hyperlink ref="A6" r:id="rId4" xr:uid="{A4ACD191-23EA-48D9-852B-4F64AE268575}"/>
-    <hyperlink ref="A7" r:id="rId5" xr:uid="{7E675BB6-98E5-4A98-8C78-CD05BA10E017}"/>
-    <hyperlink ref="A8" r:id="rId6" xr:uid="{8CCD976F-622E-423E-8AA6-6304AC809C49}"/>
-    <hyperlink ref="A9" r:id="rId7" xr:uid="{06493852-F02F-4F8E-8163-F806E3685934}"/>
-    <hyperlink ref="A20" r:id="rId8" xr:uid="{8CC52737-961D-4062-AD04-0143DE3885CE}"/>
-    <hyperlink ref="A21" r:id="rId9" xr:uid="{9EDEF581-31CF-422C-AFD4-4350AD9549CB}"/>
-    <hyperlink ref="A22" r:id="rId10" xr:uid="{1AC0E46F-77F3-48ED-BF69-D4E597582298}"/>
-    <hyperlink ref="A23" r:id="rId11" xr:uid="{C7125051-D49B-48F8-9B20-CA2317A0D088}"/>
-    <hyperlink ref="A24" r:id="rId12" xr:uid="{7874FEB1-CB17-4CF0-91DC-3AFFBF58DDC6}"/>
-    <hyperlink ref="A29" r:id="rId13" xr:uid="{F60B5E4D-A587-4733-9296-813AD1EB6A3D}"/>
-    <hyperlink ref="A30" r:id="rId14" xr:uid="{89C8187B-E254-44A9-AA96-EDDE007BA2C8}"/>
-    <hyperlink ref="A31" r:id="rId15" xr:uid="{7D7C3C35-3435-4BAC-A4BD-B53EB924A022}"/>
-    <hyperlink ref="A32" r:id="rId16" xr:uid="{98B6A075-78C7-4196-9101-1AE0970B8FD7}"/>
-    <hyperlink ref="A33" r:id="rId17" xr:uid="{ED08F172-21EE-4BEC-B90E-DC109EEECF6D}"/>
-    <hyperlink ref="A40" r:id="rId18" xr:uid="{00C242AD-1DD2-453E-9545-4B875BCD4296}"/>
-    <hyperlink ref="A41" r:id="rId19" xr:uid="{8EFDB8EB-DECF-454C-A6B2-521937F8DA39}"/>
-    <hyperlink ref="A42" r:id="rId20" xr:uid="{68C6EF4B-EAF5-4F8D-835E-85B4CC1127E1}"/>
-    <hyperlink ref="A43" r:id="rId21" xr:uid="{A441BE67-5C82-4C5C-B76F-DC608DEABFCF}"/>
-    <hyperlink ref="A44" r:id="rId22" xr:uid="{D6EED714-BC54-417C-8D12-98D914984736}"/>
-    <hyperlink ref="A46" r:id="rId23" xr:uid="{D9FA0B99-F896-43F5-A7F0-14D9DA4C5553}"/>
-    <hyperlink ref="A47" r:id="rId24" xr:uid="{C2A94B60-2DFD-40DD-A17E-569D78B75D1D}"/>
-    <hyperlink ref="A48" r:id="rId25" xr:uid="{58CCA162-0B67-45FB-9053-C29E048B80D3}"/>
-    <hyperlink ref="A49" r:id="rId26" xr:uid="{F92919F5-AAA3-4266-BECC-B1F16FF4A12A}"/>
-    <hyperlink ref="A50" r:id="rId27" xr:uid="{4DC98056-2432-4398-AD46-F1368A159E75}"/>
-    <hyperlink ref="A11" r:id="rId28" xr:uid="{C2364B8F-AD7A-49B4-BA3A-A47FADB17E70}"/>
-    <hyperlink ref="A12" r:id="rId29" xr:uid="{5032A9FB-C0D5-42E6-9EB0-1CD821762859}"/>
-    <hyperlink ref="A25" r:id="rId30" xr:uid="{68733F0C-CEF2-4587-919A-C679365E9BC5}"/>
-    <hyperlink ref="A54" r:id="rId31" xr:uid="{7889F8F9-73A2-4310-A5FC-933B815630A6}"/>
-    <hyperlink ref="A55" r:id="rId32" xr:uid="{F16F1F7A-D0AB-4316-A173-A2FEE613D339}"/>
-    <hyperlink ref="A58" r:id="rId33" xr:uid="{D0B8A248-CCD5-4996-B5CD-C82C9F29C937}"/>
-    <hyperlink ref="A59" r:id="rId34" xr:uid="{C3F88F77-C25C-4F80-93C6-7657F8A09F1E}"/>
-    <hyperlink ref="A60" r:id="rId35" xr:uid="{50904CB5-D01D-4850-9547-983C9A60550E}"/>
-    <hyperlink ref="A61" r:id="rId36" xr:uid="{322195B7-EFAE-45CC-A913-BA1FB98ABC10}"/>
-    <hyperlink ref="A34" r:id="rId37" xr:uid="{2ADA5B37-D54D-40E5-BC01-727BCE3EDA26}"/>
-    <hyperlink ref="A35" r:id="rId38" xr:uid="{FFB465FF-CCED-4B74-BB20-86346742F4A6}"/>
-    <hyperlink ref="A36" r:id="rId39" xr:uid="{7D4A2596-DA34-451E-8C74-5B2C6BA1BE21}"/>
-    <hyperlink ref="A13" r:id="rId40" xr:uid="{9E34EEEA-8247-4DEA-97CD-7E41FE2F0BF0}"/>
-    <hyperlink ref="A14" r:id="rId41" xr:uid="{71B4EE5D-952E-4F9D-B32E-48304A0BED29}"/>
-    <hyperlink ref="A15" r:id="rId42" xr:uid="{A4FCB4D6-FF48-4991-B2D8-BB5819DE523F}"/>
+    <hyperlink ref="A7" r:id="rId1" xr:uid="{BBB211D6-EC2E-483F-AD68-2B5908BDB559}"/>
+    <hyperlink ref="A8" r:id="rId2" xr:uid="{2AD720C6-79D9-490E-B59A-3EF5834599AE}"/>
+    <hyperlink ref="A9" r:id="rId3" xr:uid="{9EFA1F3B-012E-4B52-8B70-B67ABED809A5}"/>
+    <hyperlink ref="A14" r:id="rId4" xr:uid="{A4ACD191-23EA-48D9-852B-4F64AE268575}"/>
+    <hyperlink ref="A15" r:id="rId5" xr:uid="{7E675BB6-98E5-4A98-8C78-CD05BA10E017}"/>
+    <hyperlink ref="A16" r:id="rId6" xr:uid="{8CCD976F-622E-423E-8AA6-6304AC809C49}"/>
+    <hyperlink ref="A17" r:id="rId7" xr:uid="{06493852-F02F-4F8E-8163-F806E3685934}"/>
+    <hyperlink ref="A28" r:id="rId8" xr:uid="{8CC52737-961D-4062-AD04-0143DE3885CE}"/>
+    <hyperlink ref="A29" r:id="rId9" xr:uid="{9EDEF581-31CF-422C-AFD4-4350AD9549CB}"/>
+    <hyperlink ref="A30" r:id="rId10" xr:uid="{1AC0E46F-77F3-48ED-BF69-D4E597582298}"/>
+    <hyperlink ref="A31" r:id="rId11" xr:uid="{C7125051-D49B-48F8-9B20-CA2317A0D088}"/>
+    <hyperlink ref="A32" r:id="rId12" xr:uid="{7874FEB1-CB17-4CF0-91DC-3AFFBF58DDC6}"/>
+    <hyperlink ref="A37" r:id="rId13" xr:uid="{F60B5E4D-A587-4733-9296-813AD1EB6A3D}"/>
+    <hyperlink ref="A38" r:id="rId14" xr:uid="{89C8187B-E254-44A9-AA96-EDDE007BA2C8}"/>
+    <hyperlink ref="A39" r:id="rId15" xr:uid="{7D7C3C35-3435-4BAC-A4BD-B53EB924A022}"/>
+    <hyperlink ref="A40" r:id="rId16" xr:uid="{98B6A075-78C7-4196-9101-1AE0970B8FD7}"/>
+    <hyperlink ref="A41" r:id="rId17" xr:uid="{ED08F172-21EE-4BEC-B90E-DC109EEECF6D}"/>
+    <hyperlink ref="A48" r:id="rId18" xr:uid="{00C242AD-1DD2-453E-9545-4B875BCD4296}"/>
+    <hyperlink ref="A49" r:id="rId19" xr:uid="{8EFDB8EB-DECF-454C-A6B2-521937F8DA39}"/>
+    <hyperlink ref="A50" r:id="rId20" xr:uid="{68C6EF4B-EAF5-4F8D-835E-85B4CC1127E1}"/>
+    <hyperlink ref="A51" r:id="rId21" xr:uid="{A441BE67-5C82-4C5C-B76F-DC608DEABFCF}"/>
+    <hyperlink ref="A52" r:id="rId22" xr:uid="{D6EED714-BC54-417C-8D12-98D914984736}"/>
+    <hyperlink ref="A61" r:id="rId23" xr:uid="{D9FA0B99-F896-43F5-A7F0-14D9DA4C5553}"/>
+    <hyperlink ref="A62" r:id="rId24" xr:uid="{C2A94B60-2DFD-40DD-A17E-569D78B75D1D}"/>
+    <hyperlink ref="A63" r:id="rId25" xr:uid="{58CCA162-0B67-45FB-9053-C29E048B80D3}"/>
+    <hyperlink ref="A64" r:id="rId26" xr:uid="{F92919F5-AAA3-4266-BECC-B1F16FF4A12A}"/>
+    <hyperlink ref="A65" r:id="rId27" xr:uid="{4DC98056-2432-4398-AD46-F1368A159E75}"/>
+    <hyperlink ref="A19" r:id="rId28" xr:uid="{C2364B8F-AD7A-49B4-BA3A-A47FADB17E70}"/>
+    <hyperlink ref="A20" r:id="rId29" xr:uid="{5032A9FB-C0D5-42E6-9EB0-1CD821762859}"/>
+    <hyperlink ref="A33" r:id="rId30" xr:uid="{68733F0C-CEF2-4587-919A-C679365E9BC5}"/>
+    <hyperlink ref="A2" r:id="rId31" xr:uid="{7889F8F9-73A2-4310-A5FC-933B815630A6}"/>
+    <hyperlink ref="A3" r:id="rId32" xr:uid="{F16F1F7A-D0AB-4316-A173-A2FEE613D339}"/>
+    <hyperlink ref="A73" r:id="rId33" xr:uid="{D0B8A248-CCD5-4996-B5CD-C82C9F29C937}"/>
+    <hyperlink ref="A74" r:id="rId34" xr:uid="{C3F88F77-C25C-4F80-93C6-7657F8A09F1E}"/>
+    <hyperlink ref="A75" r:id="rId35" xr:uid="{50904CB5-D01D-4850-9547-983C9A60550E}"/>
+    <hyperlink ref="A76" r:id="rId36" xr:uid="{322195B7-EFAE-45CC-A913-BA1FB98ABC10}"/>
+    <hyperlink ref="A53" r:id="rId37" xr:uid="{2ADA5B37-D54D-40E5-BC01-727BCE3EDA26}"/>
+    <hyperlink ref="A54" r:id="rId38" xr:uid="{FFB465FF-CCED-4B74-BB20-86346742F4A6}"/>
+    <hyperlink ref="A55" r:id="rId39" xr:uid="{7D4A2596-DA34-451E-8C74-5B2C6BA1BE21}"/>
+    <hyperlink ref="A21" r:id="rId40" xr:uid="{9E34EEEA-8247-4DEA-97CD-7E41FE2F0BF0}"/>
+    <hyperlink ref="A22" r:id="rId41" xr:uid="{71B4EE5D-952E-4F9D-B32E-48304A0BED29}"/>
+    <hyperlink ref="A23" r:id="rId42" xr:uid="{A4FCB4D6-FF48-4991-B2D8-BB5819DE523F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId43"/>
@@ -2954,28 +3140,53 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122B7B63-70E1-4776-B60F-F0C2CAFC3214}">
-  <dimension ref="A2:T4"/>
+  <dimension ref="A2:T8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="18" max="18" width="134.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="P4" t="s">
-        <v>202</v>
-      </c>
-      <c r="T4" t="s">
-        <v>203</v>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2988,58 +3199,45 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F1" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>189</v>
-      </c>
       <c r="F4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -3047,7 +3245,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3060,7 +3258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E69AFFA-B78B-436C-8588-18B78CAE897D}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
@@ -3089,64 +3287,64 @@
         <v>36</v>
       </c>
       <c r="I20" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K21" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I22" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K23" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I24" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I25" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="K25" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I26" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I27" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="K27" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I28" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="K28" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I29" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="K29" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3169,18 +3367,18 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I1" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I2" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4BA6E5-1468-4846-91FF-EA98C02A413E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12ED34CC-80F4-46ED-9F05-50F909E757C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="1" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
+    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="4" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
   <sheets>
     <sheet name="bd" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="270">
   <si>
     <t>email</t>
   </si>
@@ -523,9 +523,6 @@
     <t>http://127.0.0.1:8000/api/clockpoinentry/</t>
   </si>
   <si>
-    <t>ClockpointController - index</t>
-  </si>
-  <si>
     <t>all clockpoints</t>
   </si>
   <si>
@@ -538,15 +535,6 @@
     <t>add clockpoints</t>
   </si>
   <si>
-    <t>ClockpointController - store</t>
-  </si>
-  <si>
-    <t>ClockpointController - show</t>
-  </si>
-  <si>
-    <t>ClockpointController - destroy</t>
-  </si>
-  <si>
     <t>ScheduleController - destroy</t>
   </si>
   <si>
@@ -583,12 +571,6 @@
     <t>import/export de :</t>
   </si>
   <si>
-    <t>users</t>
-  </si>
-  <si>
-    <t>clockpointentrys</t>
-  </si>
-  <si>
     <t>schedules</t>
   </si>
   <si>
@@ -613,9 +595,6 @@
     <t>Os imports e exports devem conter as foreings keys ? Ou seja quando importo ou exporto Employees.xlsx ou csv os campos tenant_id, company_id etc tbm são importados e exportados?</t>
   </si>
   <si>
-    <t>location_id em emplyee</t>
-  </si>
-  <si>
     <t>o employee ao ser criado vai criar uma entrada na tabela locations. Para fazer update do employee, posso mudar o location id ou criar uma nova location?</t>
   </si>
   <si>
@@ -767,13 +746,136 @@
   </si>
   <si>
     <t>Criar um metodo separado para atualizar a location do employee?</t>
+  </si>
+  <si>
+    <t>HTTP response status codes - HTTP | MDN (mozilla.org)</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/adminusersexportexcel</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/adminusersexportcsv</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/adminusersimport</t>
+  </si>
+  <si>
+    <t>export users to xlsx</t>
+  </si>
+  <si>
+    <t>export users to csv</t>
+  </si>
+  <si>
+    <t>import users to table users</t>
+  </si>
+  <si>
+    <t>AdminController - export_xlsx</t>
+  </si>
+  <si>
+    <t>AdminController - import</t>
+  </si>
+  <si>
+    <t>AdminController -  export_csv</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/clockpointentrysexportexcel</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/clockpointentrysexportcsv/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/clockpointentrysimport</t>
+  </si>
+  <si>
+    <t>export clock_entrys to xlsx</t>
+  </si>
+  <si>
+    <t>export clock_entrys  to csv</t>
+  </si>
+  <si>
+    <t>import clock_entrys  table clockpointentrys</t>
+  </si>
+  <si>
+    <t>ClockpointentryController - index</t>
+  </si>
+  <si>
+    <t>ClockpointentryController - store</t>
+  </si>
+  <si>
+    <t>ClockpointentryController - show</t>
+  </si>
+  <si>
+    <t>ClockpointentryController - destroy</t>
+  </si>
+  <si>
+    <t>ClockpointentryController - export_xlsx</t>
+  </si>
+  <si>
+    <t>ClockpointentryController - export_csv</t>
+  </si>
+  <si>
+    <t>ClockpointentryController - import</t>
+  </si>
+  <si>
+    <t>ADMIN has IMPORT/EXPORT</t>
+  </si>
+  <si>
+    <t>REGISTER/LOGIN/LOGOUT</t>
+  </si>
+  <si>
+    <t>COMPANY has IMPORT/EXPORT</t>
+  </si>
+  <si>
+    <t>DEPARTMENT</t>
+  </si>
+  <si>
+    <t>EMPLOYEE has IMPORT/EXPORT</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/employeesexportexcel</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/employeesexportcsv/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/employeesimport/</t>
+  </si>
+  <si>
+    <t>export employees to xlsx</t>
+  </si>
+  <si>
+    <t>export employees to csv</t>
+  </si>
+  <si>
+    <t>import employees table employees</t>
+  </si>
+  <si>
+    <t>EmployeeController - export_xlsx</t>
+  </si>
+  <si>
+    <t>EmployeeController - export_csv</t>
+  </si>
+  <si>
+    <t>EmployeeController - import</t>
+  </si>
+  <si>
+    <t>LOCATION has IMPORT/EXPORT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCHEDULE </t>
+  </si>
+  <si>
+    <t>CLOCKPOINTENTRY has IMPORT/EXPORT</t>
+  </si>
+  <si>
+    <t>??</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -806,6 +908,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -991,7 +1101,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1024,6 +1134,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -2004,21 +2115,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2213FDCB-CC6B-4563-9ABC-C0A7BD343549}">
-  <dimension ref="A1:P76"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="53.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="31"/>
+    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="32" t="s">
+        <v>252</v>
+      </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -2051,7 +2165,7 @@
         <v>201</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -2075,7 +2189,7 @@
         <v>110</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -2086,8 +2200,23 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E4" t="s">
+        <v>166</v>
+      </c>
       <c r="G4" s="18" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -2096,1030 +2225,1204 @@
       </c>
       <c r="K4" s="18"/>
     </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="E5" t="s">
+        <v>167</v>
+      </c>
+    </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
+      <c r="A6" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="E6" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="10" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+      <c r="A10" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B11" t="s">
         <v>111</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C11" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D11" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E7">
+      <c r="E11">
         <v>201</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="P7" t="s">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="P11" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B12" t="s">
         <v>112</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C12" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D12" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E8">
+      <c r="E12">
         <v>200</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B13" t="s">
         <v>113</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C13" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E13" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18" t="s">
+      <c r="G13" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="K9" s="18"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
+      <c r="K13" s="18"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15">
-        <v>201</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" t="s">
-        <v>87</v>
-      </c>
-      <c r="M15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17">
-        <v>200</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="D14" s="19"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+    </row>
+    <row r="17" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+      <c r="A17" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="E18">
-        <v>200</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="J18" s="18"/>
+        <v>40</v>
+      </c>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>98</v>
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>114</v>
       </c>
       <c r="C19" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="E19">
-        <v>200</v>
-      </c>
-      <c r="F19" t="s">
-        <v>100</v>
+        <v>201</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" t="s">
+        <v>87</v>
+      </c>
+      <c r="M19" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>101</v>
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="E20">
         <v>200</v>
       </c>
-      <c r="F20" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>190</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="E21" t="s">
-        <v>170</v>
+        <v>45</v>
+      </c>
+      <c r="E21">
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>196</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="E22" t="s">
-        <v>171</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="E22">
+        <v>200</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B23" t="s">
-        <v>192</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="E23" t="s">
-        <v>172</v>
+        <v>99</v>
+      </c>
+      <c r="E23">
+        <v>200</v>
+      </c>
+      <c r="F23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24">
+        <v>200</v>
+      </c>
+      <c r="F24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="E25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="E26" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="A27" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29">
-        <v>201</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31">
-        <v>200</v>
-      </c>
+      <c r="D27" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E27" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+      <c r="A31" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="E32">
-        <v>200</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="J32" s="18"/>
+        <v>49</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>104</v>
+        <v>48</v>
+      </c>
+      <c r="B33" t="s">
+        <v>120</v>
       </c>
       <c r="C33" t="s">
         <v>37</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="E33">
+        <v>201</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34">
         <v>200</v>
       </c>
-      <c r="F33" t="s">
-        <v>106</v>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35">
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
+      <c r="A36" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E36">
+        <v>200</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="J36" s="18"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" t="s">
-        <v>125</v>
-      </c>
-      <c r="C38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38">
-        <v>201</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" t="s">
-        <v>126</v>
-      </c>
-      <c r="C39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39">
+        <v>105</v>
+      </c>
+      <c r="E37">
         <v>200</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" t="s">
-        <v>127</v>
-      </c>
-      <c r="C40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E40">
-        <v>200</v>
-      </c>
+      <c r="F37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+      <c r="A40" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42">
+        <v>201</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43">
+        <v>200</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="s">
         <v>128</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C45" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="E41">
+      <c r="D45" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="E45">
         <v>200</v>
       </c>
-      <c r="G41" s="18" t="s">
+      <c r="G45" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="K41" s="18" t="s">
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="K45" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="L41" s="18"/>
+      <c r="L45" s="18"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B46" t="s">
+        <v>260</v>
+      </c>
+      <c r="C46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="E46" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="31"/>
+      <c r="A47" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B47" t="s">
+        <v>261</v>
+      </c>
+      <c r="C47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="E47" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>69</v>
+        <v>259</v>
       </c>
       <c r="B48" t="s">
-        <v>129</v>
+        <v>262</v>
       </c>
       <c r="C48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="E48" s="6"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B49" t="s">
-        <v>130</v>
-      </c>
-      <c r="C49" t="s">
-        <v>37</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="E49">
-        <v>201</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="N49" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B50" t="s">
-        <v>131</v>
-      </c>
-      <c r="C50" t="s">
-        <v>38</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="E50">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" t="s">
-        <v>132</v>
-      </c>
-      <c r="C51" t="s">
-        <v>44</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="E51">
-        <v>200</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="E48" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+      <c r="A51" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B52" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C52" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="E52">
-        <v>200</v>
-      </c>
-      <c r="G52" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="J52" s="18"/>
+        <v>211</v>
+      </c>
+      <c r="E52" s="6"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="B53" t="s">
-        <v>215</v>
-      </c>
-      <c r="C53" t="s">
-        <v>38</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="E53" t="s">
-        <v>170</v>
+      <c r="E53">
+        <v>201</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="N53" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>213</v>
+        <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>216</v>
+        <v>131</v>
       </c>
       <c r="C54" t="s">
         <v>38</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="E54" t="s">
-        <v>171</v>
+        <v>213</v>
+      </c>
+      <c r="E54">
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="B55" t="s">
+      <c r="E55">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="E56">
+        <v>200</v>
+      </c>
+      <c r="G56" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="J56" s="18"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B57" t="s">
+        <v>208</v>
+      </c>
+      <c r="C57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="E57" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B58" t="s">
+        <v>209</v>
+      </c>
+      <c r="C58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="C55" t="s">
+      <c r="E58" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B59" t="s">
+        <v>210</v>
+      </c>
+      <c r="C59" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="E55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60" s="31"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31"/>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31"/>
-      <c r="N60" s="31"/>
-      <c r="O60" s="31"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B61" t="s">
-        <v>134</v>
-      </c>
-      <c r="C61" t="s">
-        <v>38</v>
-      </c>
-      <c r="D61" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E61" s="6"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B62" t="s">
-        <v>135</v>
-      </c>
-      <c r="C62" t="s">
-        <v>37</v>
-      </c>
-      <c r="D62" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="E62">
-        <v>201</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B63" t="s">
-        <v>136</v>
-      </c>
-      <c r="C63" t="s">
-        <v>38</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="E63">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B64" t="s">
-        <v>137</v>
-      </c>
-      <c r="C64" t="s">
-        <v>44</v>
-      </c>
-      <c r="D64" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="E64">
-        <v>200</v>
-      </c>
+      <c r="D59" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+      <c r="A64" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="31"/>
+      <c r="N64" s="31"/>
+      <c r="O64" s="31"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E65" s="6"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E66">
+        <v>201</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E67">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E68">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" t="s">
         <v>138</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C69" t="s">
         <v>46</v>
       </c>
-      <c r="D65" s="19" t="s">
+      <c r="D69" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E69">
+        <v>200</v>
+      </c>
+      <c r="G69" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="J69" s="18"/>
+    </row>
+    <row r="76" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+      <c r="A76" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
+      <c r="J76" s="31"/>
+      <c r="K76" s="31"/>
+      <c r="L76" s="31"/>
+      <c r="M76" s="31"/>
+      <c r="N76" s="31"/>
+      <c r="O76" s="31"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B77" t="s">
+        <v>154</v>
+      </c>
+      <c r="C77" t="s">
+        <v>37</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="E77">
+        <v>200</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" t="s">
+        <v>37</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="E78">
+        <v>201</v>
+      </c>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E65">
+      <c r="B79" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" t="s">
+        <v>38</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="E79">
         <v>200</v>
       </c>
-      <c r="G65" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18" t="s">
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B80" t="s">
+        <v>163</v>
+      </c>
+      <c r="C80" t="s">
+        <v>46</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="E80">
+        <v>200</v>
+      </c>
+      <c r="G80" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="J65" s="18"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A72" s="31"/>
-      <c r="B72" s="31"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="31"/>
-      <c r="I72" s="31"/>
-      <c r="J72" s="31"/>
-      <c r="K72" s="31"/>
-      <c r="L72" s="31"/>
-      <c r="M72" s="31"/>
-      <c r="N72" s="31"/>
-      <c r="O72" s="31"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B73" t="s">
-        <v>155</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="J80" s="18"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B81" t="s">
+        <v>242</v>
+      </c>
+      <c r="C81" t="s">
+        <v>38</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="E81" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B82" t="s">
+        <v>243</v>
+      </c>
+      <c r="C82" t="s">
+        <v>38</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="E82" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B83" t="s">
+        <v>244</v>
+      </c>
+      <c r="C83" t="s">
         <v>37</v>
       </c>
-      <c r="D73" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="E73">
-        <v>200</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B74" t="s">
-        <v>158</v>
-      </c>
-      <c r="C74" t="s">
-        <v>37</v>
-      </c>
-      <c r="D74" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="E74">
-        <v>201</v>
-      </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="D83" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="E83" t="s">
         <v>168</v>
       </c>
-      <c r="C75" t="s">
-        <v>38</v>
-      </c>
-      <c r="D75" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="E75">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B76" t="s">
-        <v>167</v>
-      </c>
-      <c r="C76" t="s">
-        <v>46</v>
-      </c>
-      <c r="D76" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="E76">
-        <v>200</v>
-      </c>
-      <c r="G76" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="J76" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" xr:uid="{BBB211D6-EC2E-483F-AD68-2B5908BDB559}"/>
-    <hyperlink ref="A8" r:id="rId2" xr:uid="{2AD720C6-79D9-490E-B59A-3EF5834599AE}"/>
-    <hyperlink ref="A9" r:id="rId3" xr:uid="{9EFA1F3B-012E-4B52-8B70-B67ABED809A5}"/>
-    <hyperlink ref="A14" r:id="rId4" xr:uid="{A4ACD191-23EA-48D9-852B-4F64AE268575}"/>
-    <hyperlink ref="A15" r:id="rId5" xr:uid="{7E675BB6-98E5-4A98-8C78-CD05BA10E017}"/>
-    <hyperlink ref="A16" r:id="rId6" xr:uid="{8CCD976F-622E-423E-8AA6-6304AC809C49}"/>
-    <hyperlink ref="A17" r:id="rId7" xr:uid="{06493852-F02F-4F8E-8163-F806E3685934}"/>
-    <hyperlink ref="A28" r:id="rId8" xr:uid="{8CC52737-961D-4062-AD04-0143DE3885CE}"/>
-    <hyperlink ref="A29" r:id="rId9" xr:uid="{9EDEF581-31CF-422C-AFD4-4350AD9549CB}"/>
-    <hyperlink ref="A30" r:id="rId10" xr:uid="{1AC0E46F-77F3-48ED-BF69-D4E597582298}"/>
-    <hyperlink ref="A31" r:id="rId11" xr:uid="{C7125051-D49B-48F8-9B20-CA2317A0D088}"/>
-    <hyperlink ref="A32" r:id="rId12" xr:uid="{7874FEB1-CB17-4CF0-91DC-3AFFBF58DDC6}"/>
-    <hyperlink ref="A37" r:id="rId13" xr:uid="{F60B5E4D-A587-4733-9296-813AD1EB6A3D}"/>
-    <hyperlink ref="A38" r:id="rId14" xr:uid="{89C8187B-E254-44A9-AA96-EDDE007BA2C8}"/>
-    <hyperlink ref="A39" r:id="rId15" xr:uid="{7D7C3C35-3435-4BAC-A4BD-B53EB924A022}"/>
-    <hyperlink ref="A40" r:id="rId16" xr:uid="{98B6A075-78C7-4196-9101-1AE0970B8FD7}"/>
-    <hyperlink ref="A41" r:id="rId17" xr:uid="{ED08F172-21EE-4BEC-B90E-DC109EEECF6D}"/>
-    <hyperlink ref="A48" r:id="rId18" xr:uid="{00C242AD-1DD2-453E-9545-4B875BCD4296}"/>
-    <hyperlink ref="A49" r:id="rId19" xr:uid="{8EFDB8EB-DECF-454C-A6B2-521937F8DA39}"/>
-    <hyperlink ref="A50" r:id="rId20" xr:uid="{68C6EF4B-EAF5-4F8D-835E-85B4CC1127E1}"/>
-    <hyperlink ref="A51" r:id="rId21" xr:uid="{A441BE67-5C82-4C5C-B76F-DC608DEABFCF}"/>
-    <hyperlink ref="A52" r:id="rId22" xr:uid="{D6EED714-BC54-417C-8D12-98D914984736}"/>
-    <hyperlink ref="A61" r:id="rId23" xr:uid="{D9FA0B99-F896-43F5-A7F0-14D9DA4C5553}"/>
-    <hyperlink ref="A62" r:id="rId24" xr:uid="{C2A94B60-2DFD-40DD-A17E-569D78B75D1D}"/>
-    <hyperlink ref="A63" r:id="rId25" xr:uid="{58CCA162-0B67-45FB-9053-C29E048B80D3}"/>
-    <hyperlink ref="A64" r:id="rId26" xr:uid="{F92919F5-AAA3-4266-BECC-B1F16FF4A12A}"/>
-    <hyperlink ref="A65" r:id="rId27" xr:uid="{4DC98056-2432-4398-AD46-F1368A159E75}"/>
-    <hyperlink ref="A19" r:id="rId28" xr:uid="{C2364B8F-AD7A-49B4-BA3A-A47FADB17E70}"/>
-    <hyperlink ref="A20" r:id="rId29" xr:uid="{5032A9FB-C0D5-42E6-9EB0-1CD821762859}"/>
-    <hyperlink ref="A33" r:id="rId30" xr:uid="{68733F0C-CEF2-4587-919A-C679365E9BC5}"/>
+    <hyperlink ref="A11" r:id="rId1" xr:uid="{BBB211D6-EC2E-483F-AD68-2B5908BDB559}"/>
+    <hyperlink ref="A12" r:id="rId2" xr:uid="{2AD720C6-79D9-490E-B59A-3EF5834599AE}"/>
+    <hyperlink ref="A13" r:id="rId3" xr:uid="{9EFA1F3B-012E-4B52-8B70-B67ABED809A5}"/>
+    <hyperlink ref="A18" r:id="rId4" xr:uid="{A4ACD191-23EA-48D9-852B-4F64AE268575}"/>
+    <hyperlink ref="A19" r:id="rId5" xr:uid="{7E675BB6-98E5-4A98-8C78-CD05BA10E017}"/>
+    <hyperlink ref="A20" r:id="rId6" xr:uid="{8CCD976F-622E-423E-8AA6-6304AC809C49}"/>
+    <hyperlink ref="A21" r:id="rId7" xr:uid="{06493852-F02F-4F8E-8163-F806E3685934}"/>
+    <hyperlink ref="A32" r:id="rId8" xr:uid="{8CC52737-961D-4062-AD04-0143DE3885CE}"/>
+    <hyperlink ref="A33" r:id="rId9" xr:uid="{9EDEF581-31CF-422C-AFD4-4350AD9549CB}"/>
+    <hyperlink ref="A34" r:id="rId10" xr:uid="{1AC0E46F-77F3-48ED-BF69-D4E597582298}"/>
+    <hyperlink ref="A35" r:id="rId11" xr:uid="{C7125051-D49B-48F8-9B20-CA2317A0D088}"/>
+    <hyperlink ref="A36" r:id="rId12" xr:uid="{7874FEB1-CB17-4CF0-91DC-3AFFBF58DDC6}"/>
+    <hyperlink ref="A41" r:id="rId13" xr:uid="{F60B5E4D-A587-4733-9296-813AD1EB6A3D}"/>
+    <hyperlink ref="A42" r:id="rId14" xr:uid="{89C8187B-E254-44A9-AA96-EDDE007BA2C8}"/>
+    <hyperlink ref="A43" r:id="rId15" xr:uid="{7D7C3C35-3435-4BAC-A4BD-B53EB924A022}"/>
+    <hyperlink ref="A44" r:id="rId16" xr:uid="{98B6A075-78C7-4196-9101-1AE0970B8FD7}"/>
+    <hyperlink ref="A45" r:id="rId17" xr:uid="{ED08F172-21EE-4BEC-B90E-DC109EEECF6D}"/>
+    <hyperlink ref="A52" r:id="rId18" xr:uid="{00C242AD-1DD2-453E-9545-4B875BCD4296}"/>
+    <hyperlink ref="A53" r:id="rId19" xr:uid="{8EFDB8EB-DECF-454C-A6B2-521937F8DA39}"/>
+    <hyperlink ref="A54" r:id="rId20" xr:uid="{68C6EF4B-EAF5-4F8D-835E-85B4CC1127E1}"/>
+    <hyperlink ref="A55" r:id="rId21" xr:uid="{A441BE67-5C82-4C5C-B76F-DC608DEABFCF}"/>
+    <hyperlink ref="A56" r:id="rId22" xr:uid="{D6EED714-BC54-417C-8D12-98D914984736}"/>
+    <hyperlink ref="A65" r:id="rId23" xr:uid="{D9FA0B99-F896-43F5-A7F0-14D9DA4C5553}"/>
+    <hyperlink ref="A66" r:id="rId24" xr:uid="{C2A94B60-2DFD-40DD-A17E-569D78B75D1D}"/>
+    <hyperlink ref="A67" r:id="rId25" xr:uid="{58CCA162-0B67-45FB-9053-C29E048B80D3}"/>
+    <hyperlink ref="A68" r:id="rId26" xr:uid="{F92919F5-AAA3-4266-BECC-B1F16FF4A12A}"/>
+    <hyperlink ref="A69" r:id="rId27" xr:uid="{4DC98056-2432-4398-AD46-F1368A159E75}"/>
+    <hyperlink ref="A23" r:id="rId28" xr:uid="{C2364B8F-AD7A-49B4-BA3A-A47FADB17E70}"/>
+    <hyperlink ref="A24" r:id="rId29" xr:uid="{5032A9FB-C0D5-42E6-9EB0-1CD821762859}"/>
+    <hyperlink ref="A37" r:id="rId30" xr:uid="{68733F0C-CEF2-4587-919A-C679365E9BC5}"/>
     <hyperlink ref="A2" r:id="rId31" xr:uid="{7889F8F9-73A2-4310-A5FC-933B815630A6}"/>
     <hyperlink ref="A3" r:id="rId32" xr:uid="{F16F1F7A-D0AB-4316-A173-A2FEE613D339}"/>
-    <hyperlink ref="A73" r:id="rId33" xr:uid="{D0B8A248-CCD5-4996-B5CD-C82C9F29C937}"/>
-    <hyperlink ref="A74" r:id="rId34" xr:uid="{C3F88F77-C25C-4F80-93C6-7657F8A09F1E}"/>
-    <hyperlink ref="A75" r:id="rId35" xr:uid="{50904CB5-D01D-4850-9547-983C9A60550E}"/>
-    <hyperlink ref="A76" r:id="rId36" xr:uid="{322195B7-EFAE-45CC-A913-BA1FB98ABC10}"/>
-    <hyperlink ref="A53" r:id="rId37" xr:uid="{2ADA5B37-D54D-40E5-BC01-727BCE3EDA26}"/>
-    <hyperlink ref="A54" r:id="rId38" xr:uid="{FFB465FF-CCED-4B74-BB20-86346742F4A6}"/>
-    <hyperlink ref="A55" r:id="rId39" xr:uid="{7D4A2596-DA34-451E-8C74-5B2C6BA1BE21}"/>
-    <hyperlink ref="A21" r:id="rId40" xr:uid="{9E34EEEA-8247-4DEA-97CD-7E41FE2F0BF0}"/>
-    <hyperlink ref="A22" r:id="rId41" xr:uid="{71B4EE5D-952E-4F9D-B32E-48304A0BED29}"/>
-    <hyperlink ref="A23" r:id="rId42" xr:uid="{A4FCB4D6-FF48-4991-B2D8-BB5819DE523F}"/>
+    <hyperlink ref="A77" r:id="rId33" xr:uid="{D0B8A248-CCD5-4996-B5CD-C82C9F29C937}"/>
+    <hyperlink ref="A78" r:id="rId34" xr:uid="{C3F88F77-C25C-4F80-93C6-7657F8A09F1E}"/>
+    <hyperlink ref="A79" r:id="rId35" xr:uid="{50904CB5-D01D-4850-9547-983C9A60550E}"/>
+    <hyperlink ref="A80" r:id="rId36" xr:uid="{322195B7-EFAE-45CC-A913-BA1FB98ABC10}"/>
+    <hyperlink ref="A57" r:id="rId37" xr:uid="{2ADA5B37-D54D-40E5-BC01-727BCE3EDA26}"/>
+    <hyperlink ref="A58" r:id="rId38" xr:uid="{FFB465FF-CCED-4B74-BB20-86346742F4A6}"/>
+    <hyperlink ref="A59" r:id="rId39" xr:uid="{7D4A2596-DA34-451E-8C74-5B2C6BA1BE21}"/>
+    <hyperlink ref="A25" r:id="rId40" xr:uid="{9E34EEEA-8247-4DEA-97CD-7E41FE2F0BF0}"/>
+    <hyperlink ref="A26" r:id="rId41" xr:uid="{71B4EE5D-952E-4F9D-B32E-48304A0BED29}"/>
+    <hyperlink ref="A27" r:id="rId42" xr:uid="{A4FCB4D6-FF48-4991-B2D8-BB5819DE523F}"/>
+    <hyperlink ref="A4" r:id="rId43" xr:uid="{D6EA74F4-4B6D-42B3-A6AF-CD351AA199AD}"/>
+    <hyperlink ref="A5" r:id="rId44" xr:uid="{1610B014-F419-4D2D-BA06-B9757B1254F5}"/>
+    <hyperlink ref="A6" r:id="rId45" xr:uid="{B5053CCF-C557-4933-A917-45D25194655C}"/>
+    <hyperlink ref="A81" r:id="rId46" xr:uid="{9472DA7C-2D3C-42E7-A845-9C4DA7774A3F}"/>
+    <hyperlink ref="A82" r:id="rId47" xr:uid="{9B403F85-DEAA-4CA3-9958-76FD56A6C2EB}"/>
+    <hyperlink ref="A83" r:id="rId48" xr:uid="{5096C31E-8E5E-4BC1-8661-D02A96488D7B}"/>
+    <hyperlink ref="A46" r:id="rId49" xr:uid="{530FA762-5C05-423E-BD2E-4A9D11CBD1A8}"/>
+    <hyperlink ref="A47" r:id="rId50" xr:uid="{B0EF2B1B-5DB4-418A-B9E3-6F647CC87254}"/>
+    <hyperlink ref="A48" r:id="rId51" xr:uid="{17A7AEEC-83D6-41CA-939D-9F480486F7A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId43"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId52"/>
 </worksheet>
 </file>
 
@@ -3153,40 +3456,40 @@
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="P4" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="T5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3198,46 +3501,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3302958B-D339-4AFA-82B0-C4FD1E9858AA}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C1" t="s">
-        <v>174</v>
+        <v>170</v>
+      </c>
+      <c r="D1" t="s">
+        <v>269</v>
       </c>
       <c r="F1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>177</v>
+        <v>171</v>
+      </c>
+      <c r="D2" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -3259,7 +3553,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3287,73 +3581,77 @@
         <v>36</v>
       </c>
       <c r="I20" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="4" t="s">
+        <v>229</v>
+      </c>
       <c r="K21" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I22" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K23" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I24" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I25" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="K25" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I26" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I27" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="K27" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I28" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="K28" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I29" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="K29" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://github.com/laravel-frontend-presets/tall" xr:uid="{82F39080-21BF-4EAF-97F8-DCA9BC0F7D3D}"/>
     <hyperlink ref="B20" r:id="rId2" display="https://bitbucket.org/hugoresende27/rel_ponto/src/master/" xr:uid="{0AD8141D-EE77-4C68-8B56-353C72017627}"/>
+    <hyperlink ref="B21" r:id="rId3" location="successful_responses" display="https://developer.mozilla.org/en-US/docs/Web/HTTP/Status - successful_responses" xr:uid="{A7FED2DA-8636-4303-A754-FB9C759F03CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -3367,18 +3665,18 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="I2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12ED34CC-80F4-46ED-9F05-50F909E757C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4772FF-74DB-4CD8-9C3C-239EA9158EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="4" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
+    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
   <sheets>
     <sheet name="bd" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="274">
   <si>
     <t>email</t>
   </si>
@@ -736,12 +736,6 @@
     <t>ao exportar os users, exportar também a password? Para isso a password deixa de ser um campo $hidden no modelo User</t>
   </si>
   <si>
-    <t>se não exportar a password para importar os users o campo password terá de ser nullable() ficando users na tabela users sem password, os importados</t>
-  </si>
-  <si>
-    <t>exportar para ficheiros xlsx com cabeçalhos ??</t>
-  </si>
-  <si>
     <t>ao exportar e importar as foreigns keys, se as chaves do ficheiro não existirem na bd dá erro de constrain foreign key, seria melhor não exportar as foreign keys?</t>
   </si>
   <si>
@@ -869,6 +863,24 @@
   </si>
   <si>
     <t>??</t>
+  </si>
+  <si>
+    <t>Files</t>
+  </si>
+  <si>
+    <t>se não exportar a password para importar os users o campo password terá de ser nullable() ficando users na tabela users sem password, será necessário o import/export da tabela users?</t>
+  </si>
+  <si>
+    <t>exportar para ficheiros xlsx com cabeçalhos ou sem cabeçalhos ??</t>
+  </si>
+  <si>
+    <t>Tabela anexos que pode ser associada a um employee, company, department vai conter que campos?</t>
+  </si>
+  <si>
+    <t>API Documentation &amp; Design Tools for Teams | Swagger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O manual da API pode ser um ficheiro excel ou será algo mais do tipo </t>
   </si>
 </sst>
 </file>
@@ -921,7 +933,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -967,6 +979,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1101,7 +1119,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1135,6 +1153,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -1785,7 +1805,7 @@
   <dimension ref="D2:Q20"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2012,6 +2032,9 @@
       <c r="K13" s="7" t="s">
         <v>93</v>
       </c>
+      <c r="L13" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="14" spans="4:17" x14ac:dyDescent="0.3">
       <c r="E14" s="13" t="s">
@@ -2117,7 +2140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2213FDCB-CC6B-4563-9ABC-C0A7BD343549}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
@@ -2131,7 +2154,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="32" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -2201,16 +2224,16 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E4" t="s">
         <v>166</v>
@@ -2227,16 +2250,16 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E5" t="s">
         <v>167</v>
@@ -2244,16 +2267,16 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E6" t="s">
         <v>168</v>
@@ -2267,7 +2290,7 @@
     </row>
     <row r="10" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A10" s="32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
@@ -2380,7 +2403,7 @@
     </row>
     <row r="17" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A17" s="32" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
@@ -2587,7 +2610,7 @@
     </row>
     <row r="31" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A31" s="32" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
@@ -2732,7 +2755,7 @@
     </row>
     <row r="40" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A40" s="32" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B40" s="31"/>
       <c r="C40" s="31"/>
@@ -2863,16 +2886,16 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B46" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C46" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E46" t="s">
         <v>166</v>
@@ -2880,16 +2903,16 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B47" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C47" t="s">
         <v>38</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E47" t="s">
         <v>167</v>
@@ -2897,16 +2920,16 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B48" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C48" t="s">
         <v>37</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E48" t="s">
         <v>168</v>
@@ -2914,7 +2937,7 @@
     </row>
     <row r="51" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A51" s="32" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B51" s="31"/>
       <c r="C51" s="31"/>
@@ -3086,7 +3109,7 @@
     </row>
     <row r="64" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A64" s="32" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B64" s="31"/>
       <c r="C64" s="31"/>
@@ -3205,7 +3228,7 @@
     </row>
     <row r="76" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A76" s="32" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B76" s="31"/>
       <c r="C76" s="31"/>
@@ -3233,7 +3256,7 @@
         <v>37</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E77">
         <v>200</v>
@@ -3260,7 +3283,7 @@
         <v>37</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E78">
         <v>201</v>
@@ -3285,7 +3308,7 @@
         <v>38</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E79">
         <v>200</v>
@@ -3302,7 +3325,7 @@
         <v>46</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E80">
         <v>200</v>
@@ -3318,16 +3341,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B81" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C81" t="s">
         <v>38</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E81" t="s">
         <v>166</v>
@@ -3335,16 +3358,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B82" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C82" t="s">
         <v>38</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E82" t="s">
         <v>167</v>
@@ -3352,16 +3375,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B83" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C83" t="s">
         <v>37</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E83" t="s">
         <v>168</v>
@@ -3430,7 +3453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5F5619-C91F-44CF-AE98-3AB9D7129EE3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
@@ -3443,10 +3466,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122B7B63-70E1-4776-B60F-F0C2CAFC3214}">
-  <dimension ref="A2:T8"/>
+  <dimension ref="A2:T14"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3455,44 +3478,169 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="33" t="s">
         <v>177</v>
       </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A3" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="P4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="T5" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="33" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>225</v>
-      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>226</v>
+      <c r="A8" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H14" r:id="rId1" display="https://swagger.io/" xr:uid="{01869BBA-3299-4387-8F5D-31CEE8D144A5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3501,7 +3649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3302958B-D339-4AFA-82B0-C4FD1E9858AA}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -3515,7 +3663,7 @@
         <v>170</v>
       </c>
       <c r="D1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F1" t="s">
         <v>176</v>
@@ -3526,7 +3674,7 @@
         <v>171</v>
       </c>
       <c r="D2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -3586,7 +3734,7 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K21" t="s">
         <v>192</v>

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4772FF-74DB-4CD8-9C3C-239EA9158EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32E330C-7702-4D1B-826D-6441A470ED56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
   <sheets>
     <sheet name="bd" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="275">
   <si>
     <t>email</t>
   </si>
@@ -881,6 +881,9 @@
   </si>
   <si>
     <t xml:space="preserve">O manual da API pode ser um ficheiro excel ou será algo mais do tipo </t>
+  </si>
+  <si>
+    <t>usar faker image url para testes</t>
   </si>
 </sst>
 </file>
@@ -2140,7 +2143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2213FDCB-CC6B-4563-9ABC-C0A7BD343549}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
@@ -3649,8 +3652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3302958B-D339-4AFA-82B0-C4FD1E9858AA}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3683,6 +3686,9 @@
       </c>
       <c r="C10" t="s">
         <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32E330C-7702-4D1B-826D-6441A470ED56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A3CA87-B4B7-4363-8B4D-54F293306A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
   <sheets>
     <sheet name="bd" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="278">
   <si>
     <t>email</t>
   </si>
@@ -884,6 +884,15 @@
   </si>
   <si>
     <t>usar faker image url para testes</t>
+  </si>
+  <si>
+    <t>encryption search</t>
+  </si>
+  <si>
+    <t>Theta Labs / laravel-database-encryption · GitLab</t>
+  </si>
+  <si>
+    <t>Para fazer o search, os campos estão encriptados. Usar blind index para depois fazer search no campos blind_index?</t>
   </si>
 </sst>
 </file>
@@ -3469,10 +3478,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122B7B63-70E1-4776-B60F-F0C2CAFC3214}">
-  <dimension ref="A2:T14"/>
+  <dimension ref="A2:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3640,6 +3649,21 @@
         <v>267</v>
       </c>
     </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H14" r:id="rId1" display="https://swagger.io/" xr:uid="{01869BBA-3299-4387-8F5D-31CEE8D144A5}"/>
@@ -3652,7 +3676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3302958B-D339-4AFA-82B0-C4FD1E9858AA}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -3704,20 +3728,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E69AFFA-B78B-436C-8588-18B78CAE897D}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -3725,9 +3749,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L5" s="4" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
@@ -3803,9 +3835,10 @@
     <hyperlink ref="A1" r:id="rId1" display="https://github.com/laravel-frontend-presets/tall" xr:uid="{82F39080-21BF-4EAF-97F8-DCA9BC0F7D3D}"/>
     <hyperlink ref="B20" r:id="rId2" display="https://bitbucket.org/hugoresende27/rel_ponto/src/master/" xr:uid="{0AD8141D-EE77-4C68-8B56-353C72017627}"/>
     <hyperlink ref="B21" r:id="rId3" location="successful_responses" display="https://developer.mozilla.org/en-US/docs/Web/HTTP/Status - successful_responses" xr:uid="{A7FED2DA-8636-4303-A754-FB9C759F03CF}"/>
+    <hyperlink ref="L5" r:id="rId4" display="https://gitlab.com/ThetaLabs/laravel-database-encryption" xr:uid="{A28F744F-4303-41F9-BBEC-0A6CBF62A84E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A3CA87-B4B7-4363-8B4D-54F293306A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07296F2-6156-4648-B44C-DB6C24C25713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
   <sheets>
     <sheet name="bd" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="280">
   <si>
     <t>email</t>
   </si>
@@ -893,6 +893,12 @@
   </si>
   <si>
     <t>Para fazer o search, os campos estão encriptados. Usar blind index para depois fazer search no campos blind_index?</t>
+  </si>
+  <si>
+    <t>remover import/export users</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -3676,8 +3682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3302958B-D339-4AFA-82B0-C4FD1E9858AA}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3702,6 +3708,16 @@
       </c>
       <c r="D2" t="s">
         <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -3730,7 +3746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E69AFFA-B78B-436C-8588-18B78CAE897D}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07296F2-6156-4648-B44C-DB6C24C25713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51637411-6B43-4E09-9CFA-5B86367C1E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
+    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
   <sheets>
     <sheet name="bd" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="282">
   <si>
     <t>email</t>
   </si>
@@ -502,9 +502,6 @@
     <t>*encrypt</t>
   </si>
   <si>
-    <t>required fields : name*, email*, nif*, niss*, bi_cc*, emer_contact*, company_id,</t>
-  </si>
-  <si>
     <t>non required fields : role*, schedule_id,  department_id, start_date, image_path, iban*, details*</t>
   </si>
   <si>
@@ -577,9 +574,6 @@
     <t>tenants</t>
   </si>
   <si>
-    <t>pesquisa por :</t>
-  </si>
-  <si>
     <t xml:space="preserve">IMPORT EXPORT EXCEL </t>
   </si>
   <si>
@@ -748,30 +742,12 @@
     <t>http://127.0.0.1:8000/api/adminusersexportexcel</t>
   </si>
   <si>
-    <t>http://127.0.0.1:8000/api/adminusersexportcsv</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8000/api/adminusersimport</t>
-  </si>
-  <si>
     <t>export users to xlsx</t>
   </si>
   <si>
-    <t>export users to csv</t>
-  </si>
-  <si>
-    <t>import users to table users</t>
-  </si>
-  <si>
     <t>AdminController - export_xlsx</t>
   </si>
   <si>
-    <t>AdminController - import</t>
-  </si>
-  <si>
-    <t>AdminController -  export_csv</t>
-  </si>
-  <si>
     <t>http://127.0.0.1:8000/api/clockpointentrysexportexcel</t>
   </si>
   <si>
@@ -895,10 +871,40 @@
     <t>Para fazer o search, os campos estão encriptados. Usar blind index para depois fazer search no campos blind_index?</t>
   </si>
   <si>
-    <t>remover import/export users</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>required fields : name*, email*, nif*, niss*, bicc*, emercontact*, company_id,</t>
+  </si>
+  <si>
+    <t>SEARCH ROUTES</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/search?s={term to search}</t>
+  </si>
+  <si>
+    <t>SearchController - search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">search in tables </t>
+  </si>
+  <si>
+    <t>Employees, Companies and Locations</t>
+  </si>
+  <si>
+    <t>employees:name, email, details, nif, niss, bicc, emercontact,</t>
+  </si>
+  <si>
+    <t>company: name, email, nif</t>
+  </si>
+  <si>
+    <t>locations: country, city, street, door_number, zip_code</t>
+  </si>
+  <si>
+    <t>searchable fields:</t>
+  </si>
+  <si>
+    <t>pesquise sensitive case</t>
   </si>
 </sst>
 </file>
@@ -1457,6 +1463,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>106576</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>74586</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagem 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDBF39B8-EAC5-44DD-816B-8D5A53A62C1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12801600"/>
+          <a:ext cx="12908176" cy="2086266"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2051,7 +2101,7 @@
         <v>93</v>
       </c>
       <c r="L13" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="4:17" x14ac:dyDescent="0.3">
@@ -2133,7 +2183,7 @@
         <v>55</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="5:11" x14ac:dyDescent="0.3">
@@ -2156,10 +2206,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2213FDCB-CC6B-4563-9ABC-C0A7BD343549}">
-  <dimension ref="A1:P83"/>
+  <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView topLeftCell="B80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2172,7 +2222,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="32" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -2206,7 +2256,7 @@
         <v>201</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -2230,7 +2280,7 @@
         <v>110</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -2242,22 +2292,22 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -2266,40 +2316,6 @@
       </c>
       <c r="K4" s="18"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="E5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="E6" t="s">
-        <v>168</v>
-      </c>
-    </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
     </row>
@@ -2308,7 +2324,7 @@
     </row>
     <row r="10" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A10" s="32" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
@@ -2342,7 +2358,7 @@
         <v>201</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -2373,7 +2389,7 @@
         <v>200</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -2401,7 +2417,7 @@
         <v>34</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -2421,7 +2437,7 @@
     </row>
     <row r="17" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A17" s="32" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
@@ -2470,7 +2486,7 @@
         <v>201</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -2479,7 +2495,7 @@
         <v>87</v>
       </c>
       <c r="M19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -2527,7 +2543,7 @@
         <v>46</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E22">
         <v>200</v>
@@ -2577,58 +2593,58 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C25" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C26" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A31" s="32" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
@@ -2660,7 +2676,7 @@
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -2740,7 +2756,7 @@
         <v>46</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E36">
         <v>200</v>
@@ -2773,7 +2789,7 @@
     </row>
     <row r="40" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A40" s="32" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B40" s="31"/>
       <c r="C40" s="31"/>
@@ -2822,7 +2838,7 @@
         <v>201</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>147</v>
+        <v>271</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -2849,7 +2865,7 @@
         <v>200</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -2887,7 +2903,7 @@
         <v>46</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E45">
         <v>200</v>
@@ -2904,58 +2920,58 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B46" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C46" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B47" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C47" t="s">
         <v>38</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B48" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C48" t="s">
         <v>37</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A51" s="32" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B51" s="31"/>
       <c r="C51" s="31"/>
@@ -2983,7 +2999,7 @@
         <v>38</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E52" s="6"/>
     </row>
@@ -2998,13 +3014,13 @@
         <v>37</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E53">
         <v>201</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -3012,7 +3028,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="N53" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
@@ -3026,7 +3042,7 @@
         <v>38</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E54">
         <v>200</v>
@@ -3043,7 +3059,7 @@
         <v>44</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E55">
         <v>200</v>
@@ -3060,7 +3076,7 @@
         <v>46</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E56">
         <v>200</v>
@@ -3076,58 +3092,58 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B57" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C57" t="s">
         <v>38</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E57" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B58" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C58" t="s">
         <v>38</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B59" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C59" t="s">
         <v>37</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A64" s="32" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B64" s="31"/>
       <c r="C64" s="31"/>
@@ -3230,7 +3246,7 @@
         <v>46</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E69">
         <v>200</v>
@@ -3246,7 +3262,7 @@
     </row>
     <row r="76" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A76" s="32" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B76" s="31"/>
       <c r="C76" s="31"/>
@@ -3265,22 +3281,22 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" t="s">
         <v>153</v>
-      </c>
-      <c r="B77" t="s">
-        <v>154</v>
       </c>
       <c r="C77" t="s">
         <v>37</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E77">
         <v>200</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -3292,16 +3308,16 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B78" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C78" t="s">
         <v>37</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E78">
         <v>201</v>
@@ -3317,16 +3333,16 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B79" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C79" t="s">
         <v>38</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E79">
         <v>200</v>
@@ -3334,22 +3350,22 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B80" t="s">
         <v>162</v>
-      </c>
-      <c r="B80" t="s">
-        <v>163</v>
       </c>
       <c r="C80" t="s">
         <v>46</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E80">
         <v>200</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H80" s="18"/>
       <c r="I80" s="18" t="s">
@@ -3357,56 +3373,123 @@
       </c>
       <c r="J80" s="18"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B81" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C81" t="s">
         <v>38</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E81" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B82" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C82" t="s">
         <v>38</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E82" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B83" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C83" t="s">
         <v>37</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E83" t="s">
-        <v>168</v>
-      </c>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="A87" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="B87" s="31"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="31"/>
+      <c r="K87" s="31"/>
+      <c r="L87" s="31"/>
+      <c r="M87" s="31"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B88" t="s">
+        <v>275</v>
+      </c>
+      <c r="C88" t="s">
+        <v>38</v>
+      </c>
+      <c r="D88" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="E88">
+        <v>200</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>276</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F90" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F91" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3453,17 +3536,16 @@
     <hyperlink ref="A26" r:id="rId41" xr:uid="{71B4EE5D-952E-4F9D-B32E-48304A0BED29}"/>
     <hyperlink ref="A27" r:id="rId42" xr:uid="{A4FCB4D6-FF48-4991-B2D8-BB5819DE523F}"/>
     <hyperlink ref="A4" r:id="rId43" xr:uid="{D6EA74F4-4B6D-42B3-A6AF-CD351AA199AD}"/>
-    <hyperlink ref="A5" r:id="rId44" xr:uid="{1610B014-F419-4D2D-BA06-B9757B1254F5}"/>
-    <hyperlink ref="A6" r:id="rId45" xr:uid="{B5053CCF-C557-4933-A917-45D25194655C}"/>
-    <hyperlink ref="A81" r:id="rId46" xr:uid="{9472DA7C-2D3C-42E7-A845-9C4DA7774A3F}"/>
-    <hyperlink ref="A82" r:id="rId47" xr:uid="{9B403F85-DEAA-4CA3-9958-76FD56A6C2EB}"/>
-    <hyperlink ref="A83" r:id="rId48" xr:uid="{5096C31E-8E5E-4BC1-8661-D02A96488D7B}"/>
-    <hyperlink ref="A46" r:id="rId49" xr:uid="{530FA762-5C05-423E-BD2E-4A9D11CBD1A8}"/>
-    <hyperlink ref="A47" r:id="rId50" xr:uid="{B0EF2B1B-5DB4-418A-B9E3-6F647CC87254}"/>
-    <hyperlink ref="A48" r:id="rId51" xr:uid="{17A7AEEC-83D6-41CA-939D-9F480486F7A6}"/>
+    <hyperlink ref="A81" r:id="rId44" xr:uid="{9472DA7C-2D3C-42E7-A845-9C4DA7774A3F}"/>
+    <hyperlink ref="A82" r:id="rId45" xr:uid="{9B403F85-DEAA-4CA3-9958-76FD56A6C2EB}"/>
+    <hyperlink ref="A83" r:id="rId46" xr:uid="{5096C31E-8E5E-4BC1-8661-D02A96488D7B}"/>
+    <hyperlink ref="A46" r:id="rId47" xr:uid="{530FA762-5C05-423E-BD2E-4A9D11CBD1A8}"/>
+    <hyperlink ref="A47" r:id="rId48" xr:uid="{B0EF2B1B-5DB4-418A-B9E3-6F647CC87254}"/>
+    <hyperlink ref="A48" r:id="rId49" xr:uid="{17A7AEEC-83D6-41CA-939D-9F480486F7A6}"/>
+    <hyperlink ref="A88" r:id="rId50" xr:uid="{7C016094-3B18-4609-AE10-ACBC0437C6C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId52"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId51"/>
 </worksheet>
 </file>
 
@@ -3471,8 +3553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5F5619-C91F-44CF-AE98-3AB9D7129EE3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3497,7 +3579,7 @@
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -3518,7 +3600,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -3539,7 +3621,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
@@ -3556,19 +3638,19 @@
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
       <c r="P5" s="33" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Q5" s="33"/>
       <c r="R5" s="33"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="T6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
@@ -3589,7 +3671,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
@@ -3610,7 +3692,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
@@ -3621,7 +3703,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
@@ -3635,7 +3717,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
@@ -3644,7 +3726,7 @@
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
       <c r="H14" s="34" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="I14" s="33"/>
       <c r="J14" s="33"/>
@@ -3652,12 +3734,12 @@
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
       <c r="N14" s="33" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
@@ -3680,60 +3762,47 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3302958B-D339-4AFA-82B0-C4FD1E9858AA}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" t="s">
         <v>169</v>
       </c>
-      <c r="C1" t="s">
-        <v>170</v>
-      </c>
       <c r="D1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
+        <v>281</v>
       </c>
       <c r="F10" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>149</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -3770,12 +3839,12 @@
         <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L5" s="4" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
@@ -3783,67 +3852,67 @@
         <v>36</v>
       </c>
       <c r="I20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K23" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I24" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K25" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I26" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I27" t="s">
+        <v>198</v>
+      </c>
+      <c r="K27" t="s">
         <v>200</v>
-      </c>
-      <c r="K27" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I29" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K29" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3868,18 +3937,18 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51637411-6B43-4E09-9CFA-5B86367C1E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC48F84-9C18-4564-817F-615593080200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="290">
   <si>
     <t>email</t>
   </si>
@@ -727,9 +727,6 @@
     <t>table: users, images,</t>
   </si>
   <si>
-    <t>ao exportar os users, exportar também a password? Para isso a password deixa de ser um campo $hidden no modelo User</t>
-  </si>
-  <si>
     <t>ao exportar e importar as foreigns keys, se as chaves do ficheiro não existirem na bd dá erro de constrain foreign key, seria melhor não exportar as foreign keys?</t>
   </si>
   <si>
@@ -739,15 +736,6 @@
     <t>HTTP response status codes - HTTP | MDN (mozilla.org)</t>
   </si>
   <si>
-    <t>http://127.0.0.1:8000/api/adminusersexportexcel</t>
-  </si>
-  <si>
-    <t>export users to xlsx</t>
-  </si>
-  <si>
-    <t>AdminController - export_xlsx</t>
-  </si>
-  <si>
     <t>http://127.0.0.1:8000/api/clockpointentrysexportexcel</t>
   </si>
   <si>
@@ -787,12 +775,6 @@
     <t>ClockpointentryController - import</t>
   </si>
   <si>
-    <t>ADMIN has IMPORT/EXPORT</t>
-  </si>
-  <si>
-    <t>REGISTER/LOGIN/LOGOUT</t>
-  </si>
-  <si>
     <t>COMPANY has IMPORT/EXPORT</t>
   </si>
   <si>
@@ -844,15 +826,9 @@
     <t>Files</t>
   </si>
   <si>
-    <t>se não exportar a password para importar os users o campo password terá de ser nullable() ficando users na tabela users sem password, será necessário o import/export da tabela users?</t>
-  </si>
-  <si>
     <t>exportar para ficheiros xlsx com cabeçalhos ou sem cabeçalhos ??</t>
   </si>
   <si>
-    <t>Tabela anexos que pode ser associada a um employee, company, department vai conter que campos?</t>
-  </si>
-  <si>
     <t>API Documentation &amp; Design Tools for Teams | Swagger</t>
   </si>
   <si>
@@ -905,13 +881,61 @@
   </si>
   <si>
     <t>pesquise sensitive case</t>
+  </si>
+  <si>
+    <t>file_path</t>
+  </si>
+  <si>
+    <t>delete user</t>
+  </si>
+  <si>
+    <t>AdminController - destroy</t>
+  </si>
+  <si>
+    <t>AUTH -- REGISTER/LOGIN/LOGOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADMIN </t>
+  </si>
+  <si>
+    <t>FILE ROUTES</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/files</t>
+  </si>
+  <si>
+    <t>FileController - index</t>
+  </si>
+  <si>
+    <t>FileController - store</t>
+  </si>
+  <si>
+    <t>FileController - show</t>
+  </si>
+  <si>
+    <t>FileController - destroy</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/files/{id}</t>
+  </si>
+  <si>
+    <t>FileController - update</t>
+  </si>
+  <si>
+    <t>required fields: file_path</t>
+  </si>
+  <si>
+    <t>non required fields: employee_id, company_id</t>
+  </si>
+  <si>
+    <t>table: files</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -952,6 +976,21 @@
       <b/>
       <sz val="16"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1143,7 +1182,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1179,6 +1218,8 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -1872,8 +1913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D199D9-B8D8-4350-8A96-21EEBB5AF420}">
   <dimension ref="D2:Q20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView topLeftCell="C11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2087,6 +2128,7 @@
         <v>8</v>
       </c>
       <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E13" s="10" t="s">
@@ -2100,8 +2142,8 @@
       <c r="K13" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L13" t="s">
-        <v>260</v>
+      <c r="L13" s="1" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="4:17" x14ac:dyDescent="0.3">
@@ -2120,6 +2162,9 @@
       <c r="K14" s="10" t="s">
         <v>94</v>
       </c>
+      <c r="L14" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="15" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
@@ -2140,6 +2185,9 @@
       <c r="K15" s="13" t="s">
         <v>95</v>
       </c>
+      <c r="L15" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="16" spans="4:17" x14ac:dyDescent="0.3">
       <c r="E16" s="10" t="s">
@@ -2157,8 +2205,11 @@
       <c r="K16" s="8" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="17" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L16" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E17" s="11" t="s">
         <v>26</v>
       </c>
@@ -2174,8 +2225,11 @@
       <c r="K17" s="9" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E18" s="8" t="s">
         <v>64</v>
       </c>
@@ -2186,7 +2240,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E19" s="1" t="s">
         <v>92</v>
       </c>
@@ -2194,7 +2248,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:12" x14ac:dyDescent="0.3">
       <c r="G20" s="1"/>
     </row>
   </sheetData>
@@ -2206,10 +2260,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2213FDCB-CC6B-4563-9ABC-C0A7BD343549}">
-  <dimension ref="A1:P91"/>
+  <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView topLeftCell="B80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView topLeftCell="B48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2222,9 +2276,9 @@
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="B1" s="31"/>
+        <v>277</v>
+      </c>
+      <c r="B1" s="35"/>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
       <c r="E1" s="31"/>
@@ -2241,7 +2295,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>111</v>
@@ -2250,13 +2304,13 @@
         <v>37</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="30">
+        <v>29</v>
+      </c>
+      <c r="E2">
         <v>201</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -2265,22 +2319,29 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="P2" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>110</v>
+        <v>31</v>
+      </c>
+      <c r="E3">
+        <v>200</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -2289,25 +2350,26 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>226</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>227</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>228</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>165</v>
+        <v>34</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -2316,1236 +2378,1343 @@
       </c>
       <c r="K4" s="18"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="D5" s="19"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+    </row>
+    <row r="7" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+      <c r="A7" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-    </row>
-    <row r="10" spans="1:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="A10" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s">
         <v>111</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11">
+      <c r="D8" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="30">
         <v>201</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="P11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="F8" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="14" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+      <c r="A14" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12">
+      <c r="D16" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16">
+        <v>201</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" t="s">
+        <v>87</v>
+      </c>
+      <c r="M16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17">
         <v>200</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="K13" s="18"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="D14" s="19"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-    </row>
-    <row r="17" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A17" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="E18">
+        <v>200</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="E19">
-        <v>201</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" t="s">
-        <v>87</v>
-      </c>
-      <c r="M19" t="s">
-        <v>178</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="E20">
         <v>200</v>
       </c>
+      <c r="F20" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="E21">
         <v>200</v>
       </c>
+      <c r="F21" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="E22">
-        <v>200</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="J22" s="18"/>
+        <v>184</v>
+      </c>
+      <c r="E22" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>98</v>
+        <v>187</v>
+      </c>
+      <c r="B23" t="s">
+        <v>182</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23">
-        <v>200</v>
-      </c>
-      <c r="F23" t="s">
-        <v>100</v>
+        <v>185</v>
+      </c>
+      <c r="E23" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>101</v>
+        <v>188</v>
+      </c>
+      <c r="B24" t="s">
+        <v>183</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24">
+        <v>186</v>
+      </c>
+      <c r="E24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+      <c r="A28" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30">
+        <v>201</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31">
         <v>200</v>
       </c>
-      <c r="F24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B25" t="s">
-        <v>181</v>
-      </c>
-      <c r="C25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="E25" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B26" t="s">
-        <v>182</v>
-      </c>
-      <c r="C26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="E26" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B27" t="s">
-        <v>183</v>
-      </c>
-      <c r="C27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="E27" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A31" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" t="s">
-        <v>146</v>
+        <v>52</v>
+      </c>
+      <c r="E32">
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="E33">
-        <v>201</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+        <v>200</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="J33" s="18"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="E34">
         <v>200</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" t="s">
-        <v>122</v>
-      </c>
-      <c r="C35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35">
+      <c r="F34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+      <c r="A37" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39">
+        <v>201</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40">
         <v>200</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="E36">
-        <v>200</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="J36" s="18"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E37">
-        <v>200</v>
-      </c>
-      <c r="F37" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A40" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31"/>
+      <c r="F40" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E41" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="E41">
+        <v>200</v>
+      </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C42" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="E42">
-        <v>201</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
+        <v>200</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="K42" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="L42" s="18"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>61</v>
+        <v>241</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>244</v>
       </c>
       <c r="C43" t="s">
         <v>38</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E43">
-        <v>200</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+        <v>247</v>
+      </c>
+      <c r="E43" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>61</v>
+        <v>242</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>245</v>
       </c>
       <c r="C44" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E44">
-        <v>200</v>
+        <v>248</v>
+      </c>
+      <c r="E44" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>61</v>
+        <v>243</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>246</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="E45">
+        <v>249</v>
+      </c>
+      <c r="E45" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+      <c r="A48" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="E50">
+        <v>201</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="N50" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="E51">
         <v>200</v>
       </c>
-      <c r="G45" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="K45" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="L45" s="18"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B46" t="s">
-        <v>250</v>
-      </c>
-      <c r="C46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="E46" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B47" t="s">
-        <v>251</v>
-      </c>
-      <c r="C47" t="s">
-        <v>38</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="E47" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B48" t="s">
-        <v>252</v>
-      </c>
-      <c r="C48" t="s">
-        <v>37</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="E48" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A51" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="31"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C52" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="E52" s="6"/>
+        <v>212</v>
+      </c>
+      <c r="E52">
+        <v>200</v>
+      </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B53" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C53" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E53">
-        <v>201</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="N53" t="s">
-        <v>218</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="J53" s="18"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>70</v>
+        <v>203</v>
       </c>
       <c r="B54" t="s">
-        <v>131</v>
+        <v>206</v>
       </c>
       <c r="C54" t="s">
         <v>38</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="E54">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E54" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>70</v>
+        <v>204</v>
       </c>
       <c r="B55" t="s">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="C55" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="E55">
-        <v>200</v>
+        <v>215</v>
+      </c>
+      <c r="E55" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>70</v>
+        <v>205</v>
       </c>
       <c r="B56" t="s">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="C56" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="E56">
+        <v>216</v>
+      </c>
+      <c r="E56" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+      <c r="A61" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="31"/>
+      <c r="N61" s="31"/>
+      <c r="O61" s="31"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E62" s="6"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E63">
+        <v>201</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E64">
         <v>200</v>
       </c>
-      <c r="G56" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="J56" s="18"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B57" t="s">
-        <v>206</v>
-      </c>
-      <c r="C57" t="s">
-        <v>38</v>
-      </c>
-      <c r="D57" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="E57" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B58" t="s">
-        <v>207</v>
-      </c>
-      <c r="C58" t="s">
-        <v>38</v>
-      </c>
-      <c r="D58" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="E58" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B59" t="s">
-        <v>208</v>
-      </c>
-      <c r="C59" t="s">
-        <v>37</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="E59" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A64" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="31"/>
-      <c r="K64" s="31"/>
-      <c r="L64" s="31"/>
-      <c r="M64" s="31"/>
-      <c r="N64" s="31"/>
-      <c r="O64" s="31"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B65" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C65" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E65" s="6"/>
+        <v>83</v>
+      </c>
+      <c r="E65">
+        <v>200</v>
+      </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C66" t="s">
+        <v>46</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="E66">
+        <v>200</v>
+      </c>
+      <c r="G66" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="J66" s="18"/>
+    </row>
+    <row r="73" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+      <c r="A73" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="31"/>
+      <c r="L73" s="31"/>
+      <c r="M73" s="31"/>
+      <c r="N73" s="31"/>
+      <c r="O73" s="31"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B74" t="s">
+        <v>153</v>
+      </c>
+      <c r="C74" t="s">
+        <v>38</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="E74">
+        <v>200</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B75" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="E66">
+      <c r="D75" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="E75">
         <v>201</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B67" t="s">
-        <v>136</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B76" t="s">
+        <v>163</v>
+      </c>
+      <c r="C76" t="s">
         <v>38</v>
       </c>
-      <c r="D67" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="E67">
+      <c r="D76" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="E76">
         <v>200</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B68" t="s">
-        <v>137</v>
-      </c>
-      <c r="C68" t="s">
-        <v>44</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="E68">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B69" t="s">
-        <v>138</v>
-      </c>
-      <c r="C69" t="s">
-        <v>46</v>
-      </c>
-      <c r="D69" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="E69">
-        <v>200</v>
-      </c>
-      <c r="G69" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="J69" s="18"/>
-    </row>
-    <row r="76" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A76" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="31"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="31"/>
-      <c r="H76" s="31"/>
-      <c r="I76" s="31"/>
-      <c r="J76" s="31"/>
-      <c r="K76" s="31"/>
-      <c r="L76" s="31"/>
-      <c r="M76" s="31"/>
-      <c r="N76" s="31"/>
-      <c r="O76" s="31"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B77" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C77" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E77">
         <v>200</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
+      <c r="G77" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="J77" s="18"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>152</v>
+        <v>225</v>
       </c>
       <c r="B78" t="s">
-        <v>156</v>
+        <v>228</v>
       </c>
       <c r="C78" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="E78">
-        <v>201</v>
-      </c>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
+        <v>235</v>
+      </c>
+      <c r="E78" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>161</v>
+        <v>226</v>
       </c>
       <c r="B79" t="s">
-        <v>163</v>
+        <v>229</v>
       </c>
       <c r="C79" t="s">
         <v>38</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="E79">
-        <v>200</v>
+        <v>236</v>
+      </c>
+      <c r="E79" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>161</v>
+        <v>227</v>
       </c>
       <c r="B80" t="s">
-        <v>162</v>
+        <v>230</v>
       </c>
       <c r="C80" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="E80">
+        <v>237</v>
+      </c>
+      <c r="E80" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="A84" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="B84" s="31"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="31"/>
+      <c r="I84" s="31"/>
+      <c r="J84" s="31"/>
+      <c r="K84" s="31"/>
+      <c r="L84" s="31"/>
+      <c r="M84" s="31"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B85" t="s">
+        <v>267</v>
+      </c>
+      <c r="C85" t="s">
+        <v>38</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E85">
         <v>200</v>
       </c>
-      <c r="G80" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="J80" s="18"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B81" t="s">
-        <v>232</v>
-      </c>
-      <c r="C81" t="s">
-        <v>38</v>
-      </c>
-      <c r="D81" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="E81" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B82" t="s">
-        <v>233</v>
-      </c>
-      <c r="C82" t="s">
-        <v>38</v>
-      </c>
-      <c r="D82" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="E82" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="B83" t="s">
-        <v>234</v>
-      </c>
-      <c r="C83" t="s">
-        <v>37</v>
-      </c>
-      <c r="D83" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="E83" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A87" s="32" t="s">
+      <c r="F85" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B87" s="31"/>
-      <c r="C87" s="31"/>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="31"/>
-      <c r="J87" s="31"/>
-      <c r="K87" s="31"/>
-      <c r="L87" s="31"/>
-      <c r="M87" s="31"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>268</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F87" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="B88" t="s">
-        <v>275</v>
-      </c>
-      <c r="C88" t="s">
-        <v>38</v>
-      </c>
-      <c r="D88" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="E88">
-        <v>200</v>
-      </c>
       <c r="F88" s="1" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B89" t="s">
-        <v>276</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F90" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F91" s="1" t="s">
+    <row r="92" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="A92" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="31"/>
+      <c r="K92" s="31"/>
+      <c r="L92" s="31"/>
+      <c r="M92" s="31"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C93" t="s">
+        <v>38</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="E93">
+        <v>200</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C94" t="s">
+        <v>37</v>
+      </c>
+      <c r="D94" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="E94">
+        <v>201</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C95" t="s">
+        <v>38</v>
+      </c>
+      <c r="D95" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="E95">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C96" t="s">
+        <v>44</v>
+      </c>
+      <c r="D96" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="E96">
+        <v>200</v>
+      </c>
+      <c r="G96" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="H96" s="18"/>
+      <c r="I96" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="J96" s="18"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C97" t="s">
+        <v>46</v>
+      </c>
+      <c r="D97" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="E97">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G99" s="36"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A11" r:id="rId1" xr:uid="{BBB211D6-EC2E-483F-AD68-2B5908BDB559}"/>
-    <hyperlink ref="A12" r:id="rId2" xr:uid="{2AD720C6-79D9-490E-B59A-3EF5834599AE}"/>
-    <hyperlink ref="A13" r:id="rId3" xr:uid="{9EFA1F3B-012E-4B52-8B70-B67ABED809A5}"/>
-    <hyperlink ref="A18" r:id="rId4" xr:uid="{A4ACD191-23EA-48D9-852B-4F64AE268575}"/>
-    <hyperlink ref="A19" r:id="rId5" xr:uid="{7E675BB6-98E5-4A98-8C78-CD05BA10E017}"/>
-    <hyperlink ref="A20" r:id="rId6" xr:uid="{8CCD976F-622E-423E-8AA6-6304AC809C49}"/>
-    <hyperlink ref="A21" r:id="rId7" xr:uid="{06493852-F02F-4F8E-8163-F806E3685934}"/>
-    <hyperlink ref="A32" r:id="rId8" xr:uid="{8CC52737-961D-4062-AD04-0143DE3885CE}"/>
-    <hyperlink ref="A33" r:id="rId9" xr:uid="{9EDEF581-31CF-422C-AFD4-4350AD9549CB}"/>
-    <hyperlink ref="A34" r:id="rId10" xr:uid="{1AC0E46F-77F3-48ED-BF69-D4E597582298}"/>
-    <hyperlink ref="A35" r:id="rId11" xr:uid="{C7125051-D49B-48F8-9B20-CA2317A0D088}"/>
-    <hyperlink ref="A36" r:id="rId12" xr:uid="{7874FEB1-CB17-4CF0-91DC-3AFFBF58DDC6}"/>
-    <hyperlink ref="A41" r:id="rId13" xr:uid="{F60B5E4D-A587-4733-9296-813AD1EB6A3D}"/>
-    <hyperlink ref="A42" r:id="rId14" xr:uid="{89C8187B-E254-44A9-AA96-EDDE007BA2C8}"/>
-    <hyperlink ref="A43" r:id="rId15" xr:uid="{7D7C3C35-3435-4BAC-A4BD-B53EB924A022}"/>
-    <hyperlink ref="A44" r:id="rId16" xr:uid="{98B6A075-78C7-4196-9101-1AE0970B8FD7}"/>
-    <hyperlink ref="A45" r:id="rId17" xr:uid="{ED08F172-21EE-4BEC-B90E-DC109EEECF6D}"/>
-    <hyperlink ref="A52" r:id="rId18" xr:uid="{00C242AD-1DD2-453E-9545-4B875BCD4296}"/>
-    <hyperlink ref="A53" r:id="rId19" xr:uid="{8EFDB8EB-DECF-454C-A6B2-521937F8DA39}"/>
-    <hyperlink ref="A54" r:id="rId20" xr:uid="{68C6EF4B-EAF5-4F8D-835E-85B4CC1127E1}"/>
-    <hyperlink ref="A55" r:id="rId21" xr:uid="{A441BE67-5C82-4C5C-B76F-DC608DEABFCF}"/>
-    <hyperlink ref="A56" r:id="rId22" xr:uid="{D6EED714-BC54-417C-8D12-98D914984736}"/>
-    <hyperlink ref="A65" r:id="rId23" xr:uid="{D9FA0B99-F896-43F5-A7F0-14D9DA4C5553}"/>
-    <hyperlink ref="A66" r:id="rId24" xr:uid="{C2A94B60-2DFD-40DD-A17E-569D78B75D1D}"/>
-    <hyperlink ref="A67" r:id="rId25" xr:uid="{58CCA162-0B67-45FB-9053-C29E048B80D3}"/>
-    <hyperlink ref="A68" r:id="rId26" xr:uid="{F92919F5-AAA3-4266-BECC-B1F16FF4A12A}"/>
-    <hyperlink ref="A69" r:id="rId27" xr:uid="{4DC98056-2432-4398-AD46-F1368A159E75}"/>
-    <hyperlink ref="A23" r:id="rId28" xr:uid="{C2364B8F-AD7A-49B4-BA3A-A47FADB17E70}"/>
-    <hyperlink ref="A24" r:id="rId29" xr:uid="{5032A9FB-C0D5-42E6-9EB0-1CD821762859}"/>
-    <hyperlink ref="A37" r:id="rId30" xr:uid="{68733F0C-CEF2-4587-919A-C679365E9BC5}"/>
-    <hyperlink ref="A2" r:id="rId31" xr:uid="{7889F8F9-73A2-4310-A5FC-933B815630A6}"/>
-    <hyperlink ref="A3" r:id="rId32" xr:uid="{F16F1F7A-D0AB-4316-A173-A2FEE613D339}"/>
-    <hyperlink ref="A77" r:id="rId33" xr:uid="{D0B8A248-CCD5-4996-B5CD-C82C9F29C937}"/>
-    <hyperlink ref="A78" r:id="rId34" xr:uid="{C3F88F77-C25C-4F80-93C6-7657F8A09F1E}"/>
-    <hyperlink ref="A79" r:id="rId35" xr:uid="{50904CB5-D01D-4850-9547-983C9A60550E}"/>
-    <hyperlink ref="A80" r:id="rId36" xr:uid="{322195B7-EFAE-45CC-A913-BA1FB98ABC10}"/>
-    <hyperlink ref="A57" r:id="rId37" xr:uid="{2ADA5B37-D54D-40E5-BC01-727BCE3EDA26}"/>
-    <hyperlink ref="A58" r:id="rId38" xr:uid="{FFB465FF-CCED-4B74-BB20-86346742F4A6}"/>
-    <hyperlink ref="A59" r:id="rId39" xr:uid="{7D4A2596-DA34-451E-8C74-5B2C6BA1BE21}"/>
-    <hyperlink ref="A25" r:id="rId40" xr:uid="{9E34EEEA-8247-4DEA-97CD-7E41FE2F0BF0}"/>
-    <hyperlink ref="A26" r:id="rId41" xr:uid="{71B4EE5D-952E-4F9D-B32E-48304A0BED29}"/>
-    <hyperlink ref="A27" r:id="rId42" xr:uid="{A4FCB4D6-FF48-4991-B2D8-BB5819DE523F}"/>
-    <hyperlink ref="A4" r:id="rId43" xr:uid="{D6EA74F4-4B6D-42B3-A6AF-CD351AA199AD}"/>
-    <hyperlink ref="A81" r:id="rId44" xr:uid="{9472DA7C-2D3C-42E7-A845-9C4DA7774A3F}"/>
-    <hyperlink ref="A82" r:id="rId45" xr:uid="{9B403F85-DEAA-4CA3-9958-76FD56A6C2EB}"/>
-    <hyperlink ref="A83" r:id="rId46" xr:uid="{5096C31E-8E5E-4BC1-8661-D02A96488D7B}"/>
-    <hyperlink ref="A46" r:id="rId47" xr:uid="{530FA762-5C05-423E-BD2E-4A9D11CBD1A8}"/>
-    <hyperlink ref="A47" r:id="rId48" xr:uid="{B0EF2B1B-5DB4-418A-B9E3-6F647CC87254}"/>
-    <hyperlink ref="A48" r:id="rId49" xr:uid="{17A7AEEC-83D6-41CA-939D-9F480486F7A6}"/>
-    <hyperlink ref="A88" r:id="rId50" xr:uid="{7C016094-3B18-4609-AE10-ACBC0437C6C3}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{BBB211D6-EC2E-483F-AD68-2B5908BDB559}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{2AD720C6-79D9-490E-B59A-3EF5834599AE}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{9EFA1F3B-012E-4B52-8B70-B67ABED809A5}"/>
+    <hyperlink ref="A15" r:id="rId4" xr:uid="{A4ACD191-23EA-48D9-852B-4F64AE268575}"/>
+    <hyperlink ref="A16" r:id="rId5" xr:uid="{7E675BB6-98E5-4A98-8C78-CD05BA10E017}"/>
+    <hyperlink ref="A17" r:id="rId6" xr:uid="{8CCD976F-622E-423E-8AA6-6304AC809C49}"/>
+    <hyperlink ref="A18" r:id="rId7" xr:uid="{06493852-F02F-4F8E-8163-F806E3685934}"/>
+    <hyperlink ref="A29" r:id="rId8" xr:uid="{8CC52737-961D-4062-AD04-0143DE3885CE}"/>
+    <hyperlink ref="A30" r:id="rId9" xr:uid="{9EDEF581-31CF-422C-AFD4-4350AD9549CB}"/>
+    <hyperlink ref="A31" r:id="rId10" xr:uid="{1AC0E46F-77F3-48ED-BF69-D4E597582298}"/>
+    <hyperlink ref="A32" r:id="rId11" xr:uid="{C7125051-D49B-48F8-9B20-CA2317A0D088}"/>
+    <hyperlink ref="A33" r:id="rId12" xr:uid="{7874FEB1-CB17-4CF0-91DC-3AFFBF58DDC6}"/>
+    <hyperlink ref="A38" r:id="rId13" xr:uid="{F60B5E4D-A587-4733-9296-813AD1EB6A3D}"/>
+    <hyperlink ref="A39" r:id="rId14" xr:uid="{89C8187B-E254-44A9-AA96-EDDE007BA2C8}"/>
+    <hyperlink ref="A40" r:id="rId15" xr:uid="{7D7C3C35-3435-4BAC-A4BD-B53EB924A022}"/>
+    <hyperlink ref="A41" r:id="rId16" xr:uid="{98B6A075-78C7-4196-9101-1AE0970B8FD7}"/>
+    <hyperlink ref="A42" r:id="rId17" xr:uid="{ED08F172-21EE-4BEC-B90E-DC109EEECF6D}"/>
+    <hyperlink ref="A49" r:id="rId18" xr:uid="{00C242AD-1DD2-453E-9545-4B875BCD4296}"/>
+    <hyperlink ref="A50" r:id="rId19" xr:uid="{8EFDB8EB-DECF-454C-A6B2-521937F8DA39}"/>
+    <hyperlink ref="A51" r:id="rId20" xr:uid="{68C6EF4B-EAF5-4F8D-835E-85B4CC1127E1}"/>
+    <hyperlink ref="A52" r:id="rId21" xr:uid="{A441BE67-5C82-4C5C-B76F-DC608DEABFCF}"/>
+    <hyperlink ref="A53" r:id="rId22" xr:uid="{D6EED714-BC54-417C-8D12-98D914984736}"/>
+    <hyperlink ref="A62" r:id="rId23" xr:uid="{D9FA0B99-F896-43F5-A7F0-14D9DA4C5553}"/>
+    <hyperlink ref="A63" r:id="rId24" xr:uid="{C2A94B60-2DFD-40DD-A17E-569D78B75D1D}"/>
+    <hyperlink ref="A64" r:id="rId25" xr:uid="{58CCA162-0B67-45FB-9053-C29E048B80D3}"/>
+    <hyperlink ref="A65" r:id="rId26" xr:uid="{F92919F5-AAA3-4266-BECC-B1F16FF4A12A}"/>
+    <hyperlink ref="A66" r:id="rId27" xr:uid="{4DC98056-2432-4398-AD46-F1368A159E75}"/>
+    <hyperlink ref="A20" r:id="rId28" xr:uid="{C2364B8F-AD7A-49B4-BA3A-A47FADB17E70}"/>
+    <hyperlink ref="A21" r:id="rId29" xr:uid="{5032A9FB-C0D5-42E6-9EB0-1CD821762859}"/>
+    <hyperlink ref="A34" r:id="rId30" xr:uid="{68733F0C-CEF2-4587-919A-C679365E9BC5}"/>
+    <hyperlink ref="A8" r:id="rId31" xr:uid="{7889F8F9-73A2-4310-A5FC-933B815630A6}"/>
+    <hyperlink ref="A9" r:id="rId32" xr:uid="{F16F1F7A-D0AB-4316-A173-A2FEE613D339}"/>
+    <hyperlink ref="A74" r:id="rId33" xr:uid="{D0B8A248-CCD5-4996-B5CD-C82C9F29C937}"/>
+    <hyperlink ref="A75" r:id="rId34" xr:uid="{C3F88F77-C25C-4F80-93C6-7657F8A09F1E}"/>
+    <hyperlink ref="A76" r:id="rId35" xr:uid="{50904CB5-D01D-4850-9547-983C9A60550E}"/>
+    <hyperlink ref="A77" r:id="rId36" xr:uid="{322195B7-EFAE-45CC-A913-BA1FB98ABC10}"/>
+    <hyperlink ref="A54" r:id="rId37" xr:uid="{2ADA5B37-D54D-40E5-BC01-727BCE3EDA26}"/>
+    <hyperlink ref="A55" r:id="rId38" xr:uid="{FFB465FF-CCED-4B74-BB20-86346742F4A6}"/>
+    <hyperlink ref="A56" r:id="rId39" xr:uid="{7D4A2596-DA34-451E-8C74-5B2C6BA1BE21}"/>
+    <hyperlink ref="A22" r:id="rId40" xr:uid="{9E34EEEA-8247-4DEA-97CD-7E41FE2F0BF0}"/>
+    <hyperlink ref="A23" r:id="rId41" xr:uid="{71B4EE5D-952E-4F9D-B32E-48304A0BED29}"/>
+    <hyperlink ref="A24" r:id="rId42" xr:uid="{A4FCB4D6-FF48-4991-B2D8-BB5819DE523F}"/>
+    <hyperlink ref="A78" r:id="rId43" xr:uid="{9472DA7C-2D3C-42E7-A845-9C4DA7774A3F}"/>
+    <hyperlink ref="A79" r:id="rId44" xr:uid="{9B403F85-DEAA-4CA3-9958-76FD56A6C2EB}"/>
+    <hyperlink ref="A80" r:id="rId45" xr:uid="{5096C31E-8E5E-4BC1-8661-D02A96488D7B}"/>
+    <hyperlink ref="A43" r:id="rId46" xr:uid="{530FA762-5C05-423E-BD2E-4A9D11CBD1A8}"/>
+    <hyperlink ref="A44" r:id="rId47" xr:uid="{B0EF2B1B-5DB4-418A-B9E3-6F647CC87254}"/>
+    <hyperlink ref="A45" r:id="rId48" xr:uid="{17A7AEEC-83D6-41CA-939D-9F480486F7A6}"/>
+    <hyperlink ref="A85" r:id="rId49" xr:uid="{7C016094-3B18-4609-AE10-ACBC0437C6C3}"/>
+    <hyperlink ref="A10" r:id="rId50" xr:uid="{5A34EE6F-B4F0-4773-AA21-A87609069DF1}"/>
+    <hyperlink ref="A93" r:id="rId51" xr:uid="{8403F657-0E3E-4735-820E-24EDFD4A2061}"/>
+    <hyperlink ref="A94" r:id="rId52" xr:uid="{58A8EB37-E303-4DE6-9767-248667054FB4}"/>
+    <hyperlink ref="A95:A96" r:id="rId53" display="http://127.0.0.1:8000/api/files" xr:uid="{4472F73A-58E7-4AAA-9CFB-B257EB5C74E3}"/>
+    <hyperlink ref="A95" r:id="rId54" xr:uid="{6AFD488A-0F3C-4F73-891C-E8D52C98E678}"/>
+    <hyperlink ref="A96" r:id="rId55" xr:uid="{76E503F1-3135-4FE7-8063-4836220D374D}"/>
+    <hyperlink ref="A97" r:id="rId56" xr:uid="{3D0805BD-A44C-4D4C-9152-827518FEDCFD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId51"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId57"/>
 </worksheet>
 </file>
 
@@ -3553,8 +3722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5F5619-C91F-44CF-AE98-3AB9D7129EE3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="J84" sqref="J84"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3569,7 +3738,7 @@
   <dimension ref="A2:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3600,7 +3769,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -3638,7 +3807,7 @@
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
       <c r="P5" s="33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q5" s="33"/>
       <c r="R5" s="33"/>
@@ -3649,9 +3818,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
-        <v>222</v>
-      </c>
+      <c r="A7" s="33"/>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
@@ -3670,9 +3837,7 @@
       <c r="Q7" s="33"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
-        <v>261</v>
-      </c>
+      <c r="A8" s="33"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
@@ -3692,7 +3857,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
@@ -3702,9 +3867,7 @@
       <c r="G10" s="33"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
-        <v>263</v>
-      </c>
+      <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
@@ -3717,7 +3880,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
@@ -3726,7 +3889,7 @@
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
       <c r="H14" s="34" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="I14" s="33"/>
       <c r="J14" s="33"/>
@@ -3734,12 +3897,12 @@
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
       <c r="N14" s="33" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
@@ -3778,7 +3941,7 @@
         <v>169</v>
       </c>
       <c r="D1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F1" t="s">
         <v>174</v>
@@ -3789,20 +3952,20 @@
         <v>170</v>
       </c>
       <c r="D2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F10" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3839,12 +4002,12 @@
         <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L5" s="4" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
@@ -3857,7 +4020,7 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K21" t="s">
         <v>190</v>

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC48F84-9C18-4564-817F-615593080200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E92BB9-390A-4B56-AFFF-3A18A7DFDBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
   <sheets>
     <sheet name="bd" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="292">
   <si>
     <t>email</t>
   </si>
@@ -883,9 +883,6 @@
     <t>pesquise sensitive case</t>
   </si>
   <si>
-    <t>file_path</t>
-  </si>
-  <si>
     <t>delete user</t>
   </si>
   <si>
@@ -922,13 +919,22 @@
     <t>FileController - update</t>
   </si>
   <si>
-    <t>required fields: file_path</t>
-  </si>
-  <si>
-    <t>non required fields: employee_id, company_id</t>
-  </si>
-  <si>
     <t>table: files</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>file_id</t>
+  </si>
+  <si>
+    <t>file_url</t>
+  </si>
+  <si>
+    <t>required fields: file_path* , type</t>
+  </si>
+  <si>
+    <t>required for location:country*, city*, street*, door_number*, zip_code*</t>
   </si>
 </sst>
 </file>
@@ -996,7 +1002,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1048,6 +1054,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1182,7 +1194,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1220,6 +1232,7 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -1540,6 +1553,50 @@
         <a:xfrm>
           <a:off x="0" y="12801600"/>
           <a:ext cx="12908176" cy="2086266"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>554229</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>57286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagem 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE50F32D-12B6-4847-9261-47EFA12633E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14996160"/>
+          <a:ext cx="12746229" cy="971686"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1911,10 +1968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D199D9-B8D8-4350-8A96-21EEBB5AF420}">
-  <dimension ref="D2:Q20"/>
+  <dimension ref="D2:Q21"/>
   <sheetViews>
-    <sheetView topLeftCell="C11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2085,6 +2142,9 @@
       <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I9" s="37" t="s">
+        <v>288</v>
+      </c>
       <c r="M9" s="8" t="s">
         <v>68</v>
       </c>
@@ -2128,7 +2188,7 @@
         <v>8</v>
       </c>
       <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
     </row>
     <row r="13" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E13" s="10" t="s">
@@ -2142,7 +2202,7 @@
       <c r="K13" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="17" t="s">
         <v>254</v>
       </c>
     </row>
@@ -2162,8 +2222,8 @@
       <c r="K14" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>95</v>
+      <c r="M14" s="17" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="4:17" x14ac:dyDescent="0.3">
@@ -2185,8 +2245,8 @@
       <c r="K15" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>65</v>
+      <c r="M15" s="17" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="4:17" x14ac:dyDescent="0.3">
@@ -2205,11 +2265,8 @@
       <c r="K16" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="17" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E17" s="11" t="s">
         <v>26</v>
       </c>
@@ -2225,11 +2282,8 @@
       <c r="K17" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="L17" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E18" s="8" t="s">
         <v>64</v>
       </c>
@@ -2240,7 +2294,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E19" s="1" t="s">
         <v>92</v>
       </c>
@@ -2248,8 +2302,13 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:11" x14ac:dyDescent="0.3">
       <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="G21" s="37" t="s">
+        <v>288</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2262,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2213FDCB-CC6B-4563-9ABC-C0A7BD343549}">
   <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView topLeftCell="B48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G99" sqref="G99"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2276,7 +2335,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="31"/>
@@ -2389,7 +2448,7 @@
     </row>
     <row r="7" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
@@ -2462,13 +2521,13 @@
         <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C10" t="s">
         <v>46</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>221</v>
@@ -2721,7 +2780,7 @@
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="1" t="s">
-        <v>178</v>
+        <v>291</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -3538,7 +3597,7 @@
     </row>
     <row r="92" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A92" s="32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B92" s="31"/>
       <c r="C92" s="31"/>
@@ -3555,44 +3614,44 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C93" t="s">
         <v>38</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E93">
         <v>200</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
+      <c r="J93" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C94" t="s">
         <v>37</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E94">
         <v>201</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>288</v>
-      </c>
+      <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -3603,13 +3662,13 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C95" t="s">
         <v>38</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E95">
         <v>200</v>
@@ -3617,19 +3676,19 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C96" t="s">
         <v>44</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E96">
         <v>200</v>
       </c>
       <c r="G96" s="18" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H96" s="18"/>
       <c r="I96" s="18" t="s">
@@ -3639,13 +3698,13 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C97" t="s">
         <v>46</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E97">
         <v>201</v>
@@ -3722,8 +3781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5F5619-C91F-44CF-AE98-3AB9D7129EE3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E92BB9-390A-4B56-AFFF-3A18A7DFDBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88828040-7EB7-406B-B130-942C6229E9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
   <sheets>
     <sheet name="bd" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="291">
   <si>
     <t>email</t>
   </si>
@@ -583,9 +583,6 @@
     <t>DEBUGGER</t>
   </si>
   <si>
-    <t>tabela anexos</t>
-  </si>
-  <si>
     <t>Os imports e exports devem conter as foreings keys ? Ou seja quando importo ou exporto Employees.xlsx ou csv os campos tenant_id, company_id etc tbm são importados e exportados?</t>
   </si>
   <si>
@@ -835,9 +832,6 @@
     <t xml:space="preserve">O manual da API pode ser um ficheiro excel ou será algo mais do tipo </t>
   </si>
   <si>
-    <t>usar faker image url para testes</t>
-  </si>
-  <si>
     <t>encryption search</t>
   </si>
   <si>
@@ -935,6 +929,9 @@
   </si>
   <si>
     <t>required for location:country*, city*, street*, door_number*, zip_code*</t>
+  </si>
+  <si>
+    <t>tabela FILES</t>
   </si>
 </sst>
 </file>
@@ -2143,7 +2140,7 @@
         <v>6</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>68</v>
@@ -2203,7 +2200,7 @@
         <v>93</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="4:17" x14ac:dyDescent="0.3">
@@ -2223,7 +2220,7 @@
         <v>94</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="4:17" x14ac:dyDescent="0.3">
@@ -2246,7 +2243,7 @@
         <v>95</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="4:17" x14ac:dyDescent="0.3">
@@ -2307,7 +2304,7 @@
     </row>
     <row r="21" spans="5:11" x14ac:dyDescent="0.3">
       <c r="G21" s="37" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2321,8 +2318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2213FDCB-CC6B-4563-9ABC-C0A7BD343549}">
   <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2335,7 +2332,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="32" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="31"/>
@@ -2428,7 +2425,7 @@
         <v>34</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -2448,7 +2445,7 @@
     </row>
     <row r="7" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="32" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
@@ -2482,7 +2479,7 @@
         <v>201</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -2506,7 +2503,7 @@
         <v>110</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -2521,16 +2518,16 @@
         <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C10" t="s">
         <v>46</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
@@ -2541,7 +2538,7 @@
     </row>
     <row r="14" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A14" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
@@ -2599,7 +2596,7 @@
         <v>87</v>
       </c>
       <c r="M16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -2697,16 +2694,16 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" t="s">
         <v>180</v>
-      </c>
-      <c r="B22" t="s">
-        <v>181</v>
       </c>
       <c r="C22" t="s">
         <v>38</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E22" t="s">
         <v>165</v>
@@ -2714,16 +2711,16 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E23" t="s">
         <v>166</v>
@@ -2731,16 +2728,16 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E24" t="s">
         <v>167</v>
@@ -2748,7 +2745,7 @@
     </row>
     <row r="28" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A28" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
@@ -2780,7 +2777,7 @@
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -2893,7 +2890,7 @@
     </row>
     <row r="37" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A37" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B37" s="31"/>
       <c r="C37" s="31"/>
@@ -2942,7 +2939,7 @@
         <v>201</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -3024,16 +3021,16 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C43" t="s">
         <v>38</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E43" t="s">
         <v>165</v>
@@ -3041,16 +3038,16 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B44" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C44" t="s">
         <v>38</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E44" t="s">
         <v>166</v>
@@ -3058,16 +3055,16 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B45" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C45" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E45" t="s">
         <v>167</v>
@@ -3075,7 +3072,7 @@
     </row>
     <row r="48" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A48" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B48" s="31"/>
       <c r="C48" s="31"/>
@@ -3103,7 +3100,7 @@
         <v>38</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E49" s="6"/>
     </row>
@@ -3118,13 +3115,13 @@
         <v>37</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E50">
         <v>201</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -3132,7 +3129,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="N50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
@@ -3146,7 +3143,7 @@
         <v>38</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E51">
         <v>200</v>
@@ -3163,7 +3160,7 @@
         <v>44</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E52">
         <v>200</v>
@@ -3180,7 +3177,7 @@
         <v>46</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E53">
         <v>200</v>
@@ -3196,16 +3193,16 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B54" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C54" t="s">
         <v>38</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E54" t="s">
         <v>165</v>
@@ -3213,16 +3210,16 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B55" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C55" t="s">
         <v>38</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E55" t="s">
         <v>166</v>
@@ -3230,16 +3227,16 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C56" t="s">
         <v>37</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E56" t="s">
         <v>167</v>
@@ -3247,7 +3244,7 @@
     </row>
     <row r="61" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A61" s="32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B61" s="31"/>
       <c r="C61" s="31"/>
@@ -3366,7 +3363,7 @@
     </row>
     <row r="73" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A73" s="32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B73" s="31"/>
       <c r="C73" s="31"/>
@@ -3394,7 +3391,7 @@
         <v>38</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E74">
         <v>200</v>
@@ -3421,7 +3418,7 @@
         <v>37</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E75">
         <v>201</v>
@@ -3446,7 +3443,7 @@
         <v>38</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E76">
         <v>200</v>
@@ -3463,7 +3460,7 @@
         <v>46</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E77">
         <v>200</v>
@@ -3479,16 +3476,16 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B78" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C78" t="s">
         <v>38</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E78" t="s">
         <v>165</v>
@@ -3496,16 +3493,16 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B79" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C79" t="s">
         <v>38</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E79" t="s">
         <v>166</v>
@@ -3513,16 +3510,16 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B80" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C80" t="s">
         <v>37</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E80" t="s">
         <v>167</v>
@@ -3530,7 +3527,7 @@
     </row>
     <row r="84" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A84" s="32" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B84" s="31"/>
       <c r="C84" s="31"/>
@@ -3547,22 +3544,22 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B85" t="s">
         <v>265</v>
-      </c>
-      <c r="B85" t="s">
-        <v>267</v>
       </c>
       <c r="C85" t="s">
         <v>38</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E85">
         <v>200</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -3570,10 +3567,10 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -3581,7 +3578,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F87" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -3589,7 +3586,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F88" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -3597,7 +3594,7 @@
     </row>
     <row r="92" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A92" s="32" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B92" s="31"/>
       <c r="C92" s="31"/>
@@ -3614,25 +3611,25 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C93" t="s">
         <v>38</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E93">
         <v>200</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
@@ -3640,13 +3637,13 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C94" t="s">
         <v>37</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E94">
         <v>201</v>
@@ -3662,13 +3659,13 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C95" t="s">
         <v>38</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E95">
         <v>200</v>
@@ -3676,19 +3673,19 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C96" t="s">
         <v>44</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E96">
         <v>200</v>
       </c>
       <c r="G96" s="18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H96" s="18"/>
       <c r="I96" s="18" t="s">
@@ -3698,13 +3695,13 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C97" t="s">
         <v>46</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E97">
         <v>201</v>
@@ -3807,7 +3804,7 @@
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -3828,7 +3825,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -3849,7 +3846,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
@@ -3866,14 +3863,14 @@
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
       <c r="P5" s="33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q5" s="33"/>
       <c r="R5" s="33"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="T6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
@@ -3916,7 +3913,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
@@ -3939,7 +3936,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
@@ -3948,7 +3945,7 @@
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
       <c r="H14" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I14" s="33"/>
       <c r="J14" s="33"/>
@@ -3956,12 +3953,12 @@
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
       <c r="N14" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
@@ -3986,8 +3983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3302958B-D339-4AFA-82B0-C4FD1E9858AA}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4000,10 +3997,10 @@
         <v>169</v>
       </c>
       <c r="D1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F1" t="s">
-        <v>174</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -4011,20 +4008,17 @@
         <v>170</v>
       </c>
       <c r="D2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>273</v>
-      </c>
-      <c r="F10" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -4061,12 +4055,12 @@
         <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L5" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
@@ -4074,67 +4068,67 @@
         <v>36</v>
       </c>
       <c r="I20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I25" t="s">
+        <v>194</v>
+      </c>
+      <c r="K25" t="s">
         <v>195</v>
-      </c>
-      <c r="K25" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88828040-7EB7-406B-B130-942C6229E9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7DBF41-F8F1-4BDA-BD16-C9450C6669C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
+    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
   <sheets>
     <sheet name="bd" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="292">
   <si>
     <t>email</t>
   </si>
@@ -502,18 +502,12 @@
     <t>*encrypt</t>
   </si>
   <si>
-    <t>non required fields : role*, schedule_id,  department_id, start_date, image_path, iban*, details*</t>
-  </si>
-  <si>
     <t>nif</t>
   </si>
   <si>
     <t>required fields : name*, email(unique), password*, password_confirmed*,</t>
   </si>
   <si>
-    <t>non required fields: role*,nif*,emer_contact*,bi_cc*, company_id, department_id, schedule_id , image_path*</t>
-  </si>
-  <si>
     <t>required fields : name*, email*, nif*</t>
   </si>
   <si>
@@ -910,9 +904,6 @@
     <t>http://127.0.0.1:8000/api/files/{id}</t>
   </si>
   <si>
-    <t>FileController - update</t>
-  </si>
-  <si>
     <t>table: files</t>
   </si>
   <si>
@@ -925,13 +916,25 @@
     <t>file_url</t>
   </si>
   <si>
-    <t>required fields: file_path* , type</t>
-  </si>
-  <si>
     <t>required for location:country*, city*, street*, door_number*, zip_code*</t>
   </si>
   <si>
     <t>tabela FILES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">passport </t>
+  </si>
+  <si>
+    <t>Laravel 7 Passport – Create REST API With Authentication 2021 - YouTube</t>
+  </si>
+  <si>
+    <t>required fields: type, name, path, size</t>
+  </si>
+  <si>
+    <t>non required fields: role*,nif*,emer_contact*,bi_cc*, company_id, department_id, schedule_id , image(file)</t>
+  </si>
+  <si>
+    <t>non required fields : role*, schedule_id,  department_id, start_date, image (file), iban*, details*</t>
   </si>
 </sst>
 </file>
@@ -2140,7 +2143,7 @@
         <v>6</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>68</v>
@@ -2200,7 +2203,7 @@
         <v>93</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="4:17" x14ac:dyDescent="0.3">
@@ -2220,7 +2223,7 @@
         <v>94</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="4:17" x14ac:dyDescent="0.3">
@@ -2243,7 +2246,7 @@
         <v>95</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="4:17" x14ac:dyDescent="0.3">
@@ -2288,7 +2291,7 @@
         <v>55</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="5:11" x14ac:dyDescent="0.3">
@@ -2304,7 +2307,7 @@
     </row>
     <row r="21" spans="5:11" x14ac:dyDescent="0.3">
       <c r="G21" s="37" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -2318,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2213FDCB-CC6B-4563-9ABC-C0A7BD343549}">
   <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2332,7 +2335,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="32" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="31"/>
@@ -2366,7 +2369,7 @@
         <v>201</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -2397,7 +2400,7 @@
         <v>200</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -2425,7 +2428,7 @@
         <v>34</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -2445,7 +2448,7 @@
     </row>
     <row r="7" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="32" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
@@ -2479,7 +2482,7 @@
         <v>201</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -2503,7 +2506,7 @@
         <v>110</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -2518,16 +2521,16 @@
         <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C10" t="s">
         <v>46</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
@@ -2538,7 +2541,7 @@
     </row>
     <row r="14" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A14" s="32" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
@@ -2587,7 +2590,7 @@
         <v>201</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -2596,7 +2599,7 @@
         <v>87</v>
       </c>
       <c r="M16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -2644,7 +2647,7 @@
         <v>46</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E19">
         <v>200</v>
@@ -2694,58 +2697,58 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C22" t="s">
         <v>38</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A28" s="32" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
@@ -2777,7 +2780,7 @@
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -2857,7 +2860,7 @@
         <v>46</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E33">
         <v>200</v>
@@ -2890,7 +2893,7 @@
     </row>
     <row r="37" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A37" s="32" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B37" s="31"/>
       <c r="C37" s="31"/>
@@ -2939,7 +2942,7 @@
         <v>201</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -2966,7 +2969,7 @@
         <v>200</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>147</v>
+        <v>291</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -3004,7 +3007,7 @@
         <v>46</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E42">
         <v>200</v>
@@ -3021,58 +3024,58 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B43" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C43" t="s">
         <v>38</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E43" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B44" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C44" t="s">
         <v>38</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B45" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C45" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A48" s="32" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B48" s="31"/>
       <c r="C48" s="31"/>
@@ -3100,7 +3103,7 @@
         <v>38</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E49" s="6"/>
     </row>
@@ -3115,13 +3118,13 @@
         <v>37</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E50">
         <v>201</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -3129,7 +3132,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="N50" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
@@ -3143,7 +3146,7 @@
         <v>38</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E51">
         <v>200</v>
@@ -3160,7 +3163,7 @@
         <v>44</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E52">
         <v>200</v>
@@ -3177,7 +3180,7 @@
         <v>46</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E53">
         <v>200</v>
@@ -3193,58 +3196,58 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B54" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C54" t="s">
         <v>38</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E54" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B55" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C55" t="s">
         <v>38</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E55" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B56" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C56" t="s">
         <v>37</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E56" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A61" s="32" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B61" s="31"/>
       <c r="C61" s="31"/>
@@ -3347,7 +3350,7 @@
         <v>46</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E66">
         <v>200</v>
@@ -3363,7 +3366,7 @@
     </row>
     <row r="73" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A73" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B73" s="31"/>
       <c r="C73" s="31"/>
@@ -3382,22 +3385,22 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B74" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C74" t="s">
         <v>38</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E74">
         <v>200</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -3409,16 +3412,16 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B75" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C75" t="s">
         <v>37</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E75">
         <v>201</v>
@@ -3434,16 +3437,16 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B76" t="s">
         <v>161</v>
-      </c>
-      <c r="B76" t="s">
-        <v>163</v>
       </c>
       <c r="C76" t="s">
         <v>38</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E76">
         <v>200</v>
@@ -3451,22 +3454,22 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B77" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C77" t="s">
         <v>46</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E77">
         <v>200</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H77" s="18"/>
       <c r="I77" s="18" t="s">
@@ -3476,58 +3479,58 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B78" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C78" t="s">
         <v>38</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E78" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B79" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C79" t="s">
         <v>38</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E79" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B80" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C80" t="s">
         <v>37</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E80" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A84" s="32" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B84" s="31"/>
       <c r="C84" s="31"/>
@@ -3544,22 +3547,22 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B85" t="s">
         <v>263</v>
-      </c>
-      <c r="B85" t="s">
-        <v>265</v>
       </c>
       <c r="C85" t="s">
         <v>38</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E85">
         <v>200</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -3567,10 +3570,10 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -3578,7 +3581,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F87" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -3586,7 +3589,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F88" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -3594,7 +3597,7 @@
     </row>
     <row r="92" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A92" s="32" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B92" s="31"/>
       <c r="C92" s="31"/>
@@ -3611,39 +3614,37 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C93" t="s">
         <v>38</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E93">
         <v>200</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-      <c r="J93" s="1" t="s">
-        <v>217</v>
-      </c>
+      <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C94" t="s">
         <v>37</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E94">
         <v>201</v>
@@ -3659,33 +3660,23 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C95" t="s">
         <v>38</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E95">
         <v>200</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C96" t="s">
-        <v>44</v>
-      </c>
-      <c r="D96" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="E96">
-        <v>200</v>
-      </c>
+      <c r="A96" s="4"/>
+      <c r="D96" s="19"/>
       <c r="G96" s="18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H96" s="18"/>
       <c r="I96" s="18" t="s">
@@ -3695,13 +3686,13 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C97" t="s">
         <v>46</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E97">
         <v>201</v>
@@ -3764,13 +3755,11 @@
     <hyperlink ref="A10" r:id="rId50" xr:uid="{5A34EE6F-B4F0-4773-AA21-A87609069DF1}"/>
     <hyperlink ref="A93" r:id="rId51" xr:uid="{8403F657-0E3E-4735-820E-24EDFD4A2061}"/>
     <hyperlink ref="A94" r:id="rId52" xr:uid="{58A8EB37-E303-4DE6-9767-248667054FB4}"/>
-    <hyperlink ref="A95:A96" r:id="rId53" display="http://127.0.0.1:8000/api/files" xr:uid="{4472F73A-58E7-4AAA-9CFB-B257EB5C74E3}"/>
-    <hyperlink ref="A95" r:id="rId54" xr:uid="{6AFD488A-0F3C-4F73-891C-E8D52C98E678}"/>
-    <hyperlink ref="A96" r:id="rId55" xr:uid="{76E503F1-3135-4FE7-8063-4836220D374D}"/>
-    <hyperlink ref="A97" r:id="rId56" xr:uid="{3D0805BD-A44C-4D4C-9152-827518FEDCFD}"/>
+    <hyperlink ref="A95" r:id="rId53" xr:uid="{6AFD488A-0F3C-4F73-891C-E8D52C98E678}"/>
+    <hyperlink ref="A97" r:id="rId54" xr:uid="{3D0805BD-A44C-4D4C-9152-827518FEDCFD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId57"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId55"/>
 </worksheet>
 </file>
 
@@ -3804,7 +3793,7 @@
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -3825,7 +3814,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -3846,7 +3835,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
@@ -3863,14 +3852,14 @@
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
       <c r="P5" s="33" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q5" s="33"/>
       <c r="R5" s="33"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="T6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
@@ -3913,7 +3902,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
@@ -3936,7 +3925,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
@@ -3945,7 +3934,7 @@
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
       <c r="H14" s="34" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I14" s="33"/>
       <c r="J14" s="33"/>
@@ -3953,12 +3942,12 @@
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
       <c r="N14" s="33" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
@@ -3981,49 +3970,62 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3302958B-D339-4AFA-82B0-C4FD1E9858AA}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>271</v>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A16" r:id="rId1" display="https://www.youtube.com/watch?v=eGQ8j6Yr6HE&amp;ab_channel=EnlightureAcademy" xr:uid="{40109270-8342-4794-8B22-E4804E6A3309}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4055,12 +4057,12 @@
         <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L5" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
@@ -4068,67 +4070,67 @@
         <v>36</v>
       </c>
       <c r="I20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I24" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I27" t="s">
+        <v>195</v>
+      </c>
+      <c r="K27" t="s">
         <v>197</v>
-      </c>
-      <c r="K27" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I29" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K29" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -4153,18 +4155,18 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7DBF41-F8F1-4BDA-BD16-C9450C6669C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1548D4-8AA6-4C20-9C2C-1F3F5100741F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
   <sheets>
     <sheet name="bd" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="294">
   <si>
     <t>email</t>
   </si>
@@ -838,9 +838,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>required fields : name*, email*, nif*, niss*, bicc*, emercontact*, company_id,</t>
-  </si>
-  <si>
     <t>SEARCH ROUTES</t>
   </si>
   <si>
@@ -934,7 +931,16 @@
     <t>non required fields: role*,nif*,emer_contact*,bi_cc*, company_id, department_id, schedule_id , image(file)</t>
   </si>
   <si>
-    <t>non required fields : role*, schedule_id,  department_id, start_date, image (file), iban*, details*</t>
+    <t>non required fields : role*, schedule_id,  department_id, image (file), iban*, details*</t>
+  </si>
+  <si>
+    <t>required fields : name*, email*, nif*, niss*, bicc*, emercontact*, company_id, start_date</t>
+  </si>
+  <si>
+    <t>actualizar locations em employees e companies</t>
+  </si>
+  <si>
+    <t>ao importar os ficheiros, todos os dados importados vão dar o erro payload invalid</t>
   </si>
 </sst>
 </file>
@@ -1605,6 +1611,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>77572</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>53398</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagem 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C386C504-CE97-4134-94A0-B2D179DBB7ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16093440"/>
+          <a:ext cx="9831172" cy="419158"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2143,7 +2193,7 @@
         <v>6</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>68</v>
@@ -2223,7 +2273,7 @@
         <v>94</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="4:17" x14ac:dyDescent="0.3">
@@ -2246,7 +2296,7 @@
         <v>95</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="4:17" x14ac:dyDescent="0.3">
@@ -2307,7 +2357,7 @@
     </row>
     <row r="21" spans="5:11" x14ac:dyDescent="0.3">
       <c r="G21" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -2321,8 +2371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2213FDCB-CC6B-4563-9ABC-C0A7BD343549}">
   <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2335,7 +2385,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="32" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="31"/>
@@ -2400,7 +2450,7 @@
         <v>200</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -2448,7 +2498,7 @@
     </row>
     <row r="7" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
@@ -2521,13 +2571,13 @@
         <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C10" t="s">
         <v>46</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>218</v>
@@ -2780,7 +2830,7 @@
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -2942,7 +2992,7 @@
         <v>201</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -2969,7 +3019,7 @@
         <v>200</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -3530,7 +3580,7 @@
     </row>
     <row r="84" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A84" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B84" s="31"/>
       <c r="C84" s="31"/>
@@ -3547,22 +3597,22 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B85" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C85" t="s">
         <v>38</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E85">
         <v>200</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -3570,10 +3620,10 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
+        <v>263</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -3581,7 +3631,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F87" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -3589,7 +3639,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F88" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -3597,7 +3647,7 @@
     </row>
     <row r="92" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A92" s="32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B92" s="31"/>
       <c r="C92" s="31"/>
@@ -3614,19 +3664,19 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C93" t="s">
         <v>38</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E93">
         <v>200</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -3638,13 +3688,13 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C94" t="s">
         <v>37</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E94">
         <v>201</v>
@@ -3660,13 +3710,13 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C95" t="s">
         <v>38</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E95">
         <v>200</v>
@@ -3676,7 +3726,7 @@
       <c r="A96" s="4"/>
       <c r="D96" s="19"/>
       <c r="G96" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H96" s="18"/>
       <c r="I96" s="18" t="s">
@@ -3686,13 +3736,13 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C97" t="s">
         <v>46</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E97">
         <v>201</v>
@@ -3767,8 +3817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5F5619-C91F-44CF-AE98-3AB9D7129EE3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="M94" sqref="M94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3783,7 +3833,7 @@
   <dimension ref="A2:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3912,7 +3962,9 @@
       <c r="G10" s="33"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="33"/>
+      <c r="A12" s="33" t="s">
+        <v>293</v>
+      </c>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
@@ -3973,7 +4025,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3989,7 +4041,7 @@
         <v>250</v>
       </c>
       <c r="F1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -4000,6 +4052,11 @@
         <v>250</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>292</v>
+      </c>
+    </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>258</v>
@@ -4007,17 +4064,17 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1548D4-8AA6-4C20-9C2C-1F3F5100741F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CBB0E9-B805-4133-9E28-F342C9143E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
   <sheets>
     <sheet name="bd" sheetId="1" r:id="rId1"/>
@@ -947,7 +947,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1003,6 +1003,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1200,7 +1207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1239,6 +1246,7 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -2371,7 +2379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2213FDCB-CC6B-4563-9ABC-C0A7BD343549}">
   <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
@@ -3815,14 +3823,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5F5619-C91F-44CF-AE98-3AB9D7129EE3}">
-  <dimension ref="A1"/>
+  <dimension ref="Q90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="M94" sqref="M94"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="Q90" sqref="Q90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="90" spans="17:17" x14ac:dyDescent="0.3">
+      <c r="Q90" s="38"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4024,8 +4036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3302958B-D339-4AFA-82B0-C4FD1E9858AA}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CBB0E9-B805-4133-9E28-F342C9143E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA08D64-1031-4AF0-B91A-3C46FB91C2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
+    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
   <sheets>
     <sheet name="bd" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <author>tc={6A8E0777-D895-4045-AC71-A21A5DAF5A46}</author>
   </authors>
   <commentList>
-    <comment ref="O3" authorId="0" shapeId="0" xr:uid="{6A8E0777-D895-4045-AC71-A21A5DAF5A46}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{6A8E0777-D895-4045-AC71-A21A5DAF5A46}">
       <text>
         <t>[Comentário por tópicos]
 A sua versão do Excel permite-lhe ler este comentário por tópicos. No entanto, as edições feitas ao comentário serão removidas se o ficheiro for aberto numa versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="295">
   <si>
     <t>email</t>
   </si>
@@ -67,66 +67,9 @@
     <t>password</t>
   </si>
   <si>
-    <t>updated_at</t>
-  </si>
-  <si>
-    <t>id (int)</t>
-  </si>
-  <si>
-    <t>name (string)</t>
-  </si>
-  <si>
-    <t>role (int)</t>
-  </si>
-  <si>
-    <t>created_at (date)</t>
-  </si>
-  <si>
-    <t>empresa_id (int)</t>
-  </si>
-  <si>
-    <t>NIF(string)</t>
-  </si>
-  <si>
-    <t>contacto_emergencia(string)</t>
-  </si>
-  <si>
-    <t>BI_cc (string)</t>
-  </si>
-  <si>
-    <t>1 funcionario tem 1 empresa</t>
-  </si>
-  <si>
-    <t>(posso ir buscar a empresa do funcionario pela empresa_id na tabela users</t>
-  </si>
-  <si>
-    <t>1Funcionario tem varios horarios</t>
-  </si>
-  <si>
-    <t>1Horario tem varios funcionarios</t>
-  </si>
-  <si>
-    <t>1Empresa tem varios funcionários</t>
-  </si>
-  <si>
-    <t>anexos (MEDIUMBLOB  ??) (Tabela pivot com id user e caminho da imagem)</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>id_empresa</t>
-  </si>
-  <si>
-    <t>pais</t>
-  </si>
-  <si>
-    <t>cidade</t>
-  </si>
-  <si>
     <t>laravel-frontend-presets/tall: A TALL (Tailwind CSS, Alpine.js, Laravel and Livewire) Preset for Laravel (github.com)</t>
   </si>
   <si>
@@ -136,12 +79,6 @@
     <t>global scope</t>
   </si>
   <si>
-    <t>Departamento_id</t>
-  </si>
-  <si>
-    <t>Localizações_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">postman routes com middleware </t>
   </si>
   <si>
@@ -223,9 +160,6 @@
     <t>required fields : name, company_id</t>
   </si>
   <si>
-    <t>Users</t>
-  </si>
-  <si>
     <t>start_date</t>
   </si>
   <si>
@@ -247,21 +181,12 @@
     <t>http://127.0.0.1:8000/api/employees/{id}</t>
   </si>
   <si>
-    <t>Companies</t>
-  </si>
-  <si>
-    <t>Tenants</t>
-  </si>
-  <si>
     <t>tenant_id</t>
   </si>
   <si>
     <t>company_id</t>
   </si>
   <si>
-    <t>TODO</t>
-  </si>
-  <si>
     <t>street</t>
   </si>
   <si>
@@ -277,24 +202,6 @@
     <t>department_id</t>
   </si>
   <si>
-    <t>id_funcionario</t>
-  </si>
-  <si>
-    <t>shift_start (time)</t>
-  </si>
-  <si>
-    <t>shift_end (time)</t>
-  </si>
-  <si>
-    <t>start_time(date)</t>
-  </si>
-  <si>
-    <t>end_time (date)</t>
-  </si>
-  <si>
-    <t>shift_type(string)</t>
-  </si>
-  <si>
     <t>http://127.0.0.1:8000/api/schedules</t>
   </si>
   <si>
@@ -340,9 +247,6 @@
     <t>image_id</t>
   </si>
   <si>
-    <t>Images</t>
-  </si>
-  <si>
     <t>user_id</t>
   </si>
   <si>
@@ -481,24 +385,12 @@
     <t>edit user</t>
   </si>
   <si>
-    <t>total_shift(time)auto</t>
-  </si>
-  <si>
-    <t>clockpointentry</t>
-  </si>
-  <si>
     <t>companies_tenant</t>
   </si>
   <si>
-    <t>department</t>
-  </si>
-  <si>
     <t>locations</t>
   </si>
   <si>
-    <t>Employees</t>
-  </si>
-  <si>
     <t>*encrypt</t>
   </si>
   <si>
@@ -814,9 +706,6 @@
     <t>??</t>
   </si>
   <si>
-    <t>Files</t>
-  </si>
-  <si>
     <t>exportar para ficheiros xlsx com cabeçalhos ou sem cabeçalhos ??</t>
   </si>
   <si>
@@ -910,9 +799,6 @@
     <t>file_id</t>
   </si>
   <si>
-    <t>file_url</t>
-  </si>
-  <si>
     <t>required for location:country*, city*, street*, door_number*, zip_code*</t>
   </si>
   <si>
@@ -940,38 +826,134 @@
     <t>actualizar locations em employees e companies</t>
   </si>
   <si>
-    <t>ao importar os ficheiros, todos os dados importados vão dar o erro payload invalid</t>
+    <t>schedule_id</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>emer_contact</t>
+  </si>
+  <si>
+    <t>bi_cc</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>softdelete</t>
+  </si>
+  <si>
+    <t>niss</t>
+  </si>
+  <si>
+    <t>iban</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>emercontact</t>
+  </si>
+  <si>
+    <t>bicc</t>
+  </si>
+  <si>
+    <t>location_id</t>
+  </si>
+  <si>
+    <t>departments</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>door_number</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>images</t>
+  </si>
+  <si>
+    <t>shift_start</t>
+  </si>
+  <si>
+    <t>shift_end</t>
+  </si>
+  <si>
+    <t>shift_total</t>
+  </si>
+  <si>
+    <t>shift_type</t>
+  </si>
+  <si>
+    <t>files</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>clockpointentries</t>
+  </si>
+  <si>
+    <t>clock_in</t>
+  </si>
+  <si>
+    <t>clock_out</t>
+  </si>
+  <si>
+    <t>controller:</t>
+  </si>
+  <si>
+    <t>AdminController (index,store,show,update,delete)</t>
+  </si>
+  <si>
+    <t>AuthController (register,login.logout)</t>
+  </si>
+  <si>
+    <t>EmployeeController (index,store,show,update,delete)</t>
+  </si>
+  <si>
+    <t>side notes:</t>
+  </si>
+  <si>
+    <t>tenant_id created at register</t>
+  </si>
+  <si>
+    <t>create employee or company will create a new location</t>
+  </si>
+  <si>
+    <t>create employee or company can create a new image if submitted</t>
+  </si>
+  <si>
+    <t>Images storage in public/storage/images</t>
+  </si>
+  <si>
+    <t>Files storage in public/storage/files</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1014,8 +996,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1070,14 +1095,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1122,131 +1141,38 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -2018,7 +1944,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="O3" dT="2022-03-14T16:22:43.43" personId="{70FF1F42-AF52-4167-91A9-F45B0415295F}" id="{6A8E0777-D895-4045-AC71-A21A5DAF5A46}">
+  <threadedComment ref="Q1" dT="2022-03-14T16:22:43.43" personId="{70FF1F42-AF52-4167-91A9-F45B0415295F}" id="{6A8E0777-D895-4045-AC71-A21A5DAF5A46}">
     <text>Pensar nos intervalos Intervalos</text>
   </threadedComment>
 </ThreadedComments>
@@ -2026,346 +1952,427 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D199D9-B8D8-4350-8A96-21EEBB5AF420}">
-  <dimension ref="D2:Q21"/>
+  <dimension ref="B1:U28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.88671875" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.109375" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="61.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.21875" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" customWidth="1"/>
-    <col min="15" max="15" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="1.44140625" customWidth="1"/>
-    <col min="17" max="17" width="62.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.44140625" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.77734375" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" customWidth="1"/>
+    <col min="14" max="14" width="2.21875" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.21875" customWidth="1"/>
+    <col min="17" max="17" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2" customWidth="1"/>
+    <col min="19" max="19" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.88671875" customWidth="1"/>
+    <col min="21" max="21" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="E3" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I3" s="7" t="s">
+    <row r="1" spans="2:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="Q1" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="C3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="U3" s="19" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="C4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="U4" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="E5" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q5" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="U5" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="E6" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="O6" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="M3" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="E4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E6" s="8" t="s">
+      <c r="Q6" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="U6" s="17" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="E7" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="S7" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="U7" s="17" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>289</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="K8" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="S8" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="U8" s="17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="S9" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="U9" s="17" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>291</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="14" t="s">
+      <c r="G10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q10" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="S10" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="U10" s="17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>292</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="M11" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="O11" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q11" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>293</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q12" s="17" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>294</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q13" s="17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="E14" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="E15" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="E16" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="E17" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G18" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="5:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="E19" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="E20" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="I20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="M7" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="E8" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="E9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="E10" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="E11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="5"/>
-      <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M13" s="17" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="14" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="E14" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="M14" s="17" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="15" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="M15" s="17" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="16" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="E16" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E17" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="G21" s="37" t="s">
-        <v>282</v>
+    </row>
+    <row r="21" spans="5:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="E21" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I22" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="I23" s="17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="G27" s="21" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="G28" s="21" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -2379,7 +2386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2213FDCB-CC6B-4563-9ABC-C0A7BD343549}">
   <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
@@ -2392,42 +2399,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
+      <c r="A1" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>28</v>
+      <c r="A2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="E2">
         <v>201</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -2438,27 +2445,27 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="P2" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>30</v>
+      <c r="A3" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>31</v>
+        <v>16</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="E3">
         <v>200</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>289</v>
+        <v>251</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -2470,77 +2477,77 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>32</v>
+      <c r="A4" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>33</v>
+        <v>16</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="K4" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="D5" s="19"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
+      <c r="A5" s="2"/>
+      <c r="D5" s="8"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
     <row r="7" spans="1:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="A7" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
+      <c r="A7" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>107</v>
+      <c r="A8" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="30">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="9">
         <v>201</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -2551,20 +2558,20 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>109</v>
+      <c r="A9" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>110</v>
+        <v>23</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -2575,270 +2582,270 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>109</v>
+      <c r="A10" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="B10" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="K10" s="18"/>
+        <v>25</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="7"/>
     </row>
     <row r="14" spans="1:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="A14" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
+      <c r="A14" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>39</v>
+      <c r="A15" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>39</v>
+      <c r="A16" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>41</v>
+        <v>16</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="E16">
         <v>201</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="M16" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>42</v>
+      <c r="A17" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>43</v>
+        <v>17</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="E17">
         <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>42</v>
+      <c r="A18" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>45</v>
+        <v>23</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="E18">
         <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>42</v>
+      <c r="A19" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>158</v>
+        <v>25</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="E19">
         <v>200</v>
       </c>
-      <c r="G19" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="J19" s="18"/>
+      <c r="G19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>98</v>
+      <c r="A20" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>99</v>
+        <v>16</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="E20">
         <v>200</v>
       </c>
       <c r="F20" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>101</v>
+      <c r="A21" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>102</v>
+        <v>16</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="E21">
         <v>200</v>
       </c>
       <c r="F21" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>177</v>
+      <c r="A22" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="B22" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>181</v>
+        <v>17</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="E22" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>184</v>
+      <c r="A23" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="B23" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>182</v>
+        <v>17</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="E23" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>185</v>
+      <c r="A24" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="B24" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>183</v>
+        <v>16</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="E24" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A28" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
+      <c r="A28" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>48</v>
+      <c r="A29" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="4"/>
       <c r="F29" s="1" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -2847,160 +2854,160 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>48</v>
+      <c r="A30" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>50</v>
+        <v>16</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="E30">
         <v>201</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>47</v>
+      <c r="A31" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>51</v>
+        <v>17</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E31">
         <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>47</v>
+      <c r="A32" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>52</v>
+        <v>23</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="E32">
         <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>47</v>
+      <c r="A33" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>157</v>
+        <v>25</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="E33">
         <v>200</v>
       </c>
-      <c r="G33" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="J33" s="18"/>
+      <c r="G33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J33" s="7"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>104</v>
+      <c r="A34" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>105</v>
+        <v>16</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="E34">
         <v>200</v>
       </c>
       <c r="F34" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A37" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
+      <c r="A37" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>60</v>
+      <c r="A38" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>57</v>
+        <v>16</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="E39">
         <v>201</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -3011,23 +3018,23 @@
       <c r="M39" s="1"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>61</v>
+      <c r="A40" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>58</v>
+        <v>17</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="E40">
         <v>200</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -3038,151 +3045,151 @@
       <c r="M40" s="1"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>61</v>
+      <c r="A41" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>59</v>
+        <v>23</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="E41">
         <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>61</v>
+      <c r="A42" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>156</v>
+        <v>25</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="E42">
         <v>200</v>
       </c>
-      <c r="G42" s="18" t="s">
+      <c r="G42" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="K42" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L42" s="7"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B43" t="s">
+        <v>205</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B44" t="s">
+        <v>206</v>
+      </c>
+      <c r="C44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B45" t="s">
+        <v>207</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E45" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+      <c r="A48" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" t="s">
         <v>97</v>
       </c>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="K42" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="L42" s="18"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B43" t="s">
-        <v>241</v>
-      </c>
-      <c r="C43" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="E43" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="B44" t="s">
-        <v>242</v>
-      </c>
-      <c r="C44" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="E44" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="B45" t="s">
-        <v>243</v>
-      </c>
-      <c r="C45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="E45" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A48" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="31"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B49" t="s">
-        <v>129</v>
-      </c>
       <c r="C49" t="s">
-        <v>38</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="E49" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>69</v>
+      <c r="A50" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s">
-        <v>37</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>207</v>
+        <v>16</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="E50">
         <v>201</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -3190,171 +3197,171 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="N50" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>70</v>
+      <c r="A51" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>208</v>
+        <v>17</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="E51">
         <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>70</v>
+      <c r="A52" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="C52" t="s">
-        <v>44</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>209</v>
+        <v>23</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="E52">
         <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>70</v>
+      <c r="A53" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B53" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="C53" t="s">
-        <v>46</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>210</v>
+        <v>25</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="E53">
         <v>200</v>
       </c>
-      <c r="G53" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="J53" s="18"/>
+      <c r="G53" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J53" s="7"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
-        <v>200</v>
+      <c r="A54" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="B54" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="C54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>211</v>
+        <v>17</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="E54" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>201</v>
+      <c r="A55" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="B55" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="C55" t="s">
-        <v>38</v>
-      </c>
-      <c r="D55" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E55" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E56" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+      <c r="A61" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="E55" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B56" t="s">
-        <v>205</v>
-      </c>
-      <c r="C56" t="s">
-        <v>37</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="E56" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A61" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="31"/>
-      <c r="L61" s="31"/>
-      <c r="M61" s="31"/>
-      <c r="N61" s="31"/>
-      <c r="O61" s="31"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>78</v>
+      <c r="A62" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B62" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="C62" t="s">
-        <v>38</v>
-      </c>
-      <c r="D62" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E62" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
-        <v>78</v>
+      <c r="A63" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B63" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="C63" t="s">
-        <v>37</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>81</v>
+        <v>16</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="E63">
         <v>201</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -3364,101 +3371,101 @@
       <c r="L63" s="1"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
-        <v>79</v>
+      <c r="A64" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B64" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="C64" t="s">
-        <v>38</v>
-      </c>
-      <c r="D64" s="19" t="s">
-        <v>82</v>
+        <v>17</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="E64">
         <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
-        <v>79</v>
+      <c r="A65" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="C65" t="s">
-        <v>44</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>83</v>
+        <v>23</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="E65">
         <v>200</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
-        <v>79</v>
+      <c r="A66" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B66" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="C66" t="s">
-        <v>46</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>155</v>
+        <v>25</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="E66">
         <v>200</v>
       </c>
-      <c r="G66" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="J66" s="18"/>
+      <c r="G66" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J66" s="7"/>
     </row>
     <row r="73" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A73" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="31"/>
-      <c r="F73" s="31"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="31"/>
-      <c r="J73" s="31"/>
-      <c r="K73" s="31"/>
-      <c r="L73" s="31"/>
-      <c r="M73" s="31"/>
-      <c r="N73" s="31"/>
-      <c r="O73" s="31"/>
+      <c r="A73" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="10"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
-        <v>150</v>
+      <c r="A74" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="B74" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="C74" t="s">
-        <v>38</v>
-      </c>
-      <c r="D74" s="19" t="s">
-        <v>228</v>
+        <v>17</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="E74">
         <v>200</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -3469,17 +3476,17 @@
       <c r="M74" s="1"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
-        <v>150</v>
+      <c r="A75" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="B75" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="C75" t="s">
-        <v>37</v>
-      </c>
-      <c r="D75" s="19" t="s">
-        <v>229</v>
+        <v>16</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="E75">
         <v>201</v>
@@ -3494,133 +3501,133 @@
       <c r="M75" s="1"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
-        <v>159</v>
+      <c r="A76" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="B76" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="C76" t="s">
-        <v>38</v>
-      </c>
-      <c r="D76" s="19" t="s">
-        <v>230</v>
+        <v>17</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="E76">
         <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
-        <v>159</v>
+      <c r="A77" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="B77" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="C77" t="s">
-        <v>46</v>
-      </c>
-      <c r="D77" s="19" t="s">
-        <v>231</v>
+        <v>25</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="E77">
         <v>200</v>
       </c>
-      <c r="G77" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="H77" s="18"/>
-      <c r="I77" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="J77" s="18"/>
+      <c r="G77" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J77" s="7"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B78" t="s">
+        <v>189</v>
+      </c>
+      <c r="C78" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E78" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B79" t="s">
+        <v>190</v>
+      </c>
+      <c r="C79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E79" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B80" t="s">
+        <v>191</v>
+      </c>
+      <c r="C80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E80" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="A84" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="10"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="10"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B85" t="s">
         <v>225</v>
       </c>
-      <c r="C78" t="s">
-        <v>38</v>
-      </c>
-      <c r="D78" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="E78" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B79" t="s">
-        <v>226</v>
-      </c>
-      <c r="C79" t="s">
-        <v>38</v>
-      </c>
-      <c r="D79" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="E79" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
+      <c r="C85" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="B80" t="s">
-        <v>227</v>
-      </c>
-      <c r="C80" t="s">
-        <v>37</v>
-      </c>
-      <c r="D80" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="E80" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A84" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="B84" s="31"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="31"/>
-      <c r="I84" s="31"/>
-      <c r="J84" s="31"/>
-      <c r="K84" s="31"/>
-      <c r="L84" s="31"/>
-      <c r="M84" s="31"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B85" t="s">
-        <v>262</v>
-      </c>
-      <c r="C85" t="s">
-        <v>38</v>
-      </c>
-      <c r="D85" s="19" t="s">
-        <v>261</v>
       </c>
       <c r="E85">
         <v>200</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -3628,10 +3635,10 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -3639,7 +3646,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F87" s="1" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -3647,44 +3654,44 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F88" s="1" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
     <row r="92" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A92" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="B92" s="31"/>
-      <c r="C92" s="31"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="31"/>
-      <c r="K92" s="31"/>
-      <c r="L92" s="31"/>
-      <c r="M92" s="31"/>
+      <c r="A92" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="10"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
-        <v>274</v>
+      <c r="A93" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="C93" t="s">
-        <v>38</v>
-      </c>
-      <c r="D93" s="19" t="s">
-        <v>275</v>
+        <v>17</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>238</v>
       </c>
       <c r="E93">
         <v>200</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -3695,14 +3702,14 @@
       <c r="M93" s="1"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
-        <v>274</v>
+      <c r="A94" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="C94" t="s">
-        <v>37</v>
-      </c>
-      <c r="D94" s="19" t="s">
-        <v>276</v>
+        <v>16</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>239</v>
       </c>
       <c r="E94">
         <v>201</v>
@@ -3717,47 +3724,47 @@
       <c r="M94" s="1"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
-        <v>279</v>
+      <c r="A95" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="C95" t="s">
-        <v>38</v>
-      </c>
-      <c r="D95" s="19" t="s">
-        <v>277</v>
+        <v>17</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="E95">
         <v>200</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A96" s="4"/>
-      <c r="D96" s="19"/>
-      <c r="G96" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="H96" s="18"/>
-      <c r="I96" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="J96" s="18"/>
+      <c r="A96" s="2"/>
+      <c r="D96" s="8"/>
+      <c r="G96" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J96" s="7"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
-        <v>279</v>
+      <c r="A97" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="C97" t="s">
-        <v>46</v>
-      </c>
-      <c r="D97" s="19" t="s">
-        <v>278</v>
+        <v>25</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="E97">
         <v>201</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G99" s="36"/>
+      <c r="G99" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3825,14 +3832,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5F5619-C91F-44CF-AE98-3AB9D7129EE3}">
   <dimension ref="Q90"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="Q90" sqref="Q90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="90" spans="17:17" x14ac:dyDescent="0.3">
-      <c r="Q90" s="38"/>
+      <c r="Q90" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3844,7 +3851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122B7B63-70E1-4776-B60F-F0C2CAFC3214}">
   <dimension ref="A2:T16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -3854,175 +3861,173 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
+      <c r="A2" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
+      <c r="A3" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
+      <c r="A5" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="T6" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
+      <c r="A10" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
-        <v>293</v>
-      </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33" t="s">
-        <v>250</v>
+      <c r="A14" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
+      <c r="A16" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4036,7 +4041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3302958B-D339-4AFA-82B0-C4FD1E9858AA}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -4044,49 +4049,49 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="C1" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="D1" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="F1" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>286</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>287</v>
+      <c r="A16" s="2" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -4109,97 +4114,97 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>22</v>
+      <c r="A1" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="L4" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L5" s="4" t="s">
-        <v>256</v>
+      <c r="L5" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="4" t="s">
-        <v>36</v>
+      <c r="B20" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="4" t="s">
-        <v>221</v>
+      <c r="B21" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="K21" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I22" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K23" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I24" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I25" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="K25" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I26" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I27" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="K27" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I28" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="K28" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I29" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="K29" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -4223,19 +4228,19 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>162</v>
+      <c r="A1" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="I1" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>170</v>
+      <c r="A2" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="I2" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA08D64-1031-4AF0-B91A-3C46FB91C2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBBE5B6-C26B-4D96-939A-CD5ABD0D66E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="1" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
   <sheets>
     <sheet name="bd" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="293">
   <si>
     <t>email</t>
   </si>
@@ -721,9 +721,6 @@
     <t>Theta Labs / laravel-database-encryption · GitLab</t>
   </si>
   <si>
-    <t>Para fazer o search, os campos estão encriptados. Usar blind index para depois fazer search no campos blind_index?</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -800,9 +797,6 @@
   </si>
   <si>
     <t>required for location:country*, city*, street*, door_number*, zip_code*</t>
-  </si>
-  <si>
-    <t>tabela FILES</t>
   </si>
   <si>
     <t xml:space="preserve">passport </t>
@@ -1991,31 +1985,31 @@
         <v>132</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>109</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q3" s="19" t="s">
         <v>131</v>
       </c>
       <c r="S3" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="U3" s="19" t="s">
         <v>280</v>
-      </c>
-      <c r="U3" s="19" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="18" x14ac:dyDescent="0.35">
@@ -2058,13 +2052,13 @@
         <v>41</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K5" s="24" t="s">
         <v>41</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O5" s="17" t="s">
         <v>63</v>
@@ -2073,7 +2067,7 @@
         <v>41</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U5" s="17" t="s">
         <v>63</v>
@@ -2087,13 +2081,13 @@
         <v>46</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O6" s="17" t="s">
         <v>62</v>
@@ -2105,15 +2099,15 @@
         <v>14</v>
       </c>
       <c r="U6" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="E7" s="17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>14</v>
@@ -2122,24 +2116,24 @@
         <v>14</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O7" s="17" t="s">
         <v>14</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="S7" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="U7" s="17" t="s">
         <v>281</v>
-      </c>
-      <c r="U7" s="17" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="8" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>61</v>
@@ -2151,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M8" s="17" t="s">
         <v>42</v>
@@ -2160,50 +2154,50 @@
         <v>64</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="S8" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="U8" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>111</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="S9" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="U9" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>0</v>
@@ -2212,27 +2206,27 @@
         <v>14</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M10" s="17" t="s">
         <v>43</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="Q10" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="S10" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="U10" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>1</v>
@@ -2241,38 +2235,38 @@
         <v>0</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O11" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>111</v>
@@ -2281,50 +2275,50 @@
         <v>111</v>
       </c>
       <c r="Q13" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="E14" s="17" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="E15" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="E16" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="5:9" ht="18" x14ac:dyDescent="0.35">
       <c r="E17" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="5:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G18" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="5:9" ht="18" x14ac:dyDescent="0.35">
       <c r="E19" s="20" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>33</v>
@@ -2335,10 +2329,10 @@
     </row>
     <row r="20" spans="5:9" ht="18" x14ac:dyDescent="0.35">
       <c r="E20" s="20" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>2</v>
@@ -2346,10 +2340,10 @@
     </row>
     <row r="21" spans="5:9" ht="18" x14ac:dyDescent="0.35">
       <c r="E21" s="20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I21" s="25" t="s">
         <v>41</v>
@@ -2362,17 +2356,17 @@
     </row>
     <row r="23" spans="5:9" ht="18" x14ac:dyDescent="0.35">
       <c r="I23" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="5:9" ht="18" x14ac:dyDescent="0.35">
       <c r="G27" s="21" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="5:9" ht="18" x14ac:dyDescent="0.35">
       <c r="G28" s="21" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2386,7 +2380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2213FDCB-CC6B-4563-9ABC-C0A7BD343549}">
   <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
@@ -2400,7 +2394,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="10"/>
@@ -2465,7 +2459,7 @@
         <v>200</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -2513,7 +2507,7 @@
     </row>
     <row r="7" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -2586,13 +2580,13 @@
         <v>77</v>
       </c>
       <c r="B10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>182</v>
@@ -2845,7 +2839,7 @@
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -3007,7 +3001,7 @@
         <v>201</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -3034,7 +3028,7 @@
         <v>200</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -3595,7 +3589,7 @@
     </row>
     <row r="84" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A84" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -3612,22 +3606,22 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B85" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C85" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E85">
         <v>200</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -3635,10 +3629,10 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
+        <v>225</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -3646,7 +3640,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F87" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -3654,7 +3648,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F88" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -3662,7 +3656,7 @@
     </row>
     <row r="92" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A92" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -3679,19 +3673,19 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C93" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E93">
         <v>200</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -3703,13 +3697,13 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C94" t="s">
         <v>16</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E94">
         <v>201</v>
@@ -3725,13 +3719,13 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C95" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E95">
         <v>200</v>
@@ -3741,7 +3735,7 @@
       <c r="A96" s="2"/>
       <c r="D96" s="8"/>
       <c r="G96" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H96" s="7"/>
       <c r="I96" s="7" t="s">
@@ -3751,13 +3745,13 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C97" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E97">
         <v>201</v>
@@ -3851,8 +3845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122B7B63-70E1-4776-B60F-F0C2CAFC3214}">
   <dimension ref="A2:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4015,9 +4009,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>220</v>
-      </c>
+      <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -4042,7 +4034,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4057,9 +4049,6 @@
       <c r="D1" t="s">
         <v>214</v>
       </c>
-      <c r="F1" t="s">
-        <v>247</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
@@ -4071,27 +4060,27 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBBE5B6-C26B-4D96-939A-CD5ABD0D66E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF198F5-3FF9-43A6-80F4-576DE7A17E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="1" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="294">
   <si>
     <t>email</t>
   </si>
@@ -938,6 +938,9 @@
   </si>
   <si>
     <t>Files storage in public/storage/files</t>
+  </si>
+  <si>
+    <t>adicionar email a departamentos</t>
   </si>
 </sst>
 </file>
@@ -2380,7 +2383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2213FDCB-CC6B-4563-9ABC-C0A7BD343549}">
   <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
@@ -4031,10 +4034,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3302958B-D339-4AFA-82B0-C4FD1E9858AA}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B10"/>
+      <selection activeCell="A15" sqref="A15:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4072,23 +4075,13 @@
       <c r="A10" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>247</v>
+      <c r="F10" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A16" r:id="rId1" display="https://www.youtube.com/watch?v=eGQ8j6Yr6HE&amp;ab_channel=EnlightureAcademy" xr:uid="{40109270-8342-4794-8B22-E4804E6A3309}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4097,7 +4090,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4128,6 +4121,16 @@
         <v>219</v>
       </c>
     </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J10" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>15</v>
@@ -4202,9 +4205,10 @@
     <hyperlink ref="B20" r:id="rId2" display="https://bitbucket.org/hugoresende27/rel_ponto/src/master/" xr:uid="{0AD8141D-EE77-4C68-8B56-353C72017627}"/>
     <hyperlink ref="B21" r:id="rId3" location="successful_responses" display="https://developer.mozilla.org/en-US/docs/Web/HTTP/Status - successful_responses" xr:uid="{A7FED2DA-8636-4303-A754-FB9C759F03CF}"/>
     <hyperlink ref="L5" r:id="rId4" display="https://gitlab.com/ThetaLabs/laravel-database-encryption" xr:uid="{A28F744F-4303-41F9-BBEC-0A6CBF62A84E}"/>
+    <hyperlink ref="J10" r:id="rId5" display="https://www.youtube.com/watch?v=eGQ8j6Yr6HE&amp;ab_channel=EnlightureAcademy" xr:uid="{40109270-8342-4794-8B22-E4804E6A3309}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF198F5-3FF9-43A6-80F4-576DE7A17E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BA5854-A21B-418D-B1AB-D58C77313A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="1" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="4" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
   <sheets>
     <sheet name="bd" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="295">
   <si>
     <t>email</t>
   </si>
@@ -941,6 +941,9 @@
   </si>
   <si>
     <t>adicionar email a departamentos</t>
+  </si>
+  <si>
+    <t>mostrar tenant name</t>
   </si>
 </sst>
 </file>
@@ -2383,7 +2386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2213FDCB-CC6B-4563-9ABC-C0A7BD343549}">
   <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
@@ -4036,8 +4039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3302958B-D339-4AFA-82B0-C4FD1E9858AA}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4069,6 +4072,11 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BA5854-A21B-418D-B1AB-D58C77313A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C50820-2E22-4B79-AF64-9CF99D790CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="4" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="296">
   <si>
     <t>email</t>
   </si>
@@ -944,6 +944,9 @@
   </si>
   <si>
     <t>mostrar tenant name</t>
+  </si>
+  <si>
+    <t>moradas campos todos required??</t>
   </si>
 </sst>
 </file>
@@ -4037,10 +4040,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3302958B-D339-4AFA-82B0-C4FD1E9858AA}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4085,6 +4088,11 @@
       </c>
       <c r="F10" t="s">
         <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C50820-2E22-4B79-AF64-9CF99D790CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05293BB6-9E49-4118-A00C-08BDC1A678AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="4" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="1" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
   <sheets>
     <sheet name="bd" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="297">
   <si>
     <t>email</t>
   </si>
@@ -811,9 +811,6 @@
     <t>non required fields: role*,nif*,emer_contact*,bi_cc*, company_id, department_id, schedule_id , image(file)</t>
   </si>
   <si>
-    <t>non required fields : role*, schedule_id,  department_id, image (file), iban*, details*</t>
-  </si>
-  <si>
     <t>required fields : name*, email*, nif*, niss*, bicc*, emercontact*, company_id, start_date</t>
   </si>
   <si>
@@ -940,13 +937,19 @@
     <t>Files storage in public/storage/files</t>
   </si>
   <si>
-    <t>adicionar email a departamentos</t>
-  </si>
-  <si>
     <t>mostrar tenant name</t>
   </si>
   <si>
     <t>moradas campos todos required??</t>
+  </si>
+  <si>
+    <t>non required: file</t>
+  </si>
+  <si>
+    <t>non required fields : role*, schedule_id,  department_id, image (file), iban*, details*, file(file)</t>
+  </si>
+  <si>
+    <t>non required: file (file)</t>
   </si>
 </sst>
 </file>
@@ -1994,31 +1997,31 @@
         <v>132</v>
       </c>
       <c r="E3" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>268</v>
-      </c>
       <c r="I3" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>109</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q3" s="19" t="s">
         <v>131</v>
       </c>
       <c r="S3" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="U3" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="18" x14ac:dyDescent="0.35">
@@ -2061,7 +2064,7 @@
         <v>41</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K5" s="24" t="s">
         <v>41</v>
@@ -2096,7 +2099,7 @@
         <v>244</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O6" s="17" t="s">
         <v>62</v>
@@ -2113,10 +2116,10 @@
     </row>
     <row r="7" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="E7" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>14</v>
@@ -2125,7 +2128,7 @@
         <v>14</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O7" s="17" t="s">
         <v>14</v>
@@ -2134,15 +2137,15 @@
         <v>244</v>
       </c>
       <c r="S7" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="U7" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>61</v>
@@ -2154,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M8" s="17" t="s">
         <v>42</v>
@@ -2163,18 +2166,18 @@
         <v>64</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="S8" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="U8" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>14</v>
@@ -2186,27 +2189,27 @@
         <v>111</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M9" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="O9" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="O9" s="17" t="s">
-        <v>272</v>
-      </c>
       <c r="Q9" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S9" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="U9" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>0</v>
@@ -2215,27 +2218,27 @@
         <v>14</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M10" s="17" t="s">
         <v>43</v>
       </c>
       <c r="O10" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q10" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="S10" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="Q10" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="S10" s="17" t="s">
-        <v>258</v>
-      </c>
       <c r="U10" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>1</v>
@@ -2244,38 +2247,38 @@
         <v>0</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M11" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O11" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="O11" s="17" t="s">
-        <v>258</v>
-      </c>
       <c r="Q11" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>111</v>
@@ -2284,50 +2287,50 @@
         <v>111</v>
       </c>
       <c r="Q13" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="E14" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="E15" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="E16" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="5:9" ht="18" x14ac:dyDescent="0.35">
       <c r="E17" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="5:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G18" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="5:9" ht="18" x14ac:dyDescent="0.35">
       <c r="E19" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>33</v>
@@ -2338,10 +2341,10 @@
     </row>
     <row r="20" spans="5:9" ht="18" x14ac:dyDescent="0.35">
       <c r="E20" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>2</v>
@@ -2349,10 +2352,10 @@
     </row>
     <row r="21" spans="5:9" ht="18" x14ac:dyDescent="0.35">
       <c r="E21" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I21" s="25" t="s">
         <v>41</v>
@@ -2365,17 +2368,17 @@
     </row>
     <row r="23" spans="5:9" ht="18" x14ac:dyDescent="0.35">
       <c r="I23" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="5:9" ht="18" x14ac:dyDescent="0.35">
       <c r="G27" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28" spans="5:9" ht="18" x14ac:dyDescent="0.35">
       <c r="G28" s="21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -2389,8 +2392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2213FDCB-CC6B-4563-9ABC-C0A7BD343549}">
   <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2686,6 +2689,10 @@
       <c r="E17">
         <v>200</v>
       </c>
+      <c r="F17" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
@@ -2899,6 +2906,10 @@
       <c r="E31">
         <v>200</v>
       </c>
+      <c r="F31" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
@@ -3010,7 +3021,7 @@
         <v>201</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -3037,7 +3048,7 @@
         <v>200</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>250</v>
+        <v>295</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -3063,6 +3074,10 @@
       <c r="E41">
         <v>200</v>
       </c>
+      <c r="F41" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
@@ -3219,6 +3234,10 @@
       <c r="E51">
         <v>200</v>
       </c>
+      <c r="F51" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
@@ -3389,6 +3408,10 @@
       <c r="E64">
         <v>200</v>
       </c>
+      <c r="F64" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
@@ -4042,8 +4065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3302958B-D339-4AFA-82B0-C4FD1E9858AA}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="F10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4069,7 +4092,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -4079,20 +4102,17 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>230</v>
       </c>
-      <c r="F10" t="s">
-        <v>293</v>
-      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05293BB6-9E49-4118-A00C-08BDC1A678AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C703BC9C-08AA-4A6A-9BBA-712950CCBE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="1" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
   <sheets>
     <sheet name="bd" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="300">
   <si>
     <t>email</t>
   </si>
@@ -472,9 +472,6 @@
     <t>Os imports e exports devem conter as foreings keys ? Ou seja quando importo ou exporto Employees.xlsx ou csv os campos tenant_id, company_id etc tbm são importados e exportados?</t>
   </si>
   <si>
-    <t>o employee ao ser criado vai criar uma entrada na tabela locations. Para fazer update do employee, posso mudar o location id ou criar uma nova location?</t>
-  </si>
-  <si>
     <t>table: users, images, locations</t>
   </si>
   <si>
@@ -613,9 +610,6 @@
     <t>ao exportar e importar as foreigns keys, se as chaves do ficheiro não existirem na bd dá erro de constrain foreign key, seria melhor não exportar as foreign keys?</t>
   </si>
   <si>
-    <t>Criar um metodo separado para atualizar a location do employee?</t>
-  </si>
-  <si>
     <t>HTTP response status codes - HTTP | MDN (mozilla.org)</t>
   </si>
   <si>
@@ -950,13 +944,28 @@
   </si>
   <si>
     <t>non required: file (file)</t>
+  </si>
+  <si>
+    <t>FACTORY TINKER</t>
+  </si>
+  <si>
+    <t>\App\Models\User::factory()-&gt;count(2)-&gt;create();</t>
+  </si>
+  <si>
+    <t>files_rel</t>
+  </si>
+  <si>
+    <t>?????</t>
+  </si>
+  <si>
+    <t>uma tabela para pivot files_related com o file_id e terá ou company_id, ou employee_id ou department_id, ou location_id, etc, podendo vários ficheiros relacionarem -se com varias entidades???</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1044,6 +1053,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF232629"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1152,7 +1167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1179,6 +1194,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -1960,8 +1976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D199D9-B8D8-4350-8A96-21EEBB5AF420}">
   <dimension ref="B1:U28"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1997,31 +2013,31 @@
         <v>132</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>109</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Q3" s="19" t="s">
         <v>131</v>
       </c>
       <c r="S3" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="U3" s="19" t="s">
         <v>277</v>
-      </c>
-      <c r="U3" s="19" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="18" x14ac:dyDescent="0.35">
@@ -2064,13 +2080,13 @@
         <v>41</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K5" s="24" t="s">
         <v>41</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O5" s="17" t="s">
         <v>63</v>
@@ -2079,7 +2095,7 @@
         <v>41</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="U5" s="17" t="s">
         <v>63</v>
@@ -2093,13 +2109,13 @@
         <v>46</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O6" s="17" t="s">
         <v>62</v>
@@ -2111,15 +2127,15 @@
         <v>14</v>
       </c>
       <c r="U6" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="E7" s="17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>14</v>
@@ -2128,24 +2144,24 @@
         <v>14</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O7" s="17" t="s">
         <v>14</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="S7" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="U7" s="17" t="s">
         <v>278</v>
-      </c>
-      <c r="U7" s="17" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="8" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>61</v>
@@ -2157,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M8" s="17" t="s">
         <v>42</v>
@@ -2166,50 +2182,50 @@
         <v>64</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="S8" s="17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="U8" s="17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>111</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="S9" s="17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U9" s="17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>0</v>
@@ -2218,27 +2234,27 @@
         <v>14</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M10" s="17" t="s">
         <v>43</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Q10" s="17" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="S10" s="17" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="U10" s="17" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>1</v>
@@ -2247,38 +2263,38 @@
         <v>0</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O11" s="17" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>111</v>
@@ -2287,50 +2303,50 @@
         <v>111</v>
       </c>
       <c r="Q13" s="17" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="E14" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="E15" s="17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="E16" s="17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G16" s="17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="5:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="E17" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G18" s="17" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="17" spans="5:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="E17" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="18" spans="5:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G18" s="17" t="s">
-        <v>262</v>
-      </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="5:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:13" ht="18" x14ac:dyDescent="0.35">
       <c r="E19" s="20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>33</v>
@@ -2338,47 +2354,67 @@
       <c r="I19" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="20" spans="5:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="M19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13" ht="18" x14ac:dyDescent="0.35">
       <c r="E20" s="20" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="5:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="M20" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13" ht="18" x14ac:dyDescent="0.35">
       <c r="E21" s="20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I21" s="25" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M21" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I22" s="23" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="5:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="M22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="5:13" ht="18" x14ac:dyDescent="0.35">
       <c r="I23" s="17" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="27" spans="5:9" ht="18" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+      <c r="M23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="M24" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27" spans="5:13" ht="18" x14ac:dyDescent="0.35">
       <c r="G27" s="21" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="28" spans="5:9" ht="18" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="28" spans="5:13" ht="18" x14ac:dyDescent="0.35">
       <c r="G28" s="21" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -2392,7 +2428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2213FDCB-CC6B-4563-9ABC-C0A7BD343549}">
   <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
@@ -2406,7 +2442,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="10"/>
@@ -2471,7 +2507,7 @@
         <v>200</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -2499,7 +2535,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -2519,7 +2555,7 @@
     </row>
     <row r="7" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -2553,7 +2589,7 @@
         <v>201</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -2577,7 +2613,7 @@
         <v>78</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -2592,16 +2628,16 @@
         <v>77</v>
       </c>
       <c r="B10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -2612,7 +2648,7 @@
     </row>
     <row r="14" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -2670,7 +2706,7 @@
         <v>56</v>
       </c>
       <c r="M16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -2690,7 +2726,7 @@
         <v>200</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -2772,16 +2808,16 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" t="s">
         <v>141</v>
-      </c>
-      <c r="B22" t="s">
-        <v>142</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E22" t="s">
         <v>127</v>
@@ -2789,16 +2825,16 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E23" t="s">
         <v>128</v>
@@ -2806,16 +2842,16 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E24" t="s">
         <v>129</v>
@@ -2823,7 +2859,7 @@
     </row>
     <row r="28" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -2855,7 +2891,7 @@
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -2907,7 +2943,7 @@
         <v>200</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -2972,7 +3008,7 @@
     </row>
     <row r="37" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A37" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -3021,7 +3057,7 @@
         <v>201</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -3048,7 +3084,7 @@
         <v>200</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -3075,7 +3111,7 @@
         <v>200</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G41" s="1"/>
     </row>
@@ -3107,16 +3143,16 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B43" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C43" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E43" t="s">
         <v>127</v>
@@ -3124,16 +3160,16 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B44" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C44" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E44" t="s">
         <v>128</v>
@@ -3141,16 +3177,16 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B45" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C45" t="s">
         <v>16</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E45" t="s">
         <v>129</v>
@@ -3158,7 +3194,7 @@
     </row>
     <row r="48" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A48" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -3186,7 +3222,7 @@
         <v>17</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E49" s="4"/>
     </row>
@@ -3201,13 +3237,13 @@
         <v>16</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E50">
         <v>201</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -3215,7 +3251,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="N50" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
@@ -3229,13 +3265,13 @@
         <v>17</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E51">
         <v>200</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G51" s="1"/>
     </row>
@@ -3250,7 +3286,7 @@
         <v>23</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E52">
         <v>200</v>
@@ -3267,7 +3303,7 @@
         <v>25</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E53">
         <v>200</v>
@@ -3283,16 +3319,16 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C54" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E54" t="s">
         <v>127</v>
@@ -3300,16 +3336,16 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C55" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E55" t="s">
         <v>128</v>
@@ -3317,16 +3353,16 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B56" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C56" t="s">
         <v>16</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E56" t="s">
         <v>129</v>
@@ -3334,7 +3370,7 @@
     </row>
     <row r="61" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A61" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -3409,7 +3445,7 @@
         <v>200</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G64" s="1"/>
     </row>
@@ -3457,7 +3493,7 @@
     </row>
     <row r="73" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A73" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -3485,7 +3521,7 @@
         <v>17</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E74">
         <v>200</v>
@@ -3512,7 +3548,7 @@
         <v>16</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E75">
         <v>201</v>
@@ -3537,7 +3573,7 @@
         <v>17</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E76">
         <v>200</v>
@@ -3554,7 +3590,7 @@
         <v>25</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E77">
         <v>200</v>
@@ -3570,16 +3606,16 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B78" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C78" t="s">
         <v>17</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E78" t="s">
         <v>127</v>
@@ -3587,16 +3623,16 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B79" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C79" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E79" t="s">
         <v>128</v>
@@ -3604,16 +3640,16 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B80" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C80" t="s">
         <v>16</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E80" t="s">
         <v>129</v>
@@ -3621,7 +3657,7 @@
     </row>
     <row r="84" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A84" s="11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -3638,22 +3674,22 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B85" t="s">
         <v>222</v>
-      </c>
-      <c r="B85" t="s">
-        <v>224</v>
       </c>
       <c r="C85" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E85">
         <v>200</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -3661,10 +3697,10 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -3672,7 +3708,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F87" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -3680,7 +3716,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F88" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -3688,7 +3724,7 @@
     </row>
     <row r="92" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A92" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -3705,19 +3741,19 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C93" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E93">
         <v>200</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -3729,13 +3765,13 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C94" t="s">
         <v>16</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E94">
         <v>201</v>
@@ -3751,13 +3787,13 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C95" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E95">
         <v>200</v>
@@ -3767,7 +3803,7 @@
       <c r="A96" s="2"/>
       <c r="D96" s="8"/>
       <c r="G96" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H96" s="7"/>
       <c r="I96" s="7" t="s">
@@ -3777,13 +3813,13 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C97" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E97">
         <v>201</v>
@@ -3877,8 +3913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122B7B63-70E1-4776-B60F-F0C2CAFC3214}">
   <dimension ref="A2:T16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3909,7 +3945,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -3930,7 +3966,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>137</v>
+        <v>299</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -3946,15 +3982,13 @@
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
-      <c r="P5" s="12" t="s">
-        <v>184</v>
-      </c>
+      <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="T6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
@@ -3997,7 +4031,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -4020,7 +4054,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -4029,7 +4063,7 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -4037,7 +4071,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -4079,7 +4113,7 @@
         <v>131</v>
       </c>
       <c r="D1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -4087,32 +4121,32 @@
         <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -4126,7 +4160,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4149,22 +4183,32 @@
         <v>5</v>
       </c>
       <c r="L4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L5" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J10" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J14" s="26" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
@@ -4172,67 +4216,67 @@
         <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I25" t="s">
+        <v>155</v>
+      </c>
+      <c r="K25" t="s">
         <v>156</v>
-      </c>
-      <c r="K25" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4244,7 +4288,8 @@
     <hyperlink ref="J10" r:id="rId5" display="https://www.youtube.com/watch?v=eGQ8j6Yr6HE&amp;ab_channel=EnlightureAcademy" xr:uid="{40109270-8342-4794-8B22-E4804E6A3309}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C703BC9C-08AA-4A6A-9BBA-712950CCBE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC6F3FB-8F90-45F7-B4CC-303BEF07DC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
   <sheets>
     <sheet name="bd" sheetId="1" r:id="rId1"/>
@@ -934,9 +934,6 @@
     <t>mostrar tenant name</t>
   </si>
   <si>
-    <t>moradas campos todos required??</t>
-  </si>
-  <si>
     <t>non required: file</t>
   </si>
   <si>
@@ -959,6 +956,9 @@
   </si>
   <si>
     <t>uma tabela para pivot files_related com o file_id e terá ou company_id, ou employee_id ou department_id, ou location_id, etc, podendo vários ficheiros relacionarem -se com varias entidades???</t>
+  </si>
+  <si>
+    <t>ao adicionar novo usar login not possible</t>
   </si>
 </sst>
 </file>
@@ -2355,7 +2355,7 @@
         <v>108</v>
       </c>
       <c r="M19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="5:13" ht="18" x14ac:dyDescent="0.35">
@@ -2369,7 +2369,7 @@
         <v>2</v>
       </c>
       <c r="M20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="5:13" ht="18" x14ac:dyDescent="0.35">
@@ -2726,7 +2726,7 @@
         <v>200</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -2943,7 +2943,7 @@
         <v>200</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -3084,7 +3084,7 @@
         <v>200</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -3111,7 +3111,7 @@
         <v>200</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G41" s="1"/>
     </row>
@@ -3271,7 +3271,7 @@
         <v>200</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G51" s="1"/>
     </row>
@@ -3445,7 +3445,7 @@
         <v>200</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G64" s="1"/>
     </row>
@@ -3913,7 +3913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122B7B63-70E1-4776-B60F-F0C2CAFC3214}">
   <dimension ref="A2:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -3966,7 +3966,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -4097,10 +4097,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3302958B-D339-4AFA-82B0-C4FD1E9858AA}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="F10:I10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4139,14 +4139,14 @@
         <v>290</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>299</v>
+      </c>
+    </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>228</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F12" t="s">
-        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -4159,7 +4159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E69AFFA-B78B-436C-8588-18B78CAE897D}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -4203,12 +4203,12 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J14" s="26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC6F3FB-8F90-45F7-B4CC-303BEF07DC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F613B232-E6C0-4E5F-A78D-919D86CD566E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
   <sheets>
     <sheet name="bd" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="298">
   <si>
     <t>email</t>
   </si>
@@ -715,9 +715,6 @@
     <t>Theta Labs / laravel-database-encryption · GitLab</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>SEARCH ROUTES</t>
   </si>
   <si>
@@ -808,9 +805,6 @@
     <t>required fields : name*, email*, nif*, niss*, bicc*, emercontact*, company_id, start_date</t>
   </si>
   <si>
-    <t>actualizar locations em employees e companies</t>
-  </si>
-  <si>
     <t>schedule_id</t>
   </si>
   <si>
@@ -958,7 +952,7 @@
     <t>uma tabela para pivot files_related com o file_id e terá ou company_id, ou employee_id ou department_id, ou location_id, etc, podendo vários ficheiros relacionarem -se com varias entidades???</t>
   </si>
   <si>
-    <t>ao adicionar novo usar login not possible</t>
+    <t>mostrar imagens de resource</t>
   </si>
 </sst>
 </file>
@@ -2013,31 +2007,31 @@
         <v>132</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>109</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Q3" s="19" t="s">
         <v>131</v>
       </c>
       <c r="S3" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="U3" s="19" t="s">
         <v>275</v>
-      </c>
-      <c r="U3" s="19" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="18" x14ac:dyDescent="0.35">
@@ -2080,13 +2074,13 @@
         <v>41</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K5" s="24" t="s">
         <v>41</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O5" s="17" t="s">
         <v>63</v>
@@ -2095,7 +2089,7 @@
         <v>41</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="U5" s="17" t="s">
         <v>63</v>
@@ -2109,13 +2103,13 @@
         <v>46</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O6" s="17" t="s">
         <v>62</v>
@@ -2127,15 +2121,15 @@
         <v>14</v>
       </c>
       <c r="U6" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="E7" s="17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>14</v>
@@ -2144,24 +2138,24 @@
         <v>14</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O7" s="17" t="s">
         <v>14</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S7" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="U7" s="17" t="s">
         <v>276</v>
-      </c>
-      <c r="U7" s="17" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="8" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>61</v>
@@ -2173,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M8" s="17" t="s">
         <v>42</v>
@@ -2182,50 +2176,50 @@
         <v>64</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="S8" s="17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="U8" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>111</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="S9" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="U9" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>0</v>
@@ -2234,27 +2228,27 @@
         <v>14</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M10" s="17" t="s">
         <v>43</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q10" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="S10" s="17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="U10" s="17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>1</v>
@@ -2263,38 +2257,38 @@
         <v>0</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O11" s="17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>111</v>
@@ -2303,50 +2297,50 @@
         <v>111</v>
       </c>
       <c r="Q13" s="17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="E14" s="17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="E15" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="E16" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="5:13" ht="18" x14ac:dyDescent="0.35">
       <c r="E17" s="17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G18" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="5:13" ht="18" x14ac:dyDescent="0.35">
       <c r="E19" s="20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>33</v>
@@ -2355,35 +2349,35 @@
         <v>108</v>
       </c>
       <c r="M19" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="5:13" ht="18" x14ac:dyDescent="0.35">
       <c r="E20" s="20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M20" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="5:13" ht="18" x14ac:dyDescent="0.35">
       <c r="E21" s="20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I21" s="25" t="s">
         <v>41</v>
       </c>
       <c r="M21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2396,7 +2390,7 @@
     </row>
     <row r="23" spans="5:13" ht="18" x14ac:dyDescent="0.35">
       <c r="I23" s="17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M23" t="s">
         <v>41</v>
@@ -2404,17 +2398,17 @@
     </row>
     <row r="24" spans="5:13" x14ac:dyDescent="0.3">
       <c r="M24" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="5:13" ht="18" x14ac:dyDescent="0.35">
       <c r="G27" s="21" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="5:13" ht="18" x14ac:dyDescent="0.35">
       <c r="G28" s="21" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -2442,7 +2436,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="10"/>
@@ -2507,7 +2501,7 @@
         <v>200</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -2555,7 +2549,7 @@
     </row>
     <row r="7" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -2628,13 +2622,13 @@
         <v>77</v>
       </c>
       <c r="B10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>181</v>
@@ -2726,7 +2720,7 @@
         <v>200</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -2891,7 +2885,7 @@
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -2943,7 +2937,7 @@
         <v>200</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -3057,7 +3051,7 @@
         <v>201</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -3084,7 +3078,7 @@
         <v>200</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -3111,7 +3105,7 @@
         <v>200</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G41" s="1"/>
     </row>
@@ -3271,7 +3265,7 @@
         <v>200</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G51" s="1"/>
     </row>
@@ -3445,7 +3439,7 @@
         <v>200</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G64" s="1"/>
     </row>
@@ -3657,7 +3651,7 @@
     </row>
     <row r="84" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A84" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -3674,22 +3668,22 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C85" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E85">
         <v>200</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -3697,10 +3691,10 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
+        <v>222</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -3708,7 +3702,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F87" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -3716,7 +3710,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F88" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -3724,7 +3718,7 @@
     </row>
     <row r="92" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A92" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -3741,19 +3735,19 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C93" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E93">
         <v>200</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -3765,13 +3759,13 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C94" t="s">
         <v>16</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E94">
         <v>201</v>
@@ -3787,13 +3781,13 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C95" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E95">
         <v>200</v>
@@ -3803,7 +3797,7 @@
       <c r="A96" s="2"/>
       <c r="D96" s="8"/>
       <c r="G96" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H96" s="7"/>
       <c r="I96" s="7" t="s">
@@ -3813,13 +3807,13 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C97" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E97">
         <v>201</v>
@@ -3966,7 +3960,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -4099,8 +4093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3302958B-D339-4AFA-82B0-C4FD1E9858AA}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4124,29 +4118,19 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F3" t="s">
-        <v>249</v>
-      </c>
-    </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
-        <v>218</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F9" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -4159,7 +4143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E69AFFA-B78B-436C-8588-18B78CAE897D}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -4193,22 +4177,22 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J10" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J14" s="26" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F613B232-E6C0-4E5F-A78D-919D86CD566E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D4AE45-70E8-443A-AE67-B73D2AB061C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC8B71E-719A-4B98-BE74-CA5B7B8FAB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900DCF57-B888-4D76-81C8-CBB4FCE49FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="301">
   <si>
     <t>email</t>
   </si>
@@ -957,13 +957,19 @@
   </si>
   <si>
     <t>Nuxt JS Crash Course - YouTube</t>
+  </si>
+  <si>
+    <t>php artisan serve --host=some-domain.test --port=anyPort</t>
+  </si>
+  <si>
+    <t>artisan serve domain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1057,6 +1063,11 @@
       <color rgb="FF232629"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1165,7 +1176,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1193,6 +1204,9 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -1746,6 +1760,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>162969</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>86247</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{960E1D37-3DDA-40FB-AC4C-DA1505D3F243}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7132320"/>
+          <a:ext cx="7478169" cy="3743847"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2066,7 +2124,7 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="54.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.21875" customWidth="1"/>
@@ -2088,13 +2146,13 @@
     <col min="21" max="21" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:21" ht="18">
       <c r="Q1" s="17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:21" ht="15" thickBot="1"/>
+    <row r="3" spans="2:21" ht="18">
       <c r="C3" s="18" t="s">
         <v>132</v>
       </c>
@@ -2126,7 +2184,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="2:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:21" ht="18">
       <c r="C4" s="17" t="s">
         <v>14</v>
       </c>
@@ -2158,7 +2216,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:21" ht="18">
       <c r="E5" s="24" t="s">
         <v>41</v>
       </c>
@@ -2187,7 +2245,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="2:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:21" ht="18">
       <c r="E6" s="17" t="s">
         <v>46</v>
       </c>
@@ -2216,7 +2274,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="2:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:21" ht="18">
       <c r="E7" s="17" t="s">
         <v>248</v>
       </c>
@@ -2245,7 +2303,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:21" ht="18">
       <c r="B8" t="s">
         <v>282</v>
       </c>
@@ -2277,7 +2335,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:21" ht="18">
       <c r="B9" t="s">
         <v>283</v>
       </c>
@@ -2309,7 +2367,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="10" spans="2:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:21" ht="18">
       <c r="B10" t="s">
         <v>284</v>
       </c>
@@ -2338,7 +2396,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="2:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:21" ht="18">
       <c r="B11" t="s">
         <v>285</v>
       </c>
@@ -2361,7 +2419,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="12" spans="2:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:21" ht="18">
       <c r="B12" t="s">
         <v>286</v>
       </c>
@@ -2378,7 +2436,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="13" spans="2:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:21" ht="18">
       <c r="B13" t="s">
         <v>287</v>
       </c>
@@ -2392,7 +2450,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="2:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:21" ht="18">
       <c r="E14" s="17" t="s">
         <v>250</v>
       </c>
@@ -2400,7 +2458,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:21" ht="18">
       <c r="E15" s="17" t="s">
         <v>251</v>
       </c>
@@ -2408,7 +2466,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="2:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:21" ht="18">
       <c r="E16" s="17" t="s">
         <v>252</v>
       </c>
@@ -2416,7 +2474,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="5:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:13" ht="18">
       <c r="E17" s="17" t="s">
         <v>253</v>
       </c>
@@ -2424,13 +2482,13 @@
         <v>257</v>
       </c>
     </row>
-    <row r="18" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="5:13" ht="18.600000000000001" thickBot="1">
       <c r="G18" s="17" t="s">
         <v>258</v>
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="5:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:13" ht="18">
       <c r="E19" s="20" t="s">
         <v>278</v>
       </c>
@@ -2444,7 +2502,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="20" spans="5:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:13" ht="18">
       <c r="E20" s="20" t="s">
         <v>279</v>
       </c>
@@ -2458,7 +2516,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="21" spans="5:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:13" ht="18">
       <c r="E21" s="20" t="s">
         <v>280</v>
       </c>
@@ -2472,7 +2530,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="22" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:13" ht="15" thickBot="1">
       <c r="I22" s="23" t="s">
         <v>40</v>
       </c>
@@ -2480,7 +2538,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="5:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:13" ht="18">
       <c r="I23" s="17" t="s">
         <v>253</v>
       </c>
@@ -2488,17 +2546,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:13">
       <c r="M24" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="27" spans="5:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:13" ht="18">
       <c r="G27" s="21" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="28" spans="5:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:13" ht="18">
       <c r="G28" s="21" t="s">
         <v>281</v>
       </c>
@@ -2518,7 +2576,7 @@
       <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="53.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
@@ -2526,7 +2584,7 @@
     <col min="7" max="7" width="27.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="21">
       <c r="A1" s="11" t="s">
         <v>230</v>
       </c>
@@ -2545,7 +2603,7 @@
       <c r="N1" s="10"/>
       <c r="O1" s="10"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2576,7 +2634,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2604,7 +2662,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2630,7 +2688,7 @@
       </c>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="A5" s="2"/>
       <c r="D5" s="8"/>
       <c r="G5" s="7"/>
@@ -2639,7 +2697,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="7" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="21">
       <c r="A7" s="11" t="s">
         <v>231</v>
       </c>
@@ -2658,7 +2716,7 @@
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
         <v>75</v>
       </c>
@@ -2685,7 +2743,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="A9" s="2" t="s">
         <v>77</v>
       </c>
@@ -2709,7 +2767,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="A10" s="2" t="s">
         <v>77</v>
       </c>
@@ -2732,7 +2790,7 @@
       </c>
       <c r="K10" s="7"/>
     </row>
-    <row r="14" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" ht="21">
       <c r="A14" s="11" t="s">
         <v>197</v>
       </c>
@@ -2751,7 +2809,7 @@
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -2766,7 +2824,7 @@
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -2795,7 +2853,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -2816,7 +2874,7 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -2833,7 +2891,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -2858,7 +2916,7 @@
       </c>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
         <v>66</v>
       </c>
@@ -2875,7 +2933,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15">
       <c r="A21" s="2" t="s">
         <v>69</v>
       </c>
@@ -2892,7 +2950,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15">
       <c r="A22" s="2" t="s">
         <v>140</v>
       </c>
@@ -2909,7 +2967,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15">
       <c r="A23" s="2" t="s">
         <v>147</v>
       </c>
@@ -2926,7 +2984,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15">
       <c r="A24" s="2" t="s">
         <v>148</v>
       </c>
@@ -2943,7 +3001,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" ht="21">
       <c r="A28" s="11" t="s">
         <v>198</v>
       </c>
@@ -2962,7 +3020,7 @@
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -2989,7 +3047,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -3012,7 +3070,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -3033,7 +3091,7 @@
       </c>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15">
       <c r="A32" s="2" t="s">
         <v>26</v>
       </c>
@@ -3050,7 +3108,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15">
       <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
@@ -3075,7 +3133,7 @@
       </c>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15">
       <c r="A34" s="2" t="s">
         <v>72</v>
       </c>
@@ -3092,7 +3150,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" ht="21">
       <c r="A37" s="11" t="s">
         <v>199</v>
       </c>
@@ -3111,7 +3169,7 @@
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
@@ -3126,7 +3184,7 @@
       </c>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
@@ -3153,7 +3211,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -3180,7 +3238,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
@@ -3201,7 +3259,7 @@
       </c>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15">
       <c r="A42" s="2" t="s">
         <v>39</v>
       </c>
@@ -3227,7 +3285,7 @@
       </c>
       <c r="L42" s="7"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15">
       <c r="A43" s="2" t="s">
         <v>200</v>
       </c>
@@ -3244,7 +3302,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15">
       <c r="A44" s="2" t="s">
         <v>201</v>
       </c>
@@ -3261,7 +3319,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15">
       <c r="A45" s="2" t="s">
         <v>202</v>
       </c>
@@ -3278,7 +3336,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" ht="21">
       <c r="A48" s="11" t="s">
         <v>209</v>
       </c>
@@ -3297,7 +3355,7 @@
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15">
       <c r="A49" s="2" t="s">
         <v>44</v>
       </c>
@@ -3312,7 +3370,7 @@
       </c>
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15">
       <c r="A50" s="2" t="s">
         <v>44</v>
       </c>
@@ -3340,7 +3398,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15">
       <c r="A51" s="2" t="s">
         <v>45</v>
       </c>
@@ -3361,7 +3419,7 @@
       </c>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15">
       <c r="A52" s="2" t="s">
         <v>45</v>
       </c>
@@ -3378,7 +3436,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15">
       <c r="A53" s="2" t="s">
         <v>45</v>
       </c>
@@ -3403,7 +3461,7 @@
       </c>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15">
       <c r="A54" s="2" t="s">
         <v>163</v>
       </c>
@@ -3420,7 +3478,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15">
       <c r="A55" s="2" t="s">
         <v>164</v>
       </c>
@@ -3437,7 +3495,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15">
       <c r="A56" s="2" t="s">
         <v>165</v>
       </c>
@@ -3454,7 +3512,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" ht="21">
       <c r="A61" s="11" t="s">
         <v>210</v>
       </c>
@@ -3473,7 +3531,7 @@
       <c r="N61" s="10"/>
       <c r="O61" s="10"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15">
       <c r="A62" s="2" t="s">
         <v>47</v>
       </c>
@@ -3488,7 +3546,7 @@
       </c>
       <c r="E62" s="4"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15">
       <c r="A63" s="2" t="s">
         <v>47</v>
       </c>
@@ -3514,7 +3572,7 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15">
       <c r="A64" s="2" t="s">
         <v>48</v>
       </c>
@@ -3535,7 +3593,7 @@
       </c>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15">
       <c r="A65" s="2" t="s">
         <v>48</v>
       </c>
@@ -3552,7 +3610,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15">
       <c r="A66" s="2" t="s">
         <v>48</v>
       </c>
@@ -3577,7 +3635,7 @@
       </c>
       <c r="J66" s="7"/>
     </row>
-    <row r="73" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:15" ht="21">
       <c r="A73" s="11" t="s">
         <v>211</v>
       </c>
@@ -3596,7 +3654,7 @@
       <c r="N73" s="10"/>
       <c r="O73" s="10"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15">
       <c r="A74" s="2" t="s">
         <v>114</v>
       </c>
@@ -3623,7 +3681,7 @@
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15">
       <c r="A75" s="2" t="s">
         <v>114</v>
       </c>
@@ -3648,7 +3706,7 @@
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15">
       <c r="A76" s="2" t="s">
         <v>123</v>
       </c>
@@ -3665,7 +3723,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15">
       <c r="A77" s="2" t="s">
         <v>123</v>
       </c>
@@ -3690,7 +3748,7 @@
       </c>
       <c r="J77" s="7"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15">
       <c r="A78" s="2" t="s">
         <v>184</v>
       </c>
@@ -3707,7 +3765,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15">
       <c r="A79" s="2" t="s">
         <v>185</v>
       </c>
@@ -3724,7 +3782,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15">
       <c r="A80" s="2" t="s">
         <v>186</v>
       </c>
@@ -3741,7 +3799,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:13" ht="21">
       <c r="A84" s="11" t="s">
         <v>218</v>
       </c>
@@ -3758,7 +3816,7 @@
       <c r="L84" s="10"/>
       <c r="M84" s="10"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13">
       <c r="A85" s="2" t="s">
         <v>219</v>
       </c>
@@ -3781,7 +3839,7 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13">
       <c r="B86" t="s">
         <v>222</v>
       </c>
@@ -3792,7 +3850,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13">
       <c r="F87" s="1" t="s">
         <v>224</v>
       </c>
@@ -3800,7 +3858,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13">
       <c r="F88" s="1" t="s">
         <v>225</v>
       </c>
@@ -3808,7 +3866,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="92" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:13" ht="21">
       <c r="A92" s="11" t="s">
         <v>232</v>
       </c>
@@ -3825,7 +3883,7 @@
       <c r="L92" s="10"/>
       <c r="M92" s="10"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13">
       <c r="A93" s="2" t="s">
         <v>233</v>
       </c>
@@ -3849,7 +3907,7 @@
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13">
       <c r="A94" s="2" t="s">
         <v>233</v>
       </c>
@@ -3871,7 +3929,7 @@
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13">
       <c r="A95" s="2" t="s">
         <v>238</v>
       </c>
@@ -3885,7 +3943,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13">
       <c r="A96" s="2"/>
       <c r="D96" s="8"/>
       <c r="G96" s="7" t="s">
@@ -3897,7 +3955,7 @@
       </c>
       <c r="J96" s="7"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7">
       <c r="A97" s="2" t="s">
         <v>238</v>
       </c>
@@ -3911,7 +3969,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7">
       <c r="G99" s="15"/>
     </row>
   </sheetData>
@@ -3984,9 +4042,9 @@
       <selection activeCell="P93" sqref="P93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="90" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="17:17">
       <c r="Q90" s="16"/>
     </row>
   </sheetData>
@@ -4003,12 +4061,12 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="18" max="18" width="134.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20">
       <c r="A2" s="12" t="s">
         <v>136</v>
       </c>
@@ -4029,7 +4087,7 @@
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20">
       <c r="A3" s="12" t="s">
         <v>182</v>
       </c>
@@ -4050,7 +4108,7 @@
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20">
       <c r="A5" s="12" t="s">
         <v>296</v>
       </c>
@@ -4072,12 +4130,12 @@
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20">
       <c r="T6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -4096,7 +4154,7 @@
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -4115,7 +4173,7 @@
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20">
       <c r="A10" s="12" t="s">
         <v>213</v>
       </c>
@@ -4126,7 +4184,7 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -4138,7 +4196,7 @@
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20">
       <c r="A14" s="12" t="s">
         <v>215</v>
       </c>
@@ -4160,7 +4218,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -4189,9 +4247,9 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>130</v>
       </c>
@@ -4202,7 +4260,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="C2" t="s">
         <v>132</v>
       </c>
@@ -4210,17 +4268,17 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="F7" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="F8" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>227</v>
       </c>
@@ -4233,20 +4291,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E69AFFA-B78B-436C-8588-18B78CAE897D}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4254,7 +4312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4262,32 +4320,32 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="L5" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="J9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="J10" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="J13" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="J14" s="26" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11">
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
@@ -4295,7 +4353,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11">
       <c r="B21" s="2" t="s">
         <v>183</v>
       </c>
@@ -4303,22 +4361,22 @@
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11">
       <c r="I22" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11">
       <c r="K23" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11">
       <c r="I24" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11">
       <c r="I25" t="s">
         <v>155</v>
       </c>
@@ -4326,12 +4384,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11">
       <c r="I26" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11">
       <c r="I27" t="s">
         <v>158</v>
       </c>
@@ -4339,7 +4397,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11">
       <c r="I28" t="s">
         <v>154</v>
       </c>
@@ -4347,13 +4405,27 @@
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11">
       <c r="I29" t="s">
         <v>162</v>
       </c>
       <c r="K29" t="s">
         <v>161</v>
       </c>
+    </row>
+    <row r="40" spans="15:19">
+      <c r="O40" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41" spans="15:19">
+      <c r="O41" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4375,9 +4447,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>126</v>
       </c>
@@ -4385,7 +4457,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>134</v>
       </c>
@@ -4407,9 +4479,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>298</v>
       </c>

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900DCF57-B888-4D76-81C8-CBB4FCE49FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEE5430-2347-4CA6-BFC2-0823468932B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="302">
   <si>
     <t>email</t>
   </si>
@@ -963,6 +963,9 @@
   </si>
   <si>
     <t>artisan serve domain</t>
+  </si>
+  <si>
+    <t>php artisan serve --host=localhost  --port=8000</t>
   </si>
 </sst>
 </file>
@@ -4291,10 +4294,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E69AFFA-B78B-436C-8588-18B78CAE897D}">
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4426,6 +4429,11 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
+    </row>
+    <row r="43" spans="15:19">
+      <c r="O43" t="s">
+        <v>301</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEE5430-2347-4CA6-BFC2-0823468932B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D580E7-5696-4A02-9FA8-C64F4B605208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
+    <workbookView xWindow="3660" yWindow="-11040" windowWidth="17280" windowHeight="9072" activeTab="5" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
   <sheets>
     <sheet name="bd" sheetId="1" r:id="rId1"/>
@@ -4296,7 +4296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E69AFFA-B78B-436C-8588-18B78CAE897D}">
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
       <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D580E7-5696-4A02-9FA8-C64F4B605208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503A5E63-6A83-4DB5-9B21-7717B1929685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="-11040" windowWidth="17280" windowHeight="9072" activeTab="5" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
+    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" activeTab="5" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
   <sheets>
     <sheet name="bd" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="303">
   <si>
     <t>email</t>
   </si>
@@ -966,6 +966,9 @@
   </si>
   <si>
     <t>php artisan serve --host=localhost  --port=8000</t>
+  </si>
+  <si>
+    <t>\App\Models\User::factory()-&gt;create(['email'=&gt;'h@h','password'=&gt;bcrypt('1111')]);</t>
   </si>
 </sst>
 </file>
@@ -4296,8 +4299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E69AFFA-B78B-436C-8588-18B78CAE897D}">
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="P47" sqref="P47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4346,6 +4349,11 @@
     <row r="14" spans="1:12">
       <c r="J14" s="26" t="s">
         <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="J15" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="2:11">

--- a/docs_minha.xlsx
+++ b/docs_minha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\relogio_ponto_v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503A5E63-6A83-4DB5-9B21-7717B1929685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FC14CC-6DE4-4DB8-994F-B943D6863616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" activeTab="5" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
+    <workbookView xWindow="3468" yWindow="-11124" windowWidth="17280" windowHeight="9072" activeTab="5" xr2:uid="{12B25927-960F-40C6-A697-1CCD13921C74}"/>
   </bookViews>
   <sheets>
     <sheet name="bd" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="305">
   <si>
     <t>email</t>
   </si>
@@ -969,6 +969,12 @@
   </si>
   <si>
     <t>\App\Models\User::factory()-&gt;create(['email'=&gt;'h@h','password'=&gt;bcrypt('1111')]);</t>
+  </si>
+  <si>
+    <t>PHP-Open-Source-Saver/jwt-auth: 🔐 JSON Web Token Authentication for Laravel &amp; Lumen (github.com)</t>
+  </si>
+  <si>
+    <t>tymon</t>
   </si>
 </sst>
 </file>
@@ -4297,10 +4303,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E69AFFA-B78B-436C-8588-18B78CAE897D}">
-  <dimension ref="A1:S43"/>
+  <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4443,6 +4449,14 @@
         <v>301</v>
       </c>
     </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>304</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://github.com/laravel-frontend-presets/tall" xr:uid="{82F39080-21BF-4EAF-97F8-DCA9BC0F7D3D}"/>
@@ -4450,10 +4464,11 @@
     <hyperlink ref="B21" r:id="rId3" location="successful_responses" display="https://developer.mozilla.org/en-US/docs/Web/HTTP/Status - successful_responses" xr:uid="{A7FED2DA-8636-4303-A754-FB9C759F03CF}"/>
     <hyperlink ref="L5" r:id="rId4" display="https://gitlab.com/ThetaLabs/laravel-database-encryption" xr:uid="{A28F744F-4303-41F9-BBEC-0A6CBF62A84E}"/>
     <hyperlink ref="J10" r:id="rId5" display="https://www.youtube.com/watch?v=eGQ8j6Yr6HE&amp;ab_channel=EnlightureAcademy" xr:uid="{40109270-8342-4794-8B22-E4804E6A3309}"/>
+    <hyperlink ref="B61" r:id="rId6" display="https://github.com/PHP-Open-Source-Saver/jwt-auth" xr:uid="{74C16C00-4554-40E9-A80E-4501758110BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId6"/>
-  <drawing r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
 
